--- a/Source/Science.xlsx
+++ b/Source/Science.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9495B5F6-E769-45EE-AEB1-95B1A34686A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DED4700-D6DB-4273-AA0A-83C29B8973ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16390" yWindow="520" windowWidth="21800" windowHeight="19980" activeTab="1" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
+    <workbookView xWindow="8660" yWindow="4520" windowWidth="28660" windowHeight="16110" activeTab="3" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
     <sheet name="Kiwi" sheetId="2" r:id="rId2"/>
     <sheet name="ScienceParam" sheetId="3" r:id="rId3"/>
+    <sheet name="Defaults" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Defaults!$A$1:$D$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kiwi!$A$2:$X$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stock!$A$2:$U$45</definedName>
   </definedNames>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="202">
   <si>
     <t>Experiment</t>
   </si>
@@ -528,6 +530,123 @@
   </si>
   <si>
     <t>spaceThreshold</t>
+  </si>
+  <si>
+    <t>ResourceAmtNeededToStart</t>
+  </si>
+  <si>
+    <t>ResourceAmtNeededToEnd</t>
+  </si>
+  <si>
+    <t>ResourceAmtUsedForDeploy</t>
+  </si>
+  <si>
+    <t>Experiment ID</t>
+  </si>
+  <si>
+    <t>pressureScan</t>
+  </si>
+  <si>
+    <t>dmRoverMat</t>
+  </si>
+  <si>
+    <t>dmRoverGoo</t>
+  </si>
+  <si>
+    <t>StudentExperiment</t>
+  </si>
+  <si>
+    <t>KSCExperiment</t>
+  </si>
+  <si>
+    <t>CustomerExperiment</t>
+  </si>
+  <si>
+    <t>DDLaser</t>
+  </si>
+  <si>
+    <t>DDXray</t>
+  </si>
+  <si>
+    <t>DDMassSpectro</t>
+  </si>
+  <si>
+    <t>DDCarbon</t>
+  </si>
+  <si>
+    <t>DDGas</t>
+  </si>
+  <si>
+    <t>DDMicroscopy</t>
+  </si>
+  <si>
+    <t>DDPlants</t>
+  </si>
+  <si>
+    <t>GasAnalyzer</t>
+  </si>
+  <si>
+    <t>Interkosmos</t>
+  </si>
+  <si>
+    <t>Hydrometer</t>
+  </si>
+  <si>
+    <t>IRSpectrometer</t>
+  </si>
+  <si>
+    <t>Photometer</t>
+  </si>
+  <si>
+    <t>Photopolarimeter</t>
+  </si>
+  <si>
+    <t>Crystals</t>
+  </si>
+  <si>
+    <t>CardboardBox</t>
+  </si>
+  <si>
+    <t>KrakenScience</t>
+  </si>
+  <si>
+    <t>SampleBox</t>
+  </si>
+  <si>
+    <t>KrakenScanner</t>
+  </si>
+  <si>
+    <t>Incubator</t>
+  </si>
+  <si>
+    <t>TentacleSample</t>
+  </si>
+  <si>
+    <t>SkinSample</t>
+  </si>
+  <si>
+    <t>EyeSample</t>
+  </si>
+  <si>
+    <t>BloodSample</t>
+  </si>
+  <si>
+    <t>Microwaves</t>
+  </si>
+  <si>
+    <t>ScienceRackBio</t>
+  </si>
+  <si>
+    <t>ScienceRackExp</t>
+  </si>
+  <si>
+    <t>KrakenSpecimen1</t>
+  </si>
+  <si>
+    <t>KrakenSpecimen2</t>
+  </si>
+  <si>
+    <t>KrakenSpecimen3</t>
   </si>
 </sst>
 </file>
@@ -566,12 +685,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,22 +1040,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -4164,11 +4283,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7CD309-1AF9-460F-88C8-8DF0B79AC471}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52:X65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4198,22 +4319,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -4280,7 +4401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4309,7 +4430,7 @@
       <c r="I3" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="1" t="str">
         <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A3,"]]:NEEDS[",I3,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C3,CHAR(10),"     ","@scienceCap = ",D3,CHAR(10),"     ","@dataScale = ",E3,CHAR(10),"     ","@situationMask = ",F3,CHAR(10),"     ","@biomeMask = ",G3,CHAR(10),"}")</f>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[mysteryGoo]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
@@ -4320,7 +4441,7 @@
      @biomeMask = 3
 }</v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="K3" s="1" t="str">
         <f>IF(H3&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A3,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H3,CHAR(10),"    }"),"")</f>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[mysteryGoo]]
     {
@@ -4376,7 +4497,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -4386,8 +4507,8 @@
       <c r="I4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="str">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="str">
         <f>IF(H4&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMRoverGooMat]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMRoverGooMat]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H4,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMRoverGooMat]]
 {
@@ -4398,7 +4519,7 @@
 }</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4409,7 +4530,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <f>C5</f>
+        <f t="shared" ref="D5:D45" si="0">C5</f>
         <v>20</v>
       </c>
       <c r="E5">
@@ -4427,8 +4548,8 @@
       <c r="I5" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A5,"]]:NEEDS[",I5,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C5,CHAR(10),"     ","@scienceCap = ",D5,CHAR(10),"     ","@dataScale = ",E5,CHAR(10),"     ","@situationMask = ",F5,CHAR(10),"     ","@biomeMask = ",G5,CHAR(10),"}")</f>
+      <c r="J5" s="1" t="str">
+        <f t="shared" ref="J5:J65" si="1">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A5,"]]:NEEDS[",I5,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C5,CHAR(10),"     ","@scienceCap = ",D5,CHAR(10),"     ","@dataScale = ",E5,CHAR(10),"     ","@situationMask = ",F5,CHAR(10),"     ","@biomeMask = ",G5,CHAR(10),"}")</f>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[mobileMaterialsLab]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -4438,7 +4559,7 @@
      @biomeMask = 3
 }</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="K5" s="1" t="str">
         <f>IF(H5&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A5,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H5,CHAR(10),"    }"),"")</f>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[mobileMaterialsLab]]
     {
@@ -4446,55 +4567,55 @@
     }</v>
       </c>
       <c r="M5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="M5:M65" si="2">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="N5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="N5:N65" si="3">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="O5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="O5:O65" si="4">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="P5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="P5:P65" si="5">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="Q5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="Q5:Q65" si="6">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),5),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="R5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="R5:R65" si="7">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="S5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="S5:S65" si="8">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="T5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="T5:T65" si="9">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="U5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="U5:U65" si="10">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="V5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="V5:V65" si="11">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="W5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" ref="W5:W65" si="12">IF(F5&lt;&gt;"",IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),5),1)*1=1,"Yes","No"),""),"")</f>
         <v>No</v>
       </c>
       <c r="X5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="X5:X65" si="13">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),6),1)*1=1,"Yes","No"),"")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -4505,7 +4626,7 @@
         <v>45</v>
       </c>
       <c r="D6">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E6">
@@ -4523,8 +4644,8 @@
       <c r="I6" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A6,"]]:NEEDS[",I6,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C6,CHAR(10),"     ","@scienceCap = ",D6,CHAR(10),"     ","@dataScale = ",E6,CHAR(10),"     ","@situationMask = ",F6,CHAR(10),"     ","@biomeMask = ",G6,CHAR(10),"}")</f>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmbiodrillscan]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 45
@@ -4534,7 +4655,7 @@
      @biomeMask = 1
 }</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="K6" s="1" t="str">
         <f>IF(H6&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMBioDrill]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMBioDrill]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H6,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMBioDrill]]
 {
@@ -4545,55 +4666,55 @@
 }</v>
       </c>
       <c r="M6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F6,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F6,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F6,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F6,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F6,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F6,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G6,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G6,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G6,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G6,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G6,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G6,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -4604,7 +4725,7 @@
         <v>45</v>
       </c>
       <c r="D7">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E7">
@@ -4622,8 +4743,8 @@
       <c r="I7" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A7,"]]:NEEDS[",I7,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C7,CHAR(10),"     ","@scienceCap = ",D7,CHAR(10),"     ","@dataScale = ",E7,CHAR(10),"     ","@situationMask = ",F7,CHAR(10),"     ","@biomeMask = ",G7,CHAR(10),"}")</f>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmSolarParticles]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 45
@@ -4633,7 +4754,7 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="K7" s="1" t="str">
         <f>IF(H7&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMSolarCollector]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMSolarCollector]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H7,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMSolarCollector]]
 {
@@ -4644,55 +4765,55 @@
 }</v>
       </c>
       <c r="M7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F7,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F7,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F7,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F7,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F7,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F7,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G7,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G7,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G7,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G7,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G7,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G7,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -4703,7 +4824,7 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E8">
@@ -4721,8 +4842,8 @@
       <c r="I8" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A8,"]]:NEEDS[",I8,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C8,CHAR(10),"     ","@scienceCap = ",D8,CHAR(10),"     ","@dataScale = ",E8,CHAR(10),"     ","@situationMask = ",F8,CHAR(10),"     ","@biomeMask = ",G8,CHAR(10),"}")</f>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmbathymetryscan]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 16
@@ -4732,7 +4853,7 @@
      @biomeMask = 2
 }</v>
       </c>
-      <c r="K8" s="2" t="str">
+      <c r="K8" s="1" t="str">
         <f>IF(H8&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMBathymetry]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMBathymetry]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H8,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMBathymetry]]
 {
@@ -4743,51 +4864,51 @@
 }</v>
       </c>
       <c r="M8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F8,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F8,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F8,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F8,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F8,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F8,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G8,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G8,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="U8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G8,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G8,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G8,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G8,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -4802,7 +4923,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <f>C9</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E9">
@@ -4820,8 +4941,8 @@
       <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A9,"]]:NEEDS[",I9,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C9,CHAR(10),"     ","@scienceCap = ",D9,CHAR(10),"     ","@dataScale = ",E9,CHAR(10),"     ","@situationMask = ",F9,CHAR(10),"     ","@biomeMask = ",G9,CHAR(10),"}")</f>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[microGrav]]:NEEDS[LTech]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -4831,59 +4952,59 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K9" s="2" t="str">
-        <f>IF(H9&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A9,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H9,CHAR(10),"    }"),"")</f>
+      <c r="K9" s="1" t="str">
+        <f t="shared" ref="K9:K19" si="14">IF(H9&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A9,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H9,CHAR(10),"    }"),"")</f>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[microGrav]]
     {
         @xmitDataScalar = 0.7
     }</v>
       </c>
       <c r="M9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F9,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F9,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F9,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F9,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F9,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F9,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G9,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G9,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G9,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G9,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G9,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G9,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -4898,7 +5019,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <f>C10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E10">
@@ -4916,8 +5037,8 @@
       <c r="I10" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A10,"]]:NEEDS[",I10,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C10,CHAR(10),"     ","@scienceCap = ",D10,CHAR(10),"     ","@dataScale = ",E10,CHAR(10),"     ","@situationMask = ",F10,CHAR(10),"     ","@biomeMask = ",G10,CHAR(10),"}")</f>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[modelRockets]]:NEEDS[LTech]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -4927,59 +5048,59 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K10" s="2" t="str">
-        <f>IF(H10&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A10,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H10,CHAR(10),"    }"),"")</f>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[modelRockets]]
     {
         @xmitDataScalar = 0.7
     }</v>
       </c>
       <c r="M10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F10,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F10,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F10,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F10,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F10,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F10,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G10,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G10,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G10,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G10,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G10,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G10,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -4994,7 +5115,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <f>C11</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E11">
@@ -5012,8 +5133,8 @@
       <c r="I11" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A11,"]]:NEEDS[",I11,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C11,CHAR(10),"     ","@scienceCap = ",D11,CHAR(10),"     ","@dataScale = ",E11,CHAR(10),"     ","@situationMask = ",F11,CHAR(10),"     ","@biomeMask = ",G11,CHAR(10),"}")</f>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[habCheck]]:NEEDS[LTech]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -5023,59 +5144,59 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K11" s="2" t="str">
-        <f>IF(H11&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A11,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H11,CHAR(10),"    }"),"")</f>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[habCheck]]
     {
         @xmitDataScalar = 0.7
     }</v>
       </c>
       <c r="M11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F11,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F11,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F11,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F11,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F11,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F11,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G11,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G11,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G11,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G11,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G11,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G11,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5090,7 +5211,7 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <f>C12</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E12">
@@ -5108,8 +5229,8 @@
       <c r="I12" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A12,"]]:NEEDS[",I12,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C12,CHAR(10),"     ","@scienceCap = ",D12,CHAR(10),"     ","@dataScale = ",E12,CHAR(10),"     ","@situationMask = ",F12,CHAR(10),"     ","@biomeMask = ",G12,CHAR(10),"}")</f>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[fireCheck]]:NEEDS[LTech]:FOR[zKiwiAerospace]
 {
      @baseValue = 50
@@ -5119,59 +5240,59 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K12" s="2" t="str">
-        <f>IF(H12&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A12,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H12,CHAR(10),"    }"),"")</f>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[fireCheck]]
     {
         @xmitDataScalar = 0.7
     }</v>
       </c>
       <c r="M12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F12,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F12,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F12,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F12,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F12,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F12,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G12,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G12,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G12,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G12,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G12,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G12,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5186,7 +5307,7 @@
         <v>50</v>
       </c>
       <c r="D13">
-        <f>C13</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E13">
@@ -5204,8 +5325,8 @@
       <c r="I13" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A13,"]]:NEEDS[",I13,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C13,CHAR(10),"     ","@scienceCap = ",D13,CHAR(10),"     ","@dataScale = ",E13,CHAR(10),"     ","@situationMask = ",F13,CHAR(10),"     ","@biomeMask = ",G13,CHAR(10),"}")</f>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[plantCheck]]:NEEDS[LTech]:FOR[zKiwiAerospace]
 {
      @baseValue = 50
@@ -5215,63 +5336,63 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K13" s="2" t="str">
-        <f>IF(H13&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A13,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H13,CHAR(10),"    }"),"")</f>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[plantCheck]]
     {
         @xmitDataScalar = 0.7
     }</v>
       </c>
       <c r="M13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F13,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F13,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F13,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F13,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F13,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F13,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G13,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G13,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G13,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G13,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G13,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G13,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -5282,7 +5403,7 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <f>C14</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E14">
@@ -5300,8 +5421,8 @@
       <c r="I14" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A14,"]]:NEEDS[",I14,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C14,CHAR(10),"     ","@scienceCap = ",D14,CHAR(10),"     ","@dataScale = ",E14,CHAR(10),"     ","@situationMask = ",F14,CHAR(10),"     ","@biomeMask = ",G14,CHAR(10),"}")</f>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[crewReport]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -5311,63 +5432,63 @@
      @biomeMask = 23
 }</v>
       </c>
-      <c r="K14" s="2" t="str">
-        <f>IF(H14&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A14,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H14,CHAR(10),"    }"),"")</f>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[crewReport]]
     {
         @xmitDataScalar = 1
     }</v>
       </c>
       <c r="M14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F14,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F14,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F14,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="P14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F14,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F14,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F14,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G14,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G14,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="U14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G14,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="V14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G14,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G14,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="X14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G14,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -5378,7 +5499,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <f>C15</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="E15">
@@ -5396,8 +5517,8 @@
       <c r="I15" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A15,"]]:NEEDS[",I15,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C15,CHAR(10),"     ","@scienceCap = ",D15,CHAR(10),"     ","@dataScale = ",E15,CHAR(10),"     ","@situationMask = ",F15,CHAR(10),"     ","@biomeMask = ",G15,CHAR(10),"}")</f>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[evaReport]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 14
@@ -5407,63 +5528,63 @@
      @biomeMask = 3
 }</v>
       </c>
-      <c r="K15" s="2" t="str">
-        <f>IF(H15&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A15,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H15,CHAR(10),"    }"),"")</f>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[evaReport]]
     {
         @xmitDataScalar = 1
     }</v>
       </c>
       <c r="M15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F15,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F15,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F15,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F15,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F15,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F15,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G15,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G15,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="U15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G15,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G15,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G15,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G15,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5474,11 +5595,11 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <f>C16</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>63</v>
@@ -5492,74 +5613,74 @@
       <c r="I16" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A16,"]]:NEEDS[",I16,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C16,CHAR(10),"     ","@scienceCap = ",D16,CHAR(10),"     ","@dataScale = ",E16,CHAR(10),"     ","@situationMask = ",F16,CHAR(10),"     ","@biomeMask = ",G16,CHAR(10),"}")</f>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[temperatureScan]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 8
      @scienceCap = 8
-     @dataScale = 2
+     @dataScale = 1
      @situationMask = 63
      @biomeMask = 7
 }</v>
       </c>
-      <c r="K16" s="2" t="str">
-        <f>IF(H16&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A16,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H16,CHAR(10),"    }"),"")</f>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[temperatureScan]]
     {
         @xmitDataScalar = 1
     }</v>
       </c>
       <c r="M16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F16,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F16,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F16,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="P16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F16,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F16,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F16,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G16,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G16,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="U16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G16,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="V16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G16,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G16,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G16,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5570,11 +5691,11 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <f>C17</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>31</v>
@@ -5588,74 +5709,74 @@
       <c r="I17" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A17,"]]:NEEDS[",I17,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C17,CHAR(10),"     ","@scienceCap = ",D17,CHAR(10),"     ","@dataScale = ",E17,CHAR(10),"     ","@situationMask = ",F17,CHAR(10),"     ","@biomeMask = ",G17,CHAR(10),"}")</f>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[barometerScan]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
      @scienceCap = 10
-     @dataScale = 2
+     @dataScale = 1
      @situationMask = 31
      @biomeMask = 3
 }</v>
       </c>
-      <c r="K17" s="2" t="str">
-        <f>IF(H17&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A17,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H17,CHAR(10),"    }"),"")</f>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[barometerScan]]
     {
         @xmitDataScalar = 1
     }</v>
       </c>
       <c r="M17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F17,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F17,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F17,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="P17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F17,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F17,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F17,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G17,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G17,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="U17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G17,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G17,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G17,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G17,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5666,7 +5787,7 @@
         <v>20</v>
       </c>
       <c r="D18">
-        <f>C18</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E18">
@@ -5684,8 +5805,8 @@
       <c r="I18" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A18,"]]:NEEDS[",I18,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C18,CHAR(10),"     ","@scienceCap = ",D18,CHAR(10),"     ","@dataScale = ",E18,CHAR(10),"     ","@situationMask = ",F18,CHAR(10),"     ","@biomeMask = ",G18,CHAR(10),"}")</f>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[seismicScan]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -5695,59 +5816,59 @@
      @biomeMask = 1
 }</v>
       </c>
-      <c r="K18" s="2" t="str">
-        <f>IF(H18&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A18,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H18,CHAR(10),"    }"),"")</f>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[seismicScan]]
     {
         @xmitDataScalar = 1
     }</v>
       </c>
       <c r="M18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F18,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F18,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F18,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F18,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F18,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F18,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G18,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G18,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G18,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G18,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G18,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G18,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5762,7 +5883,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <f>C19</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E19">
@@ -5780,8 +5901,8 @@
       <c r="I19" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A19,"]]:NEEDS[",I19,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C19,CHAR(10),"     ","@scienceCap = ",D19,CHAR(10),"     ","@dataScale = ",E19,CHAR(10),"     ","@situationMask = ",F19,CHAR(10),"     ","@biomeMask = ",G19,CHAR(10),"}")</f>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[radioWaves]]:NEEDS[LTech]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -5791,63 +5912,63 @@
      @biomeMask = 51
 }</v>
       </c>
-      <c r="K19" s="2" t="str">
-        <f>IF(H19&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A19,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H19,CHAR(10),"    }"),"")</f>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[radioWaves]]
     {
         @xmitDataScalar = 1
     }</v>
       </c>
       <c r="M19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F19,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F19,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F19,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F19,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F19,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F19,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G19,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G19,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="U19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G19,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G19,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G19,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="X19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G19,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -5858,7 +5979,7 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <f>C20</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E20">
@@ -5876,8 +5997,8 @@
       <c r="I20" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A20,"]]:NEEDS[",I20,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C20,CHAR(10),"     ","@scienceCap = ",D20,CHAR(10),"     ","@dataScale = ",E20,CHAR(10),"     ","@situationMask = ",F20,CHAR(10),"     ","@biomeMask = ",G20,CHAR(10),"}")</f>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[magScan]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -5887,7 +6008,7 @@
      @biomeMask = 1
 }</v>
       </c>
-      <c r="K20" s="2" t="str">
+      <c r="K20" s="1" t="str">
         <f>IF(H20&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimate]:HAS[#experimentID[",A20,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H20,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]
 {
@@ -5898,55 +6019,55 @@
 }</v>
       </c>
       <c r="M20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F20,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F20,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F20,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F20,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F20,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F20,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G20,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G20,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G20,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G20,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G20,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G20,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -5957,11 +6078,11 @@
         <v>16</v>
       </c>
       <c r="D21">
-        <f>C21</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>51</v>
@@ -5975,18 +6096,18 @@
       <c r="I21" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A21,"]]:NEEDS[",I21,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C21,CHAR(10),"     ","@scienceCap = ",D21,CHAR(10),"     ","@dataScale = ",E21,CHAR(10),"     ","@situationMask = ",F21,CHAR(10),"     ","@biomeMask = ",G21,CHAR(10),"}")</f>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[gravityScan]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 16
      @scienceCap = 16
-     @dataScale = 3
+     @dataScale = 2
      @situationMask = 51
      @biomeMask = 51
 }</v>
       </c>
-      <c r="K21" s="2" t="str">
+      <c r="K21" s="1" t="str">
         <f>IF(H21&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A21,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H21,CHAR(10),"    }"),"")</f>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[gravityScan]]
     {
@@ -5994,55 +6115,55 @@
     }</v>
       </c>
       <c r="M21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F21,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F21,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F21,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F21,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F21,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F21,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G21,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G21,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="U21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G21,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G21,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G21,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="X21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G21,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -6053,7 +6174,7 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <f>C22</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E22">
@@ -6071,8 +6192,8 @@
       <c r="I22" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A22,"]]:NEEDS[",I22,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C22,CHAR(10),"     ","@scienceCap = ",D22,CHAR(10),"     ","@dataScale = ",E22,CHAR(10),"     ","@situationMask = ",F22,CHAR(10),"     ","@biomeMask = ",G22,CHAR(10),"}")</f>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[atmosphereAnalysis]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -6082,7 +6203,7 @@
      @biomeMask = 13
 }</v>
       </c>
-      <c r="K22" s="2" t="str">
+      <c r="K22" s="1" t="str">
         <f>IF(H22&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A22,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H22,CHAR(10),"    }"),"")</f>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[atmosphereAnalysis]]
     {
@@ -6090,55 +6211,55 @@
     }</v>
       </c>
       <c r="M22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F22,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F22,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F22,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="P22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F22,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F22,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F22,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G22,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G22,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G22,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="V22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G22,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
       <c r="W22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G22,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G22,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -6149,7 +6270,7 @@
         <v>12</v>
       </c>
       <c r="D23">
-        <f>C23</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E23">
@@ -6167,8 +6288,8 @@
       <c r="I23" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A23,"]]:NEEDS[",I23,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C23,CHAR(10),"     ","@scienceCap = ",D23,CHAR(10),"     ","@dataScale = ",E23,CHAR(10),"     ","@situationMask = ",F23,CHAR(10),"     ","@biomeMask = ",G23,CHAR(10),"}")</f>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[rpwsScan]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 12
@@ -6178,7 +6299,7 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K23" s="2" t="str">
+      <c r="K23" s="1" t="str">
         <f>IF(H23&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimate]:HAS[#experimentID[",A23,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H23,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]
 {
@@ -6189,51 +6310,51 @@
 }</v>
       </c>
       <c r="M23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F23,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F23,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F23,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F23,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F23,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F23,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G23,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G23,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G23,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G23,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G23,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G23,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -6248,7 +6369,7 @@
         <v>15</v>
       </c>
       <c r="D24">
-        <f>C24</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E24">
@@ -6266,8 +6387,8 @@
       <c r="I24" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A24,"]]:NEEDS[",I24,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C24,CHAR(10),"     ","@scienceCap = ",D24,CHAR(10),"     ","@dataScale = ",E24,CHAR(10),"     ","@situationMask = ",F24,CHAR(10),"     ","@biomeMask = ",G24,CHAR(10),"}")</f>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[radiationScan]]:NEEDS[LTech]:FOR[zKiwiAerospace]
 {
      @baseValue = 15
@@ -6277,7 +6398,7 @@
      @biomeMask = 63
 }</v>
       </c>
-      <c r="K24" s="2" t="str">
+      <c r="K24" s="1" t="str">
         <f>IF(H24&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A24,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H24,CHAR(10),"    }"),"")</f>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[radiationScan]]
     {
@@ -6285,55 +6406,55 @@
     }</v>
       </c>
       <c r="M24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F24,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F24,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F24,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="P24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F24,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F24,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F24,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G24,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G24,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="U24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G24,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="V24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G24,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
       <c r="W24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G24,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="X24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G24,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -6344,7 +6465,7 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <f>C25</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E25">
@@ -6362,8 +6483,8 @@
       <c r="I25" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A25,"]]:NEEDS[",I25,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C25,CHAR(10),"     ","@scienceCap = ",D25,CHAR(10),"     ","@dataScale = ",E25,CHAR(10),"     ","@situationMask = ",F25,CHAR(10),"     ","@biomeMask = ",G25,CHAR(10),"}")</f>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[scopeScan]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 6
@@ -6373,7 +6494,7 @@
      @biomeMask = 16
 }</v>
       </c>
-      <c r="K25" s="2" t="str">
+      <c r="K25" s="1" t="str">
         <f>IF(H25&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimate]:HAS[#experimentID[",A25,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H25,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]
 {
@@ -6384,55 +6505,55 @@
 }</v>
       </c>
       <c r="M25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F25,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F25,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F25,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F25,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F25,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F25,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G25,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G25,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G25,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G25,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G25,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="X25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G25,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -6443,7 +6564,7 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <f>C26</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E26">
@@ -6461,8 +6582,8 @@
       <c r="I26" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A26,"]]:NEEDS[",I26,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C26,CHAR(10),"     ","@scienceCap = ",D26,CHAR(10),"     ","@dataScale = ",E26,CHAR(10),"     ","@situationMask = ",F26,CHAR(10),"     ","@biomeMask = ",G26,CHAR(10),"}")</f>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmlaserblastscan]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 6
@@ -6472,7 +6593,7 @@
      @biomeMask = 3
 }</v>
       </c>
-      <c r="K26" s="2" t="str">
+      <c r="K26" s="1" t="str">
         <f>IF(H26&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimate]:HAS[#experimentID[",A26,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H26,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]
 {
@@ -6483,55 +6604,55 @@
 }</v>
       </c>
       <c r="M26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F26,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F26,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F26,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F26,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F26,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F26,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G26,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G26,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="U26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G26,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G26,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G26,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G26,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -6542,7 +6663,7 @@
         <v>12</v>
       </c>
       <c r="D27">
-        <f>C27</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E27">
@@ -6560,8 +6681,8 @@
       <c r="I27" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A27,"]]:NEEDS[",I27,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C27,CHAR(10),"     ","@scienceCap = ",D27,CHAR(10),"     ","@dataScale = ",E27,CHAR(10),"     ","@situationMask = ",F27,CHAR(10),"     ","@biomeMask = ",G27,CHAR(10),"}")</f>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmRadiometerScan]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 12
@@ -6571,7 +6692,7 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K27" s="2" t="str">
+      <c r="K27" s="1" t="str">
         <f>IF(H27&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimate]:HAS[#experimentID[",A27,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H27,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]
 {
@@ -6582,55 +6703,55 @@
 }</v>
       </c>
       <c r="M27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F27,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F27,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F27,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F27,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F27,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F27,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G27,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G27,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G27,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G27,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G27,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G27,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6641,7 +6762,7 @@
         <v>15</v>
       </c>
       <c r="D28">
-        <f>C28</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E28">
@@ -6659,8 +6780,8 @@
       <c r="I28" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A28,"]]:NEEDS[",I28,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C28,CHAR(10),"     ","@scienceCap = ",D28,CHAR(10),"     ","@dataScale = ",E28,CHAR(10),"     ","@situationMask = ",F28,CHAR(10),"     ","@biomeMask = ",G28,CHAR(10),"}")</f>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[infraredTelescope]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 15
@@ -6670,7 +6791,7 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K28" s="2" t="str">
+      <c r="K28" s="1" t="str">
         <f>IF(H28&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A28,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H28,CHAR(10),"    }"),"")</f>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[infraredTelescope]]
     {
@@ -6678,55 +6799,55 @@
     }</v>
       </c>
       <c r="M28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F28,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F28,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F28,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F28,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F28,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F28,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G28,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G28,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G28,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G28,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G28,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G28,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -6737,7 +6858,7 @@
         <v>12</v>
       </c>
       <c r="D29">
-        <f>C29</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E29">
@@ -6755,8 +6876,8 @@
       <c r="I29" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A29,"]]:NEEDS[",I29,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C29,CHAR(10),"     ","@scienceCap = ",D29,CHAR(10),"     ","@dataScale = ",E29,CHAR(10),"     ","@situationMask = ",F29,CHAR(10),"     ","@biomeMask = ",G29,CHAR(10),"}")</f>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmImagingPlatform]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 12
@@ -6766,7 +6887,7 @@
      @biomeMask = 16
 }</v>
       </c>
-      <c r="K29" s="2" t="str">
+      <c r="K29" s="1" t="str">
         <f>IF(H29&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimate]:HAS[#experimentID[",A29,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H29,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]
 {
@@ -6777,55 +6898,55 @@
 }</v>
       </c>
       <c r="M29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F29,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F29,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F29,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F29,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F29,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F29,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G29,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G29,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G29,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G29,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G29,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="X29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G29,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -6836,7 +6957,7 @@
         <v>20</v>
       </c>
       <c r="D30">
-        <f>C30</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E30">
@@ -6854,8 +6975,8 @@
       <c r="I30" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A30,"]]:NEEDS[",I30,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C30,CHAR(10),"     ","@scienceCap = ",D30,CHAR(10),"     ","@dataScale = ",E30,CHAR(10),"     ","@situationMask = ",F30,CHAR(10),"     ","@biomeMask = ",G30,CHAR(10),"}")</f>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmseismicHammer]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -6865,57 +6986,57 @@
      @biomeMask = 1
 }</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="1"/>
       <c r="M30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F30,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F30,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F30,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F30,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F30,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F30,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G30,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G30,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G30,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G30,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G30,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G30,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -6926,7 +7047,7 @@
         <v>40</v>
       </c>
       <c r="D31">
-        <f>C31</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E31">
@@ -6944,8 +7065,8 @@
       <c r="I31" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A31,"]]:NEEDS[",I31,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C31,CHAR(10),"     ","@scienceCap = ",D31,CHAR(10),"     ","@dataScale = ",E31,CHAR(10),"     ","@situationMask = ",F31,CHAR(10),"     ","@biomeMask = ",G31,CHAR(10),"}")</f>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmReconScan]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 40
@@ -6955,7 +7076,7 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K31" s="2" t="str">
+      <c r="K31" s="1" t="str">
         <f>IF(H31&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMReconScope]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMReconScope]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H31,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMReconScope]]
 {
@@ -6966,55 +7087,55 @@
 }</v>
       </c>
       <c r="M31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F31,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F31,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F31,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F31,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F31,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F31,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G31,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G31,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G31,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G31,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G31,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G31,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -7025,7 +7146,7 @@
         <v>25</v>
       </c>
       <c r="D32">
-        <f>C32</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E32">
@@ -7043,8 +7164,8 @@
       <c r="I32" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A32,"]]:NEEDS[",I32,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C32,CHAR(10),"     ","@scienceCap = ",D32,CHAR(10),"     ","@dataScale = ",E32,CHAR(10),"     ","@situationMask = ",F32,CHAR(10),"     ","@biomeMask = ",G32,CHAR(10),"}")</f>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmNAlbedoScan]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 25
@@ -7054,7 +7175,7 @@
      @biomeMask = 1
 }</v>
       </c>
-      <c r="K32" s="2" t="str">
+      <c r="K32" s="1" t="str">
         <f>IF(H32&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimate]:HAS[#experimentID[",A32,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H32,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimate]]
 {
@@ -7065,55 +7186,55 @@
 }</v>
       </c>
       <c r="M32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F32,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F32,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F32,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F32,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F32,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F32,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G32,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G32,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G32,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G32,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G32,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G32,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -7124,7 +7245,7 @@
         <v>25</v>
       </c>
       <c r="D33">
-        <f>C33</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E33">
@@ -7142,8 +7263,8 @@
       <c r="I33" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A33,"]]:NEEDS[",I33,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C33,CHAR(10),"     ","@scienceCap = ",D33,CHAR(10),"     ","@dataScale = ",E33,CHAR(10),"     ","@situationMask = ",F33,CHAR(10),"     ","@biomeMask = ",G33,CHAR(10),"}")</f>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmXRayDiffract]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 25
@@ -7153,7 +7274,7 @@
      @biomeMask = 1
 }</v>
       </c>
-      <c r="K33" s="2" t="str">
+      <c r="K33" s="1" t="str">
         <f>IF(H33&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMXRayDiffract]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMXRayDiffract]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H33,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMXRayDiffract]]
 {
@@ -7164,55 +7285,55 @@
 }</v>
       </c>
       <c r="M33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F33,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F33,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F33,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F33,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F33,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F33,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G33,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G33,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G33,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G33,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G33,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G33,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -7223,7 +7344,7 @@
         <v>40</v>
       </c>
       <c r="D34">
-        <f>C34</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E34">
@@ -7241,8 +7362,8 @@
       <c r="I34" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A34,"]]:NEEDS[",I34,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C34,CHAR(10),"     ","@scienceCap = ",D34,CHAR(10),"     ","@dataScale = ",E34,CHAR(10),"     ","@situationMask = ",F34,CHAR(10),"     ","@biomeMask = ",G34,CHAR(10),"}")</f>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmSoilMoisture]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 40
@@ -7252,7 +7373,7 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K34" s="2" t="str">
+      <c r="K34" s="1" t="str">
         <f>IF(H34&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMSoilMoisture]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMSoilMoisture]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H34,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMSoilMoisture]]
 {
@@ -7263,55 +7384,55 @@
 }</v>
       </c>
       <c r="M34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F34,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F34,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F34,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F34,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F34,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F34,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G34,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G34,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G34,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G34,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G34,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G34,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -7322,7 +7443,7 @@
         <v>50</v>
       </c>
       <c r="D35">
-        <f>C35</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E35">
@@ -7340,8 +7461,8 @@
       <c r="I35" t="s">
         <v>66</v>
       </c>
-      <c r="J35" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A35,"]]:NEEDS[",I35,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C35,CHAR(10),"     ","@scienceCap = ",D35,CHAR(10),"     ","@dataScale = ",E35,CHAR(10),"     ","@situationMask = ",F35,CHAR(10),"     ","@biomeMask = ",G35,CHAR(10),"}")</f>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmSIGINT]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 50
@@ -7351,7 +7472,7 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K35" s="2" t="str">
+      <c r="K35" s="1" t="str">
         <f>IF(H35&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMSIGINT]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMSIGINT]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H35,CHAR(10),"    }",CHAR(10),"}"),"")</f>
         <v>@PART[*]:HAS[@MODULE[DMSIGINT]]
 {
@@ -7362,55 +7483,55 @@
 }</v>
       </c>
       <c r="M35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F35,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F35,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F35,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F35,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F35,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F35,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G35,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G35,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G35,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G35,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G35,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G35,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -7418,7 +7539,7 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <f>C36</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E36">
@@ -7436,8 +7557,8 @@
       <c r="I36" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A36,"]]:NEEDS[",I36,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C36,CHAR(10),"     ","@scienceCap = ",D36,CHAR(10),"     ","@dataScale = ",E36,CHAR(10),"     ","@situationMask = ",F36,CHAR(10),"     ","@biomeMask = ",G36,CHAR(10),"}")</f>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[SCANsatAltimetryLoRes]]:NEEDS[SCANsat]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -7447,63 +7568,63 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K36" s="2" t="str">
-        <f>IF(H36&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A36,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H36,CHAR(10),"    }"),"")</f>
+      <c r="K36" s="1" t="str">
+        <f t="shared" ref="K36:K65" si="15">IF(H36&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A36,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H36,CHAR(10),"    }"),"")</f>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[SCANsatAltimetryLoRes]]
     {
         @xmitDataScalar = 1
     }</v>
       </c>
       <c r="M36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F36,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F36,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F36,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F36,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F36,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F36,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G36,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G36,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G36,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G36,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G36,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G36,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -7511,7 +7632,7 @@
         <v>20</v>
       </c>
       <c r="D37">
-        <f>C37</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E37">
@@ -7529,8 +7650,8 @@
       <c r="I37" t="s">
         <v>41</v>
       </c>
-      <c r="J37" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A37,"]]:NEEDS[",I37,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C37,CHAR(10),"     ","@scienceCap = ",D37,CHAR(10),"     ","@dataScale = ",E37,CHAR(10),"     ","@situationMask = ",F37,CHAR(10),"     ","@biomeMask = ",G37,CHAR(10),"}")</f>
+      <c r="J37" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[SCANsatAltimetryHiRes]]:NEEDS[SCANsat]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -7540,63 +7661,63 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K37" s="2" t="str">
-        <f>IF(H37&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A37,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H37,CHAR(10),"    }"),"")</f>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[SCANsatAltimetryHiRes]]
     {
         @xmitDataScalar = 1
     }</v>
       </c>
       <c r="M37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -7604,7 +7725,7 @@
         <v>15</v>
       </c>
       <c r="D38">
-        <f>C38</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E38">
@@ -7622,8 +7743,8 @@
       <c r="I38" t="s">
         <v>41</v>
       </c>
-      <c r="J38" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A38,"]]:NEEDS[",I38,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C38,CHAR(10),"     ","@scienceCap = ",D38,CHAR(10),"     ","@dataScale = ",E38,CHAR(10),"     ","@situationMask = ",F38,CHAR(10),"     ","@biomeMask = ",G38,CHAR(10),"}")</f>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[SCANsatBiomeAnomaly]]:NEEDS[SCANsat]:FOR[zKiwiAerospace]
 {
      @baseValue = 15
@@ -7633,63 +7754,63 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K38" s="2" t="str">
-        <f>IF(H38&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A38,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H38,CHAR(10),"    }"),"")</f>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[SCANsatBiomeAnomaly]]
     {
         @xmitDataScalar = 1
     }</v>
       </c>
       <c r="M38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F38,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F38,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F38,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F38,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F38,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F38,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G38,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G38,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G38,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G38,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G38,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G38,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -7697,7 +7818,7 @@
         <v>10</v>
       </c>
       <c r="D39">
-        <f>C39</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E39">
@@ -7715,8 +7836,8 @@
       <c r="I39" t="s">
         <v>41</v>
       </c>
-      <c r="J39" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A39,"]]:NEEDS[",I39,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C39,CHAR(10),"     ","@scienceCap = ",D39,CHAR(10),"     ","@dataScale = ",E39,CHAR(10),"     ","@situationMask = ",F39,CHAR(10),"     ","@biomeMask = ",G39,CHAR(10),"}")</f>
+      <c r="J39" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[SCANsatResources]]:NEEDS[SCANsat]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -7726,63 +7847,63 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K39" s="2" t="str">
-        <f>IF(H39&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A39,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H39,CHAR(10),"    }"),"")</f>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[SCANsatResources]]
     {
         @xmitDataScalar = 1
     }</v>
       </c>
       <c r="M39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F39,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F39,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F39,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F39,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F39,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F39,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G39,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G39,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G39,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G39,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G39,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G39,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -7790,7 +7911,7 @@
         <v>12</v>
       </c>
       <c r="D40">
-        <f>C40</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E40">
@@ -7808,8 +7929,8 @@
       <c r="I40" t="s">
         <v>41</v>
       </c>
-      <c r="J40" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A40,"]]:NEEDS[",I40,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C40,CHAR(10),"     ","@scienceCap = ",D40,CHAR(10),"     ","@dataScale = ",E40,CHAR(10),"     ","@situationMask = ",F40,CHAR(10),"     ","@biomeMask = ",G40,CHAR(10),"}")</f>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[SCANsatVisual]]:NEEDS[SCANsat]:FOR[zKiwiAerospace]
 {
      @baseValue = 12
@@ -7819,63 +7940,63 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K40" s="2" t="str">
-        <f>IF(H40&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A40,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H40,CHAR(10),"    }"),"")</f>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[SCANsatVisual]]
     {
         @xmitDataScalar = 1
     }</v>
       </c>
       <c r="M40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F40,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F40,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F40,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F40,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F40,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F40,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G40,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G40,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G40,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G40,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G40,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G40,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -7886,7 +8007,7 @@
         <v>30</v>
       </c>
       <c r="D41">
-        <f>C41</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E41">
@@ -7901,8 +8022,8 @@
       <c r="I41" t="s">
         <v>64</v>
       </c>
-      <c r="J41" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A41,"]]:NEEDS[",I41,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C41,CHAR(10),"     ","@scienceCap = ",D41,CHAR(10),"     ","@dataScale = ",E41,CHAR(10),"     ","@situationMask = ",F41,CHAR(10),"     ","@biomeMask = ",G41,CHAR(10),"}")</f>
+      <c r="J41" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[surfaceSample]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 30
@@ -7912,60 +8033,60 @@
      @biomeMask = 3
 }</v>
       </c>
-      <c r="K41" s="2" t="str">
-        <f>IF(H41&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A41,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H41,CHAR(10),"    }"),"")</f>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F41,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F41,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F41,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F41,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F41,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F41,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G41,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G41,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="U41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G41,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G41,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G41,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G41,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -7976,7 +8097,7 @@
         <v>50</v>
       </c>
       <c r="D42">
-        <f>C42</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E42">
@@ -7991,8 +8112,8 @@
       <c r="I42" t="s">
         <v>64</v>
       </c>
-      <c r="J42" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A42,"]]:NEEDS[",I42,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C42,CHAR(10),"     ","@scienceCap = ",D42,CHAR(10),"     ","@dataScale = ",E42,CHAR(10),"     ","@situationMask = ",F42,CHAR(10),"     ","@biomeMask = ",G42,CHAR(10),"}")</f>
+      <c r="J42" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[asteroidSample]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 50
@@ -8002,56 +8123,56 @@
      @biomeMask = 7
 }</v>
       </c>
-      <c r="K42" s="2" t="str">
-        <f>IF(H42&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A42,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H42,CHAR(10),"    }"),"")</f>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F42,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F42,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F42,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="P42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F42,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F42,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F42,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G42,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="T42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G42,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="U42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G42,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="V42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G42,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G42,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G42,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -8063,7 +8184,7 @@
         <v>16</v>
       </c>
       <c r="D43">
-        <f>C43</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E43">
@@ -8078,8 +8199,8 @@
       <c r="I43" t="s">
         <v>65</v>
       </c>
-      <c r="J43" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A43,"]]:NEEDS[",I43,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C43,CHAR(10),"     ","@scienceCap = ",D43,CHAR(10),"     ","@dataScale = ",E43,CHAR(10),"     ","@situationMask = ",F43,CHAR(10),"     ","@biomeMask = ",G43,CHAR(10),"}")</f>
+      <c r="J43" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ex. Photo-Tylo-Cave]]:NEEDS[LTech]:FOR[zKiwiAerospace]
 {
      @baseValue = 16
@@ -8089,60 +8210,60 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K43" s="2" t="str">
-        <f>IF(H43&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A43,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H43,CHAR(10),"    }"),"")</f>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F43,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="N43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F43,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="O43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F43,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="P43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F43,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F43,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="R43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F43,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="S43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G43,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G43,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G43,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G43,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G43,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G43,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -8150,7 +8271,7 @@
         <v>20</v>
       </c>
       <c r="D44">
-        <f>C44</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E44">
@@ -8165,8 +8286,8 @@
       <c r="I44" t="s">
         <v>66</v>
       </c>
-      <c r="J44" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A44,"]]:NEEDS[",I44,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C44,CHAR(10),"     ","@scienceCap = ",D44,CHAR(10),"     ","@dataScale = ",E44,CHAR(10),"     ","@situationMask = ",F44,CHAR(10),"     ","@biomeMask = ",G44,CHAR(10),"}")</f>
+      <c r="J44" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmAsteroidScan]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -8176,60 +8297,60 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K44" s="2" t="str">
-        <f>IF(H44&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A44,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H44,CHAR(10),"    }"),"")</f>
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F44,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F44,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F44,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F44,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F44,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F44,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G44,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G44,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G44,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G44,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G44,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G44,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -8237,7 +8358,7 @@
         <v>16</v>
       </c>
       <c r="D45">
-        <f>C45</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E45">
@@ -8252,8 +8373,8 @@
       <c r="I45" t="s">
         <v>66</v>
       </c>
-      <c r="J45" s="2" t="str">
-        <f>_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A45,"]]:NEEDS[",I45,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C45,CHAR(10),"     ","@scienceCap = ",D45,CHAR(10),"     ","@dataScale = ",E45,CHAR(10),"     ","@situationMask = ",F45,CHAR(10),"     ","@biomeMask = ",G45,CHAR(10),"}")</f>
+      <c r="J45" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[AnomalyScan]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 16
@@ -8263,121 +8384,1915 @@
      @biomeMask = 0
 }</v>
       </c>
-      <c r="K45" s="2" t="str">
-        <f>IF(H45&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A45,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H45,CHAR(10),"    }"),"")</f>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F45,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="N45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F45,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="O45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F45,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="P45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F45,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="Q45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F45,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="R45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F45,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="S45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G45,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="T45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G45,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="U45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G45,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="V45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G45,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="W45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G45,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="X45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G45,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="J46" s="2"/>
-      <c r="K46" s="2" t="str">
-        <f>IF(H46&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A46,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H46,CHAR(10),"    }"),"")</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>63</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>0.1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>181</v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[GasAnalyzer]]:NEEDS[Interkosmos]:FOR[zKiwiAerospace]
+{
+     @baseValue = 12
+     @scienceCap = 12
+     @dataScale = 2
+     @situationMask = 63
+     @biomeMask = 3
+}</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[GasAnalyzer]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
       </c>
       <c r="M46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F46,6),1),1)*1=1,"Yes","No"),"")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>Yes</v>
       </c>
       <c r="N46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F46,6),2),1)*1=1,"Yes","No"),"")</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>Yes</v>
       </c>
       <c r="O46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F46,6),3),1)*1=1,"Yes","No"),"")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>Yes</v>
       </c>
       <c r="P46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F46,6),4),1)*1=1,"Yes","No"),"")</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>Yes</v>
       </c>
       <c r="Q46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F46,6),5),1)*1=1,"Yes","No"),"")</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>Yes</v>
       </c>
       <c r="R46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F46,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>Yes</v>
       </c>
       <c r="S46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G46,6),1),1)*1=1,"Yes","No"),"")</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>Yes</v>
       </c>
       <c r="T46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G46,6),2),1)*1=1,"Yes","No"),"")</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>Yes</v>
       </c>
       <c r="U46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G46,6),3),1)*1=1,"Yes","No"),"")</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>No</v>
       </c>
       <c r="V46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G46,6),4),1)*1=1,"Yes","No"),"")</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>No</v>
       </c>
       <c r="W46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G46,6),5),1)*1=1,"Yes","No"),""),"")</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>No</v>
       </c>
       <c r="X46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G46,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>63</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>0.1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>181</v>
+      </c>
+      <c r="J47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[Hydrometer]]:NEEDS[Interkosmos]:FOR[zKiwiAerospace]
+{
+     @baseValue = 8
+     @scienceCap = 8
+     @dataScale = 2
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K47" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[Hydrometer]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X47" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>63</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>181</v>
+      </c>
+      <c r="J48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[IRSpectrometer]]:NEEDS[Interkosmos]:FOR[zKiwiAerospace]
+{
+     @baseValue = 10
+     @scienceCap = 10
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K48" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[IRSpectrometer]]
+    {
+        @xmitDataScalar = 1
+    }</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X48" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>63</v>
+      </c>
+      <c r="G49">
+        <v>7</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>181</v>
+      </c>
+      <c r="J49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[Photometer]]:NEEDS[Interkosmos]:FOR[zKiwiAerospace]
+{
+     @baseValue = 10
+     @scienceCap = 10
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K49" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[Photometer]]
+    {
+        @xmitDataScalar = 1
+    }</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X49" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>63</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>181</v>
+      </c>
+      <c r="J50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[Photopolarimeter]]:NEEDS[Interkosmos]:FOR[zKiwiAerospace]
+{
+     @baseValue = 9
+     @scienceCap = 9
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K50" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[Photopolarimeter]]
+    {
+        @xmitDataScalar = 1
+    }</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X50" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>63</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>0.1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>181</v>
+      </c>
+      <c r="J51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[Crystals]]:NEEDS[Interkosmos]:FOR[zKiwiAerospace]
+{
+     @baseValue = 8
+     @scienceCap = 8
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K51" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[Crystals]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U51" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W51" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X51" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:D65" si="16">C52</f>
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>63</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>0.1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>188</v>
+      </c>
+      <c r="J52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[CardboardBox]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 4
+     @scienceCap = 4
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K52" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[CardboardBox]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X52" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>63</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53">
+        <v>0.1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>188</v>
+      </c>
+      <c r="J53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[SampleBox]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 6
+     @scienceCap = 6
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K53" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[SampleBox]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X53" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>63</v>
+      </c>
+      <c r="G54">
+        <v>7</v>
+      </c>
+      <c r="H54">
+        <v>0.1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[KrakenScanner]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 25
+     @scienceCap = 25
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K54" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[KrakenScanner]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U54" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W54" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X54" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>63</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
+      </c>
+      <c r="H55">
+        <v>0.1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>188</v>
+      </c>
+      <c r="J55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[Incubator]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 10
+     @scienceCap = 10
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K55" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[Incubator]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W55" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X55" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>63</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>0.1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>188</v>
+      </c>
+      <c r="J56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[TentacleSample]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 12
+     @scienceCap = 12
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 3
+}</v>
+      </c>
+      <c r="K56" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[TentacleSample]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X56" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>63</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>0.1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>188</v>
+      </c>
+      <c r="J57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[SkinSample]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 10
+     @scienceCap = 10
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 3
+}</v>
+      </c>
+      <c r="K57" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[SkinSample]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R57" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T57" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U57" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="V57" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W57" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X57" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>63</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>0.1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>188</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[EyeSample]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 10
+     @scienceCap = 10
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 3
+}</v>
+      </c>
+      <c r="K58" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[EyeSample]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R58" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T58" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U58" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="V58" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W58" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X58" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59">
+        <v>22</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>63</v>
+      </c>
+      <c r="G59">
+        <v>7</v>
+      </c>
+      <c r="H59">
+        <v>0.1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>188</v>
+      </c>
+      <c r="J59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[BloodSample]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 22
+     @scienceCap = 22
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K59" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[BloodSample]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R59" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T59" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U59" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V59" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W59" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X59" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>63</v>
+      </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
+      <c r="H60">
+        <v>0.1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>188</v>
+      </c>
+      <c r="J60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[Microwaves]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 8
+     @scienceCap = 8
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K60" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[Microwaves]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R60" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T60" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U60" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V60" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W60" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X60" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>63</v>
+      </c>
+      <c r="G61">
+        <v>7</v>
+      </c>
+      <c r="H61">
+        <v>0.1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>188</v>
+      </c>
+      <c r="J61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ScienceRackBio]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 20
+     @scienceCap = 20
+     @dataScale = 2
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K61" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[ScienceRackBio]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R61" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T61" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V61" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W61" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X61" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>63</v>
+      </c>
+      <c r="G62">
+        <v>7</v>
+      </c>
+      <c r="H62">
+        <v>0.1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>188</v>
+      </c>
+      <c r="J62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ScienceRackExp]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 20
+     @scienceCap = 20
+     @dataScale = 2
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K62" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[ScienceRackExp]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R62" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S62" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T62" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V62" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X62" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63">
+        <v>22</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>63</v>
+      </c>
+      <c r="G63">
+        <v>7</v>
+      </c>
+      <c r="H63">
+        <v>0.1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>188</v>
+      </c>
+      <c r="J63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[KrakenSpecimen1]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 22
+     @scienceCap = 22
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K63" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[KrakenSpecimen1]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S63" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T63" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V63" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W63" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X63" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>63</v>
+      </c>
+      <c r="G64">
+        <v>7</v>
+      </c>
+      <c r="H64">
+        <v>0.1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>188</v>
+      </c>
+      <c r="J64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[KrakenSpecimen2]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 22
+     @scienceCap = 22
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K64" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[KrakenSpecimen2]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R64" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S64" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T64" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V64" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X64" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65">
+        <v>25</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>63</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="H65">
+        <v>0.1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>188</v>
+      </c>
+      <c r="J65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[KrakenSpecimen3]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 25
+     @scienceCap = 25
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K65" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[KrakenSpecimen3]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R65" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T65" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U65" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V65" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W65" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X65" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:X46" xr:uid="{DC272CDC-2662-48AE-B083-BF6EA09AAB33}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="LTech"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:X46">
       <sortCondition ref="H2:H46"/>
     </sortState>
@@ -8395,7 +10310,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
@@ -8484,10 +10399,10 @@
       <c r="J2">
         <v>18000</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>1000000000</v>
       </c>
-      <c r="M2" s="2" t="str">
+      <c r="M2" s="1" t="str">
         <f>_xlfn.CONCAT("Item",CHAR(10),"{",CHAR(10),"    bodyName = ",A2,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C2,CHAR(10),"        ",D$1," = ",D2,CHAR(10),"        ",E$1," = ",E2,CHAR(10),"        ",F$1," = ",F2,CHAR(10),"        ",G$1," = ",G2,CHAR(10),"        ",H$1," = ",H2,CHAR(10),"        ",I$1," = ",I2,CHAR(10),"        ",J$1," = ",J2,CHAR(10),"        ",K$1," = ",K2,CHAR(10),"    }",CHAR(10),"}")</f>
         <v>Item
 {
@@ -8541,7 +10456,7 @@
       <c r="K3">
         <v>250000</v>
       </c>
-      <c r="M3" s="2" t="str">
+      <c r="M3" s="1" t="str">
         <f t="shared" ref="M3:M63" si="0">_xlfn.CONCAT("Item",CHAR(10),"{",CHAR(10),"    bodyName = ",A3,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C3,CHAR(10),"        ",D$1," = ",D3,CHAR(10),"        ",E$1," = ",E3,CHAR(10),"        ",F$1," = ",F3,CHAR(10),"        ",G$1," = ",G3,CHAR(10),"        ",H$1," = ",H3,CHAR(10),"        ",I$1," = ",I3,CHAR(10),"        ",J$1," = ",J3,CHAR(10),"        ",K$1," = ",K3,CHAR(10),"    }",CHAR(10),"}")</f>
         <v>Item
 {
@@ -8600,7 +10515,7 @@
       <c r="K4">
         <v>60000</v>
       </c>
-      <c r="M4" s="2" t="str">
+      <c r="M4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -8659,7 +10574,7 @@
       <c r="K5">
         <v>30000</v>
       </c>
-      <c r="M5" s="2" t="str">
+      <c r="M5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -8718,7 +10633,7 @@
       <c r="K6">
         <v>80000</v>
       </c>
-      <c r="M6" s="2" t="str">
+      <c r="M6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -8777,7 +10692,7 @@
       <c r="K7">
         <v>400000</v>
       </c>
-      <c r="M7" s="2" t="str">
+      <c r="M7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -8836,7 +10751,7 @@
       <c r="K8">
         <v>140000</v>
       </c>
-      <c r="M8" s="2" t="str">
+      <c r="M8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -8895,7 +10810,7 @@
       <c r="K9">
         <v>50000</v>
       </c>
-      <c r="M9" s="2" t="str">
+      <c r="M9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -8954,7 +10869,7 @@
       <c r="K10">
         <v>4000000</v>
       </c>
-      <c r="M10" s="2" t="str">
+      <c r="M10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9013,7 +10928,7 @@
       <c r="K11">
         <v>200000</v>
       </c>
-      <c r="M11" s="2" t="str">
+      <c r="M11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9072,7 +10987,7 @@
       <c r="K12">
         <v>90000</v>
       </c>
-      <c r="M12" s="2" t="str">
+      <c r="M12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9131,7 +11046,7 @@
       <c r="K13">
         <v>25000</v>
       </c>
-      <c r="M13" s="2" t="str">
+      <c r="M13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9190,7 +11105,7 @@
       <c r="K14">
         <v>250000</v>
       </c>
-      <c r="M14" s="2" t="str">
+      <c r="M14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9249,7 +11164,7 @@
       <c r="K15">
         <v>6000</v>
       </c>
-      <c r="M15" s="2" t="str">
+      <c r="M15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9308,7 +11223,7 @@
       <c r="K16">
         <v>22000</v>
       </c>
-      <c r="M16" s="2" t="str">
+      <c r="M16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9367,7 +11282,7 @@
       <c r="K17">
         <v>25000</v>
       </c>
-      <c r="M17" s="2" t="str">
+      <c r="M17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9426,7 +11341,7 @@
       <c r="K18">
         <v>60000</v>
       </c>
-      <c r="M18" s="2" t="str">
+      <c r="M18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9488,7 +11403,7 @@
       <c r="L19" t="s">
         <v>97</v>
       </c>
-      <c r="M19" s="2" t="str">
+      <c r="M19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9550,7 +11465,7 @@
       <c r="L20" t="s">
         <v>97</v>
       </c>
-      <c r="M20" s="2" t="str">
+      <c r="M20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9612,7 +11527,7 @@
       <c r="L21" t="s">
         <v>99</v>
       </c>
-      <c r="M21" s="2" t="str">
+      <c r="M21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9674,7 +11589,7 @@
       <c r="L22" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="2" t="str">
+      <c r="M22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9736,7 +11651,7 @@
       <c r="L23" t="s">
         <v>101</v>
       </c>
-      <c r="M23" s="2" t="str">
+      <c r="M23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9798,7 +11713,7 @@
       <c r="L24" t="s">
         <v>101</v>
       </c>
-      <c r="M24" s="2" t="str">
+      <c r="M24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9860,7 +11775,7 @@
       <c r="L25" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="2" t="str">
+      <c r="M25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9922,7 +11837,7 @@
       <c r="L26" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="2" t="str">
+      <c r="M26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -9984,7 +11899,7 @@
       <c r="L27" t="s">
         <v>106</v>
       </c>
-      <c r="M27" s="2" t="str">
+      <c r="M27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10046,7 +11961,7 @@
       <c r="L28" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="2" t="str">
+      <c r="M28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10108,7 +12023,7 @@
       <c r="L29" t="s">
         <v>106</v>
       </c>
-      <c r="M29" s="2" t="str">
+      <c r="M29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10170,7 +12085,7 @@
       <c r="L30" t="s">
         <v>114</v>
       </c>
-      <c r="M30" s="2" t="str">
+      <c r="M30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10232,7 +12147,7 @@
       <c r="L31" t="s">
         <v>114</v>
       </c>
-      <c r="M31" s="2" t="str">
+      <c r="M31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10294,7 +12209,7 @@
       <c r="L32" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="2" t="str">
+      <c r="M32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10356,7 +12271,7 @@
       <c r="L33" t="s">
         <v>114</v>
       </c>
-      <c r="M33" s="2" t="str">
+      <c r="M33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10418,7 +12333,7 @@
       <c r="L34" t="s">
         <v>117</v>
       </c>
-      <c r="M34" s="2" t="str">
+      <c r="M34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10480,7 +12395,7 @@
       <c r="L35" t="s">
         <v>117</v>
       </c>
-      <c r="M35" s="2" t="str">
+      <c r="M35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10542,7 +12457,7 @@
       <c r="L36" t="s">
         <v>120</v>
       </c>
-      <c r="M36" s="2" t="str">
+      <c r="M36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10604,7 +12519,7 @@
       <c r="L37" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="2" t="str">
+      <c r="M37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10666,7 +12581,7 @@
       <c r="L38" t="s">
         <v>130</v>
       </c>
-      <c r="M38" s="2" t="str">
+      <c r="M38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10728,7 +12643,7 @@
       <c r="L39" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="2" t="str">
+      <c r="M39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10790,7 +12705,7 @@
       <c r="L40" t="s">
         <v>127</v>
       </c>
-      <c r="M40" s="2" t="str">
+      <c r="M40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10852,7 +12767,7 @@
       <c r="L41" t="s">
         <v>127</v>
       </c>
-      <c r="M41" s="2" t="str">
+      <c r="M41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10914,7 +12829,7 @@
       <c r="L42" t="s">
         <v>127</v>
       </c>
-      <c r="M42" s="2" t="str">
+      <c r="M42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -10976,7 +12891,7 @@
       <c r="L43" t="s">
         <v>127</v>
       </c>
-      <c r="M43" s="2" t="str">
+      <c r="M43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11038,7 +12953,7 @@
       <c r="L44" t="s">
         <v>136</v>
       </c>
-      <c r="M44" s="2" t="str">
+      <c r="M44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11100,7 +13015,7 @@
       <c r="L45" t="s">
         <v>120</v>
       </c>
-      <c r="M45" s="2" t="str">
+      <c r="M45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11162,7 +13077,7 @@
       <c r="L46" t="s">
         <v>124</v>
       </c>
-      <c r="M46" s="2" t="str">
+      <c r="M46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11224,7 +13139,7 @@
       <c r="L47" t="s">
         <v>120</v>
       </c>
-      <c r="M47" s="2" t="str">
+      <c r="M47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11286,7 +13201,7 @@
       <c r="L48" t="s">
         <v>122</v>
       </c>
-      <c r="M48" s="2" t="str">
+      <c r="M48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11348,7 +13263,7 @@
       <c r="L49" t="s">
         <v>140</v>
       </c>
-      <c r="M49" s="2" t="str">
+      <c r="M49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11410,7 +13325,7 @@
       <c r="L50" t="s">
         <v>142</v>
       </c>
-      <c r="M50" s="2" t="str">
+      <c r="M50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11472,7 +13387,7 @@
       <c r="L51" t="s">
         <v>140</v>
       </c>
-      <c r="M51" s="2" t="str">
+      <c r="M51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11534,7 +13449,7 @@
       <c r="L52" t="s">
         <v>145</v>
       </c>
-      <c r="M52" s="2" t="str">
+      <c r="M52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11596,7 +13511,7 @@
       <c r="L53" t="s">
         <v>142</v>
       </c>
-      <c r="M53" s="2" t="str">
+      <c r="M53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11658,7 +13573,7 @@
       <c r="L54" t="s">
         <v>148</v>
       </c>
-      <c r="M54" s="2" t="str">
+      <c r="M54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11720,7 +13635,7 @@
       <c r="L55" t="s">
         <v>142</v>
       </c>
-      <c r="M55" s="2" t="str">
+      <c r="M55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11782,7 +13697,7 @@
       <c r="L56" t="s">
         <v>140</v>
       </c>
-      <c r="M56" s="2" t="str">
+      <c r="M56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11844,7 +13759,7 @@
       <c r="L57" t="s">
         <v>140</v>
       </c>
-      <c r="M57" s="2" t="str">
+      <c r="M57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11906,7 +13821,7 @@
       <c r="L58" t="s">
         <v>140</v>
       </c>
-      <c r="M58" s="2" t="str">
+      <c r="M58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -11968,7 +13883,7 @@
       <c r="L59" t="s">
         <v>140</v>
       </c>
-      <c r="M59" s="2" t="str">
+      <c r="M59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -12030,7 +13945,7 @@
       <c r="L60" t="s">
         <v>155</v>
       </c>
-      <c r="M60" s="2" t="str">
+      <c r="M60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -12092,7 +14007,7 @@
       <c r="L61" t="s">
         <v>155</v>
       </c>
-      <c r="M61" s="2" t="str">
+      <c r="M61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -12154,7 +14069,7 @@
       <c r="L62" t="s">
         <v>140</v>
       </c>
-      <c r="M62" s="2" t="str">
+      <c r="M62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -12205,13 +14120,13 @@
       <c r="J63">
         <v>200000</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="2">
         <v>50000000000</v>
       </c>
       <c r="L63" t="s">
         <v>159</v>
       </c>
-      <c r="M63" s="2" t="str">
+      <c r="M63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Item
 {
@@ -12234,4 +14149,442 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03953A02-1E19-4098-AFDF-9C664D8C6031}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D31" xr:uid="{83DEA61A-D8FA-4618-A2EB-DACE8CEB6BB8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+      <sortCondition ref="A1:A31"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Source/Science.xlsx
+++ b/Source/Science.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DED4700-D6DB-4273-AA0A-83C29B8973ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B17D9F-1D66-47AD-9534-CA5E22B6B063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="4520" windowWidth="28660" windowHeight="16110" activeTab="3" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="31980" windowHeight="16380" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Defaults!$A$1:$D$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kiwi!$A$2:$X$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kiwi!$A$2:$X$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stock!$A$2:$U$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="213">
   <si>
     <t>Experiment</t>
   </si>
@@ -647,6 +647,39 @@
   </si>
   <si>
     <t>KrakenSpecimen3</t>
+  </si>
+  <si>
+    <t>sspxFishStudy</t>
+  </si>
+  <si>
+    <t>StationPartsExpansionRedux</t>
+  </si>
+  <si>
+    <t>sspxPlantGrowth</t>
+  </si>
+  <si>
+    <t>sspxVisualObservation</t>
+  </si>
+  <si>
+    <t>Color Samples</t>
+  </si>
+  <si>
+    <t>Knes</t>
+  </si>
+  <si>
+    <t>ScienceRackBioExperiment</t>
+  </si>
+  <si>
+    <t>ScienceRackExperiment</t>
+  </si>
+  <si>
+    <t>CosmoCat</t>
+  </si>
+  <si>
+    <t>Telemetry</t>
+  </si>
+  <si>
+    <t>Geodesy</t>
   </si>
 </sst>
 </file>
@@ -1007,11 +1040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB0194C-F9FC-4445-B00E-381BC06878BA}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4283,13 +4316,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7CD309-1AF9-460F-88C8-8DF0B79AC471}">
-  <dimension ref="A1:X65"/>
+  <dimension ref="A1:X134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52:X65"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4302,7 +4335,7 @@
     <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="92.453125" customWidth="1"/>
+    <col min="10" max="10" width="97.7265625" customWidth="1"/>
     <col min="11" max="11" width="73.7265625" customWidth="1"/>
     <col min="13" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
@@ -4549,7 +4582,7 @@
         <v>64</v>
       </c>
       <c r="J5" s="1" t="str">
-        <f t="shared" ref="J5:J65" si="1">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A5,"]]:NEEDS[",I5,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C5,CHAR(10),"     ","@scienceCap = ",D5,CHAR(10),"     ","@dataScale = ",E5,CHAR(10),"     ","@situationMask = ",F5,CHAR(10),"     ","@biomeMask = ",G5,CHAR(10),"}")</f>
+        <f t="shared" ref="J5:J69" si="1">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A5,"]]:NEEDS[",I5,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C5,CHAR(10),"     ","@scienceCap = ",D5,CHAR(10),"     ","@dataScale = ",E5,CHAR(10),"     ","@situationMask = ",F5,CHAR(10),"     ","@biomeMask = ",G5,CHAR(10),"}")</f>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[mobileMaterialsLab]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -4567,51 +4600,51 @@
     }</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M65" si="2">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="M5:M69" si="2">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ref="N5:N65" si="3">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="N5:N69" si="3">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" ref="O5:O65" si="4">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="O5:O69" si="4">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" ref="P5:P65" si="5">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="P5:P69" si="5">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" ref="Q5:Q65" si="6">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="Q5:Q69" si="6">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),5),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" ref="R5:R65" si="7">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="R5:R69" si="7">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" ref="S5:S65" si="8">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="S5:S69" si="8">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" ref="T5:T65" si="9">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="T5:T69" si="9">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" ref="U5:U65" si="10">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="U5:U69" si="10">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="V5" t="str">
-        <f t="shared" ref="V5:V65" si="11">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="V5:V69" si="11">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" ref="W5:W65" si="12">IF(F5&lt;&gt;"",IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" ref="W5:W69" si="12">IF(F5&lt;&gt;"",IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),5),1)*1=1,"Yes","No"),""),"")</f>
         <v>No</v>
       </c>
       <c r="X5" t="str">
-        <f t="shared" ref="X5:X65" si="13">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="X5:X69" si="13">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
     </row>
@@ -7569,7 +7602,7 @@
 }</v>
       </c>
       <c r="K36" s="1" t="str">
-        <f t="shared" ref="K36:K65" si="15">IF(H36&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A36,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H36,CHAR(10),"    }"),"")</f>
+        <f t="shared" ref="K36:K69" si="15">IF(H36&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A36,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H36,CHAR(10),"    }"),"")</f>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[SCANsatAltimetryLoRes]]
     {
         @xmitDataScalar = 1
@@ -8997,7 +9030,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:D65" si="16">C52</f>
+        <f t="shared" ref="D52:D115" si="16">C52</f>
         <v>4</v>
       </c>
       <c r="E52">
@@ -10291,8 +10324,1205 @@
         <v>No</v>
       </c>
     </row>
+    <row r="66" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>51</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0.1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>203</v>
+      </c>
+      <c r="J66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[sspxFishStudy]]:NEEDS[StationPartsExpansionRedux]:FOR[zKiwiAerospace]
+{
+     @baseValue = 10
+     @scienceCap = 10
+     @dataScale = 2
+     @situationMask = 51
+     @biomeMask = 0
+}</v>
+      </c>
+      <c r="K66" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[sspxFishStudy]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R66" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S66" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="T66" t="str">
+        <f t="shared" si="9"/>
+        <v>No</v>
+      </c>
+      <c r="U66" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="V66" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W66" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X66" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>51</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0.1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>203</v>
+      </c>
+      <c r="J67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[sspxPlantGrowth]]:NEEDS[StationPartsExpansionRedux]:FOR[zKiwiAerospace]
+{
+     @baseValue = 10
+     @scienceCap = 10
+     @dataScale = 2
+     @situationMask = 51
+     @biomeMask = 0
+}</v>
+      </c>
+      <c r="K67" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[sspxPlantGrowth]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R67" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="T67" t="str">
+        <f t="shared" si="9"/>
+        <v>No</v>
+      </c>
+      <c r="U67" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="V67" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W67" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X67" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>51</v>
+      </c>
+      <c r="G68">
+        <v>7</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>203</v>
+      </c>
+      <c r="J68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[sspxVisualObservation]]:NEEDS[StationPartsExpansionRedux]:FOR[zKiwiAerospace]
+{
+     @baseValue = 15
+     @scienceCap = 15
+     @dataScale = 2
+     @situationMask = 51
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K68" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[sspxVisualObservation]]
+    {
+        @xmitDataScalar = 1
+    }</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R68" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S68" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T68" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U68" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V68" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W68" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X68" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>63</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>207</v>
+      </c>
+      <c r="J69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[Color Samples]]:NEEDS[Knes]:FOR[zKiwiAerospace]
+{
+     @baseValue = 12
+     @scienceCap = 12
+     @dataScale = 2
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K69" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[Color Samples]]
+    {
+        @xmitDataScalar = 1
+    }</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="R69" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="S69" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="T69" t="str">
+        <f t="shared" si="9"/>
+        <v>Yes</v>
+      </c>
+      <c r="U69" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="V69" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+      <c r="W69" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="X69" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>63</v>
+      </c>
+      <c r="G70">
+        <v>7</v>
+      </c>
+      <c r="H70">
+        <v>0.1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>207</v>
+      </c>
+      <c r="J70" s="1" t="str">
+        <f t="shared" ref="J70:J74" si="17">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A70,"]]:NEEDS[",I70,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C70,CHAR(10),"     ","@scienceCap = ",D70,CHAR(10),"     ","@dataScale = ",E70,CHAR(10),"     ","@situationMask = ",F70,CHAR(10),"     ","@biomeMask = ",G70,CHAR(10),"}")</f>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ScienceRackBioExperiment]]:NEEDS[Knes]:FOR[zKiwiAerospace]
+{
+     @baseValue = 20
+     @scienceCap = 20
+     @dataScale = 2
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K70" s="1" t="str">
+        <f t="shared" ref="K70:K74" si="18">IF(H70&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A70,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H70,CHAR(10),"    }"),"")</f>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[ScienceRackBioExperiment]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" ref="M70:M74" si="19">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),1),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" ref="N70:N74" si="20">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),2),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" ref="O70:O74" si="21">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),3),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" ref="P70:P74" si="22">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),4),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" ref="Q70:Q74" si="23">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),5),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="R70" t="str">
+        <f t="shared" ref="R70:R74" si="24">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),6),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="S70" t="str">
+        <f t="shared" ref="S70:S74" si="25">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),1),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="T70" t="str">
+        <f t="shared" ref="T70:T74" si="26">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),2),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="U70" t="str">
+        <f t="shared" ref="U70:U74" si="27">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),3),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="V70" t="str">
+        <f t="shared" ref="V70:V74" si="28">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),4),1)*1=1,"Yes","No"),"")</f>
+        <v>No</v>
+      </c>
+      <c r="W70" t="str">
+        <f t="shared" ref="W70:W74" si="29">IF(F70&lt;&gt;"",IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <v>No</v>
+      </c>
+      <c r="X70" t="str">
+        <f t="shared" ref="X70:X74" si="30">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),6),1)*1=1,"Yes","No"),"")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>63</v>
+      </c>
+      <c r="G71">
+        <v>7</v>
+      </c>
+      <c r="H71">
+        <v>0.1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>207</v>
+      </c>
+      <c r="J71" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ScienceRackExperiment]]:NEEDS[Knes]:FOR[zKiwiAerospace]
+{
+     @baseValue = 20
+     @scienceCap = 20
+     @dataScale = 2
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K71" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[ScienceRackExperiment]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="21"/>
+        <v>Yes</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="22"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="23"/>
+        <v>Yes</v>
+      </c>
+      <c r="R71" t="str">
+        <f t="shared" si="24"/>
+        <v>Yes</v>
+      </c>
+      <c r="S71" t="str">
+        <f t="shared" si="25"/>
+        <v>Yes</v>
+      </c>
+      <c r="T71" t="str">
+        <f t="shared" si="26"/>
+        <v>Yes</v>
+      </c>
+      <c r="U71" t="str">
+        <f t="shared" si="27"/>
+        <v>Yes</v>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+      <c r="W71" t="str">
+        <f t="shared" si="29"/>
+        <v>No</v>
+      </c>
+      <c r="X71" t="str">
+        <f t="shared" si="30"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="E72">
+        <v>2.5</v>
+      </c>
+      <c r="F72">
+        <v>63</v>
+      </c>
+      <c r="G72">
+        <v>7</v>
+      </c>
+      <c r="H72">
+        <v>0.1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>207</v>
+      </c>
+      <c r="J72" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[CosmoCat]]:NEEDS[Knes]:FOR[zKiwiAerospace]
+{
+     @baseValue = 20
+     @scienceCap = 20
+     @dataScale = 2.5
+     @situationMask = 63
+     @biomeMask = 7
+}</v>
+      </c>
+      <c r="K72" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[CosmoCat]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="21"/>
+        <v>Yes</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="22"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="23"/>
+        <v>Yes</v>
+      </c>
+      <c r="R72" t="str">
+        <f t="shared" si="24"/>
+        <v>Yes</v>
+      </c>
+      <c r="S72" t="str">
+        <f t="shared" si="25"/>
+        <v>Yes</v>
+      </c>
+      <c r="T72" t="str">
+        <f t="shared" si="26"/>
+        <v>Yes</v>
+      </c>
+      <c r="U72" t="str">
+        <f t="shared" si="27"/>
+        <v>Yes</v>
+      </c>
+      <c r="V72" t="str">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+      <c r="W72" t="str">
+        <f t="shared" si="29"/>
+        <v>No</v>
+      </c>
+      <c r="X72" t="str">
+        <f t="shared" si="30"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>63</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>207</v>
+      </c>
+      <c r="J73" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[Telemetry]]:NEEDS[Knes]:FOR[zKiwiAerospace]
+{
+     @baseValue = 12
+     @scienceCap = 12
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 3
+}</v>
+      </c>
+      <c r="K73" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[Telemetry]]
+    {
+        @xmitDataScalar = 1
+    }</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="21"/>
+        <v>Yes</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="22"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="23"/>
+        <v>Yes</v>
+      </c>
+      <c r="R73" t="str">
+        <f t="shared" si="24"/>
+        <v>Yes</v>
+      </c>
+      <c r="S73" t="str">
+        <f t="shared" si="25"/>
+        <v>Yes</v>
+      </c>
+      <c r="T73" t="str">
+        <f t="shared" si="26"/>
+        <v>Yes</v>
+      </c>
+      <c r="U73" t="str">
+        <f t="shared" si="27"/>
+        <v>No</v>
+      </c>
+      <c r="V73" t="str">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+      <c r="W73" t="str">
+        <f t="shared" si="29"/>
+        <v>No</v>
+      </c>
+      <c r="X73" t="str">
+        <f t="shared" si="30"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>63</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>0.1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>207</v>
+      </c>
+      <c r="J74" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[Geodesy]]:NEEDS[Knes]:FOR[zKiwiAerospace]
+{
+     @baseValue = 12
+     @scienceCap = 12
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 3
+}</v>
+      </c>
+      <c r="K74" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[Geodesy]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="21"/>
+        <v>Yes</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="22"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="23"/>
+        <v>Yes</v>
+      </c>
+      <c r="R74" t="str">
+        <f t="shared" si="24"/>
+        <v>Yes</v>
+      </c>
+      <c r="S74" t="str">
+        <f t="shared" si="25"/>
+        <v>Yes</v>
+      </c>
+      <c r="T74" t="str">
+        <f t="shared" si="26"/>
+        <v>Yes</v>
+      </c>
+      <c r="U74" t="str">
+        <f t="shared" si="27"/>
+        <v>No</v>
+      </c>
+      <c r="V74" t="str">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+      <c r="W74" t="str">
+        <f t="shared" si="29"/>
+        <v>No</v>
+      </c>
+      <c r="X74" t="str">
+        <f t="shared" si="30"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D87">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D88">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D89">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D91">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D92">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D93">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D94">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D95">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D96">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D97">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D98">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D99">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D100">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D101">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D102">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D103">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D104">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D105">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D106">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D107">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D108">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D109">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D111">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D112">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D115">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D116">
+        <f t="shared" ref="D116:D134" si="31">C116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D117">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D118">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D119">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D120">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D121">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D122">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D123">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D124">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D125">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D126">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D127">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D128">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D129">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D130">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D131">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D132">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D133">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D134">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:X46" xr:uid="{DC272CDC-2662-48AE-B083-BF6EA09AAB33}">
+  <autoFilter ref="A2:X70" xr:uid="{DC272CDC-2662-48AE-B083-BF6EA09AAB33}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:X46">
       <sortCondition ref="H2:H46"/>
     </sortState>
@@ -14155,7 +15385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03953A02-1E19-4098-AFDF-9C664D8C6031}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/Source/Science.xlsx
+++ b/Source/Science.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B17D9F-1D66-47AD-9534-CA5E22B6B063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDCDB1D-FE35-4C21-961E-950F1EFAA373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="31980" windowHeight="16380" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
+    <workbookView xWindow="-27540" yWindow="1380" windowWidth="26715" windowHeight="14220" activeTab="1" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Defaults!$A$1:$D$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kiwi!$A$2:$X$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kiwi!$A$2:$X$134</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stock!$A$2:$U$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB0194C-F9FC-4445-B00E-381BC06878BA}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
@@ -4316,13 +4316,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7CD309-1AF9-460F-88C8-8DF0B79AC471}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4434,7 +4435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -4552,7 +4553,7 @@
 }</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -4747,7 +4748,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -5233,7 +5234,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="103" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="103" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -5329,7 +5330,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5905,7 +5906,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -6100,7 +6101,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -6196,7 +6197,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -6391,7 +6392,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -6487,7 +6488,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -6586,7 +6587,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -6685,7 +6686,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -6784,7 +6785,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -7267,7 +7268,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -7366,7 +7367,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -7564,7 +7565,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -7657,7 +7658,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -7936,7 +7937,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -8209,7 +8210,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -8296,7 +8297,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -8383,7 +8384,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -8470,7 +8471,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>180</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>183</v>
       </c>
@@ -8746,7 +8747,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>184</v>
       </c>
@@ -8838,7 +8839,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -8930,7 +8931,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>186</v>
       </c>
@@ -9022,7 +9023,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>187</v>
       </c>
@@ -9115,7 +9116,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -9208,7 +9209,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>190</v>
       </c>
@@ -9301,7 +9302,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>192</v>
       </c>
@@ -9487,7 +9488,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>193</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>194</v>
       </c>
@@ -9673,7 +9674,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>195</v>
       </c>
@@ -9766,7 +9767,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -9859,7 +9860,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>197</v>
       </c>
@@ -9952,7 +9953,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -10045,7 +10046,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>199</v>
       </c>
@@ -10138,7 +10139,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>200</v>
       </c>
@@ -10231,7 +10232,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>201</v>
       </c>
@@ -10324,7 +10325,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>202</v>
       </c>
@@ -10417,7 +10418,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>204</v>
       </c>
@@ -10510,7 +10511,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>205</v>
       </c>
@@ -10603,7 +10604,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>206</v>
       </c>
@@ -10696,7 +10697,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -10789,7 +10790,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -10882,7 +10883,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>210</v>
       </c>
@@ -10975,7 +10976,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>211</v>
       </c>
@@ -11068,7 +11069,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>212</v>
       </c>
@@ -11161,368 +11162,373 @@
         <v>No</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D75">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D76">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D77">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D78">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D79">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D80">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D81">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D82">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D83">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D84">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D85">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D86">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D87">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D88">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D89">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D90">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D91">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D92">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D93">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D94">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D95">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D96">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D97">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D98">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D99">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D100">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D101">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D102">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D103">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D104">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D105">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D106">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D107">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D108">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D109">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D110">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D111">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D112">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D113">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D114">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D115">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D116">
         <f t="shared" ref="D116:D134" si="31">C116</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D117">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D118">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D119">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D120">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D121">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D122">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D123">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D124">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D125">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D126">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D127">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D128">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D129">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D130">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D131">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D132">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D133">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D134">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:X70" xr:uid="{DC272CDC-2662-48AE-B083-BF6EA09AAB33}">
+  <autoFilter ref="A2:X134" xr:uid="{DC272CDC-2662-48AE-B083-BF6EA09AAB33}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:X46">
       <sortCondition ref="H2:H46"/>
     </sortState>
@@ -11543,7 +11549,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Source/Science.xlsx
+++ b/Source/Science.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDCDB1D-FE35-4C21-961E-950F1EFAA373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEA3259-39C9-4AD2-B1FD-AF5358CB970E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27540" yWindow="1380" windowWidth="26715" windowHeight="14220" activeTab="1" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
+    <workbookView xWindow="0" yWindow="11230" windowWidth="12800" windowHeight="9200" activeTab="1" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
     <sheet name="Kiwi" sheetId="2" r:id="rId2"/>
     <sheet name="ScienceParam" sheetId="3" r:id="rId3"/>
     <sheet name="Defaults" sheetId="5" r:id="rId4"/>
+    <sheet name="Kerbalism" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Defaults!$A$1:$D$31</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="215">
   <si>
     <t>Experiment</t>
   </si>
@@ -680,6 +681,12 @@
   </si>
   <si>
     <t>Geodesy</t>
+  </si>
+  <si>
+    <t>photo-Tylo</t>
+  </si>
+  <si>
+    <t>!EXPERIMENT_DEFINITION:HAS[#id[photo-*]:NEEDS[FeatureScience]</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1048,10 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4319,11 +4326,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T41" sqref="T41"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5426,7 +5433,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -5522,7 +5529,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -5618,7 +5625,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5714,7 +5721,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -8030,7 +8037,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -8120,7 +8127,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -8225,7 +8232,7 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -8240,7 +8247,7 @@
      @baseValue = 16
      @scienceCap = 16
      @dataScale = 5
-     @situationMask = 63
+     @situationMask = 61
      @biomeMask = 0
 }</v>
       </c>
@@ -8254,7 +8261,7 @@
       </c>
       <c r="N43" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="4"/>
@@ -10604,7 +10611,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>206</v>
       </c>
@@ -10697,7 +10704,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -10790,7 +10797,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -10883,7 +10890,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>210</v>
       </c>
@@ -10976,7 +10983,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>211</v>
       </c>
@@ -11069,7 +11076,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>212</v>
       </c>
@@ -11524,9 +11531,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:X134" xr:uid="{DC272CDC-2662-48AE-B083-BF6EA09AAB33}">
-    <filterColumn colId="1">
+    <filterColumn colId="8">
       <filters>
-        <filter val="0"/>
+        <filter val="Knes"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:X46">
@@ -15823,4 +15830,29 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875FD921-73E1-4001-8FDC-A8F9A5FFB828}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Source/Science.xlsx
+++ b/Source/Science.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEA3259-39C9-4AD2-B1FD-AF5358CB970E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C8D594-78DD-425B-8C7E-391AF0542FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11230" windowWidth="12800" windowHeight="9200" activeTab="1" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
+    <workbookView xWindow="820" yWindow="730" windowWidth="17390" windowHeight="19090" activeTab="2" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Defaults!$A$1:$D$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kiwi!$A$2:$X$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ScienceParam!$A$1:$M$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stock!$A$2:$U$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="247">
   <si>
     <t>Experiment</t>
   </si>
@@ -687,6 +688,102 @@
   </si>
   <si>
     <t>!EXPERIMENT_DEFINITION:HAS[#id[photo-*]:NEEDS[FeatureScience]</t>
+  </si>
+  <si>
+    <t>Icarus</t>
+  </si>
+  <si>
+    <t>GPP</t>
+  </si>
+  <si>
+    <t>Thalia</t>
+  </si>
+  <si>
+    <t>Eta</t>
+  </si>
+  <si>
+    <t>Niven</t>
+  </si>
+  <si>
+    <t>Squad,!GPP</t>
+  </si>
+  <si>
+    <t>Gael</t>
+  </si>
+  <si>
+    <t>Iota</t>
+  </si>
+  <si>
+    <t>Ceti</t>
+  </si>
+  <si>
+    <t>Tellumo</t>
+  </si>
+  <si>
+    <t>Lili</t>
+  </si>
+  <si>
+    <t>Gratian</t>
+  </si>
+  <si>
+    <t>Geminus</t>
+  </si>
+  <si>
+    <t>Otho</t>
+  </si>
+  <si>
+    <t>Augustus</t>
+  </si>
+  <si>
+    <t>Hephaestus</t>
+  </si>
+  <si>
+    <t>Jannah</t>
+  </si>
+  <si>
+    <t>Gauss</t>
+  </si>
+  <si>
+    <t>Loki</t>
+  </si>
+  <si>
+    <t>Catullus</t>
+  </si>
+  <si>
+    <t>Tarsiss</t>
+  </si>
+  <si>
+    <t>Nero</t>
+  </si>
+  <si>
+    <t>Hadrian</t>
+  </si>
+  <si>
+    <t>Narisse</t>
+  </si>
+  <si>
+    <t>Muse</t>
+  </si>
+  <si>
+    <t>Minona</t>
+  </si>
+  <si>
+    <t>Agrippina</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Hox</t>
+  </si>
+  <si>
+    <t>Argo</t>
+  </si>
+  <si>
+    <t>Leto</t>
+  </si>
+  <si>
+    <t>GEP|GPP</t>
   </si>
 </sst>
 </file>
@@ -4326,7 +4423,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -11550,13 +11647,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F6E689-7182-4BC0-80F9-0B8DE28A1A46}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11646,8 +11741,8 @@
         <v>1000000000</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f>_xlfn.CONCAT("Item",CHAR(10),"{",CHAR(10),"    bodyName = ",A2,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C2,CHAR(10),"        ",D$1," = ",D2,CHAR(10),"        ",E$1," = ",E2,CHAR(10),"        ",F$1," = ",F2,CHAR(10),"        ",G$1," = ",G2,CHAR(10),"        ",H$1," = ",H2,CHAR(10),"        ",I$1," = ",I2,CHAR(10),"        ",J$1," = ",J2,CHAR(10),"        ",K$1," = ",K2,CHAR(10),"    }",CHAR(10),"}")</f>
-        <v>Item
+        <f>_xlfn.CONCAT("Item:NEEDS[",B2,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A2,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C2,CHAR(10),"        ",D$1," = ",D2,CHAR(10),"        ",E$1," = ",E2,CHAR(10),"        ",F$1," = ",F2,CHAR(10),"        ",G$1," = ",G2,CHAR(10),"        ",H$1," = ",H2,CHAR(10),"        ",I$1," = ",I2,CHAR(10),"        ",J$1," = ",J2,CHAR(10),"        ",K$1," = ",K2,CHAR(10),"    }",CHAR(10),"}")</f>
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Sun
     adjustedParams
@@ -11670,7 +11765,7 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="C3">
         <v>0.8</v>
@@ -11700,8 +11795,8 @@
         <v>250000</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f t="shared" ref="M3:M63" si="0">_xlfn.CONCAT("Item",CHAR(10),"{",CHAR(10),"    bodyName = ",A3,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C3,CHAR(10),"        ",D$1," = ",D3,CHAR(10),"        ",E$1," = ",E3,CHAR(10),"        ",F$1," = ",F3,CHAR(10),"        ",G$1," = ",G3,CHAR(10),"        ",H$1," = ",H3,CHAR(10),"        ",I$1," = ",I3,CHAR(10),"        ",J$1," = ",J3,CHAR(10),"        ",K$1," = ",K3,CHAR(10),"    }",CHAR(10),"}")</f>
-        <v>Item
+        <f t="shared" ref="M3:M66" si="0">_xlfn.CONCAT("Item:NEEDS[",B3,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A3,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C3,CHAR(10),"        ",D$1," = ",D3,CHAR(10),"        ",E$1," = ",E3,CHAR(10),"        ",F$1," = ",F3,CHAR(10),"        ",G$1," = ",G3,CHAR(10),"        ",H$1," = ",H3,CHAR(10),"        ",I$1," = ",I3,CHAR(10),"        ",J$1," = ",J3,CHAR(10),"        ",K$1," = ",K3,CHAR(10),"    }",CHAR(10),"}")</f>
+        <v>Item:NEEDS[Squad,!GPP]
 {
     bodyName = Kerbin
     adjustedParams
@@ -11738,7 +11833,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:H62" si="1">$C4-1</f>
+        <f t="shared" ref="F4:H67" si="1">$C4-1</f>
         <v>2</v>
       </c>
       <c r="G4">
@@ -11760,7 +11855,7 @@
       </c>
       <c r="M4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Mun
     adjustedParams
@@ -11789,11 +11884,11 @@
         <v>3.5</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D62" si="2">$C5</f>
+        <f t="shared" ref="D5:D67" si="2">$C5</f>
         <v>3.5</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E62" si="3">$C5-1</f>
+        <f t="shared" ref="E5:E67" si="3">$C5-1</f>
         <v>2.5</v>
       </c>
       <c r="F5">
@@ -11819,7 +11914,7 @@
       </c>
       <c r="M5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Minmus
     adjustedParams
@@ -11878,7 +11973,7 @@
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Moho
     adjustedParams
@@ -11937,7 +12032,7 @@
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Eve
     adjustedParams
@@ -11996,7 +12091,7 @@
       </c>
       <c r="M8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Duna
     adjustedParams
@@ -12055,7 +12150,7 @@
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Ike
     adjustedParams
@@ -12114,7 +12209,7 @@
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Jool
     adjustedParams
@@ -12173,7 +12268,7 @@
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Laythe
     adjustedParams
@@ -12232,7 +12327,7 @@
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Vall
     adjustedParams
@@ -12291,7 +12386,7 @@
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Bop
     adjustedParams
@@ -12350,7 +12445,7 @@
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Tylo
     adjustedParams
@@ -12409,7 +12504,7 @@
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Gilly
     adjustedParams
@@ -12468,7 +12563,7 @@
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Pol
     adjustedParams
@@ -12527,7 +12622,7 @@
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Dres
     adjustedParams
@@ -12586,7 +12681,7 @@
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[Squad]
 {
     bodyName = Eeloo
     adjustedParams
@@ -12648,7 +12743,7 @@
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Nissee
     adjustedParams
@@ -12710,7 +12805,7 @@
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Thatmo
     adjustedParams
@@ -12772,7 +12867,7 @@
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Karen
     adjustedParams
@@ -12834,7 +12929,7 @@
       </c>
       <c r="M22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Tekto
     adjustedParams
@@ -12896,7 +12991,7 @@
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Slate
     adjustedParams
@@ -12958,7 +13053,7 @@
       </c>
       <c r="M24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Ovok
     adjustedParams
@@ -13020,7 +13115,7 @@
       </c>
       <c r="M25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Hale
     adjustedParams
@@ -13082,7 +13177,7 @@
       </c>
       <c r="M26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Wal
     adjustedParams
@@ -13144,7 +13239,7 @@
       </c>
       <c r="M27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Tal
     adjustedParams
@@ -13206,7 +13301,7 @@
       </c>
       <c r="M28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Priax
     adjustedParams
@@ -13268,7 +13363,7 @@
       </c>
       <c r="M29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Polta
     adjustedParams
@@ -13330,7 +13425,7 @@
       </c>
       <c r="M30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Urlum
     adjustedParams
@@ -13392,7 +13487,7 @@
       </c>
       <c r="M31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Sarnus
     adjustedParams
@@ -13454,7 +13549,7 @@
       </c>
       <c r="M32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Plock
     adjustedParams
@@ -13516,7 +13611,7 @@
       </c>
       <c r="M33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[OPM]
 {
     bodyName = Neidon
     adjustedParams
@@ -13578,7 +13673,7 @@
       </c>
       <c r="M34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Ki'Ki
     adjustedParams
@@ -13640,7 +13735,7 @@
       </c>
       <c r="M35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Kal
     adjustedParams
@@ -13702,7 +13797,7 @@
       </c>
       <c r="M36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Havous
     adjustedParams
@@ -13764,7 +13859,7 @@
       </c>
       <c r="M37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Geito
     adjustedParams
@@ -13826,7 +13921,7 @@
       </c>
       <c r="M38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Archae
     adjustedParams
@@ -13888,7 +13983,7 @@
       </c>
       <c r="M39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Ervo
     adjustedParams
@@ -13950,7 +14045,7 @@
       </c>
       <c r="M40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Edas
     adjustedParams
@@ -14012,7 +14107,7 @@
       </c>
       <c r="M41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Crokslev
     adjustedParams
@@ -14074,7 +14169,7 @@
       </c>
       <c r="M42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Zore
     adjustedParams
@@ -14136,7 +14231,7 @@
       </c>
       <c r="M43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Vant
     adjustedParams
@@ -14198,7 +14293,7 @@
       </c>
       <c r="M44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Lon
     adjustedParams
@@ -14260,7 +14355,7 @@
       </c>
       <c r="M45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Soden
     adjustedParams
@@ -14322,7 +14417,7 @@
       </c>
       <c r="M46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Flake
     adjustedParams
@@ -14384,7 +14479,7 @@
       </c>
       <c r="M47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Mracksis
     adjustedParams
@@ -14446,7 +14541,7 @@
       </c>
       <c r="M48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[MPE]
 {
     bodyName = Lint-Mikey
     adjustedParams
@@ -14508,7 +14603,7 @@
       </c>
       <c r="M49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = Epona
     adjustedParams
@@ -14570,7 +14665,7 @@
       </c>
       <c r="M50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = Damona
     adjustedParams
@@ -14632,7 +14727,7 @@
       </c>
       <c r="M51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = Cernunnos
     adjustedParams
@@ -14694,7 +14789,7 @@
       </c>
       <c r="M52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = Caireen
     adjustedParams
@@ -14756,7 +14851,7 @@
       </c>
       <c r="M53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = Brovo
     adjustedParams
@@ -14818,7 +14913,7 @@
       </c>
       <c r="M54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = Belisama
     adjustedParams
@@ -14880,7 +14975,7 @@
       </c>
       <c r="M55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = Airmed
     adjustedParams
@@ -14942,7 +15037,7 @@
       </c>
       <c r="M56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = Toutatis
     adjustedParams
@@ -15004,7 +15099,7 @@
       </c>
       <c r="M57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = Taranis
     adjustedParams
@@ -15066,7 +15161,7 @@
       </c>
       <c r="M58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = Sucellus
     adjustedParams
@@ -15128,7 +15223,7 @@
       </c>
       <c r="M59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = Sirona
     adjustedParams
@@ -15190,7 +15285,7 @@
       </c>
       <c r="M60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = Rosmerta
     adjustedParams
@@ -15252,7 +15347,7 @@
       </c>
       <c r="M61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = RAB-58E
     adjustedParams
@@ -15314,7 +15409,7 @@
       </c>
       <c r="M62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP]
 {
     bodyName = Nodens
     adjustedParams
@@ -15337,7 +15432,7 @@
         <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -15355,7 +15450,7 @@
         <v>20</v>
       </c>
       <c r="H63">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I63">
         <v>25</v>
@@ -15371,7 +15466,7 @@
       </c>
       <c r="M63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Item
+        <v>Item:NEEDS[GEP|GPP]
 {
     bodyName = Grannus
     adjustedParams
@@ -15381,7 +15476,7 @@
         flyingLowData = 5
         flyingHighData = 5
         spaceLowData = 20
-        spaceHighData = 8
+        spaceHighData = 12
         recoveredData = 25
         flyingThreshold = 200000
         spaceThreshold = 50000000000
@@ -15389,7 +15484,1768 @@
 }</v>
       </c>
     </row>
+    <row r="64" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>9</v>
+      </c>
+      <c r="J64">
+        <v>18000</v>
+      </c>
+      <c r="K64">
+        <v>80000</v>
+      </c>
+      <c r="M64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Icarus
+    adjustedParams
+    {
+        landedData = 5
+        splashedData = 5
+        flyingLowData = 4
+        flyingHighData = 4
+        spaceLowData = 4
+        spaceHighData = 4
+        recoveredData = 9
+        flyingThreshold = 18000
+        spaceThreshold = 80000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65">
+        <v>4.5</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="I65">
+        <v>7</v>
+      </c>
+      <c r="J65">
+        <v>22000</v>
+      </c>
+      <c r="K65">
+        <v>250000</v>
+      </c>
+      <c r="M65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Thalia
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 7
+        flyingThreshold = 22000
+        spaceThreshold = 250000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
+      <c r="J66">
+        <v>18000</v>
+      </c>
+      <c r="K66">
+        <v>30000</v>
+      </c>
+      <c r="M66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Eta
+    adjustedParams
+    {
+        landedData = 4
+        splashedData = 4
+        flyingLowData = 3
+        flyingHighData = 3
+        spaceLowData = 3
+        spaceHighData = 3
+        recoveredData = 8
+        flyingThreshold = 18000
+        spaceThreshold = 30000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67">
+        <v>4.5</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>16000</v>
+      </c>
+      <c r="K67">
+        <v>200000</v>
+      </c>
+      <c r="M67" s="1" t="str">
+        <f t="shared" ref="M67:M68" si="4">_xlfn.CONCAT("Item:NEEDS[",B67,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A67,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C67,CHAR(10),"        ",D$1," = ",D67,CHAR(10),"        ",E$1," = ",E67,CHAR(10),"        ",F$1," = ",F67,CHAR(10),"        ",G$1," = ",G67,CHAR(10),"        ",H$1," = ",H67,CHAR(10),"        ",I$1," = ",I67,CHAR(10),"        ",J$1," = ",J67,CHAR(10),"        ",K$1," = ",K67,CHAR(10),"    }",CHAR(10),"}")</f>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Niven
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 5
+        flyingThreshold = 16000
+        spaceThreshold = 200000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68">
+        <v>0.8</v>
+      </c>
+      <c r="D68">
+        <v>0.8</v>
+      </c>
+      <c r="E68">
+        <v>0.8</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1.5</v>
+      </c>
+      <c r="H68">
+        <v>1.5</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>18000</v>
+      </c>
+      <c r="K68">
+        <v>300000</v>
+      </c>
+      <c r="M68" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Kerbin
+    adjustedParams
+    {
+        landedData = 0.8
+        splashedData = 0.8
+        flyingLowData = 0.8
+        flyingHighData = 1
+        spaceLowData = 1.5
+        spaceHighData = 1.5
+        recoveredData = 1
+        flyingThreshold = 18000
+        spaceThreshold = 300000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69" t="s">
+        <v>216</v>
+      </c>
+      <c r="C69">
+        <v>0.8</v>
+      </c>
+      <c r="D69">
+        <v>0.8</v>
+      </c>
+      <c r="E69">
+        <v>0.8</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1.5</v>
+      </c>
+      <c r="H69">
+        <v>1.5</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>18000</v>
+      </c>
+      <c r="K69">
+        <v>300000</v>
+      </c>
+      <c r="M69" s="1" t="str">
+        <f t="shared" ref="M69:M73" si="5">_xlfn.CONCAT("Item:NEEDS[",B69,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A69,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C69,CHAR(10),"        ",D$1," = ",D69,CHAR(10),"        ",E$1," = ",E69,CHAR(10),"        ",F$1," = ",F69,CHAR(10),"        ",G$1," = ",G69,CHAR(10),"        ",H$1," = ",H69,CHAR(10),"        ",I$1," = ",I69,CHAR(10),"        ",J$1," = ",J69,CHAR(10),"        ",K$1," = ",K69,CHAR(10),"    }",CHAR(10),"}")</f>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Gael
+    adjustedParams
+    {
+        landedData = 0.8
+        splashedData = 0.8
+        flyingLowData = 0.8
+        flyingHighData = 1
+        spaceLowData = 1.5
+        spaceHighData = 1.5
+        recoveredData = 1
+        flyingThreshold = 18000
+        spaceThreshold = 300000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70">
+        <v>3.5</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70" si="6">$C70</f>
+        <v>3.5</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70:H93" si="7">$C70-1</f>
+        <v>2.5</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>18000</v>
+      </c>
+      <c r="K70">
+        <v>50000</v>
+      </c>
+      <c r="M70" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Iota
+    adjustedParams
+    {
+        landedData = 3.5
+        splashedData = 3.5
+        flyingLowData = 2.5
+        flyingHighData = 2.5
+        spaceLowData = 2.5
+        spaceHighData = 2.5
+        recoveredData = 2
+        flyingThreshold = 18000
+        spaceThreshold = 50000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <f>$C71</f>
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <f>$C71-1</f>
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>18000</v>
+      </c>
+      <c r="K71">
+        <v>75000</v>
+      </c>
+      <c r="M71" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Ceti
+    adjustedParams
+    {
+        landedData = 3
+        splashedData = 3
+        flyingLowData = 2
+        flyingHighData = 2
+        spaceLowData = 2
+        spaceHighData = 2
+        recoveredData = 3
+        flyingThreshold = 18000
+        spaceThreshold = 75000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72">
+        <v>4.5</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D93" si="8">$C72</f>
+        <v>4.5</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72:E93" si="9">$C72-1</f>
+        <v>3.5</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="I72">
+        <v>6</v>
+      </c>
+      <c r="J72">
+        <v>11000</v>
+      </c>
+      <c r="K72">
+        <v>500000</v>
+      </c>
+      <c r="M72" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Tellumo
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 6
+        flyingThreshold = 11000
+        spaceThreshold = 500000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>7</v>
+      </c>
+      <c r="J73">
+        <v>9000</v>
+      </c>
+      <c r="K73">
+        <v>10000</v>
+      </c>
+      <c r="M73" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Lili
+    adjustedParams
+    {
+        landedData = 4
+        splashedData = 4
+        flyingLowData = 3
+        flyingHighData = 3
+        spaceLowData = 3
+        spaceHighData = 3
+        recoveredData = 7
+        flyingThreshold = 9000
+        spaceThreshold = 10000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74">
+        <v>4.5</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="I74">
+        <v>8</v>
+      </c>
+      <c r="J74">
+        <v>13000</v>
+      </c>
+      <c r="K74">
+        <v>275000</v>
+      </c>
+      <c r="M74" s="1" t="str">
+        <f t="shared" ref="M74:M78" si="10">_xlfn.CONCAT("Item:NEEDS[",B74,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A74,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C74,CHAR(10),"        ",D$1," = ",D74,CHAR(10),"        ",E$1," = ",E74,CHAR(10),"        ",F$1," = ",F74,CHAR(10),"        ",G$1," = ",G74,CHAR(10),"        ",H$1," = ",H74,CHAR(10),"        ",I$1," = ",I74,CHAR(10),"        ",J$1," = ",J74,CHAR(10),"        ",K$1," = ",K74,CHAR(10),"    }",CHAR(10),"}")</f>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Gratian
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 8
+        flyingThreshold = 13000
+        spaceThreshold = 275000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>9</v>
+      </c>
+      <c r="J75">
+        <v>18000</v>
+      </c>
+      <c r="K75">
+        <v>115000</v>
+      </c>
+      <c r="M75" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Geminus
+    adjustedParams
+    {
+        landedData = 4
+        splashedData = 4
+        flyingLowData = 3
+        flyingHighData = 3
+        spaceLowData = 3
+        spaceHighData = 3
+        recoveredData = 9
+        flyingThreshold = 18000
+        spaceThreshold = 115000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76">
+        <v>5.5</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="8"/>
+        <v>5.5</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>300000</v>
+      </c>
+      <c r="K76">
+        <v>1750000</v>
+      </c>
+      <c r="M76" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Otho
+    adjustedParams
+    {
+        landedData = 5.5
+        splashedData = 5.5
+        flyingLowData = 4.5
+        flyingHighData = 4.5
+        spaceLowData = 4.5
+        spaceHighData = 4.5
+        recoveredData = 10
+        flyingThreshold = 300000
+        spaceThreshold = 1750000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>11</v>
+      </c>
+      <c r="J77">
+        <v>15000</v>
+      </c>
+      <c r="K77">
+        <v>175000</v>
+      </c>
+      <c r="M77" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Augustus
+    adjustedParams
+    {
+        landedData = 6
+        splashedData = 6
+        flyingLowData = 5
+        flyingHighData = 5
+        spaceLowData = 5
+        spaceHighData = 5
+        recoveredData = 11
+        flyingThreshold = 15000
+        spaceThreshold = 175000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78">
+        <v>4.5</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="I78">
+        <v>11</v>
+      </c>
+      <c r="J78">
+        <v>18000</v>
+      </c>
+      <c r="K78">
+        <v>62500</v>
+      </c>
+      <c r="M78" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Hephaestus
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 11
+        flyingThreshold = 18000
+        spaceThreshold = 62500
+    }
+}</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79">
+        <v>4.5</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="I79">
+        <v>11</v>
+      </c>
+      <c r="J79">
+        <v>18000</v>
+      </c>
+      <c r="K79">
+        <v>52500</v>
+      </c>
+      <c r="M79" s="1" t="str">
+        <f t="shared" ref="M79:M81" si="11">_xlfn.CONCAT("Item:NEEDS[",B79,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A79,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C79,CHAR(10),"        ",D$1," = ",D79,CHAR(10),"        ",E$1," = ",E79,CHAR(10),"        ",F$1," = ",F79,CHAR(10),"        ",G$1," = ",G79,CHAR(10),"        ",H$1," = ",H79,CHAR(10),"        ",I$1," = ",I79,CHAR(10),"        ",J$1," = ",J79,CHAR(10),"        ",K$1," = ",K79,CHAR(10),"    }",CHAR(10),"}")</f>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Jannah
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 11
+        flyingThreshold = 18000
+        spaceThreshold = 52500
+    }
+}</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>11</v>
+      </c>
+      <c r="J80">
+        <v>200000</v>
+      </c>
+      <c r="K80">
+        <v>1250000</v>
+      </c>
+      <c r="M80" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Gauss
+    adjustedParams
+    {
+        landedData = 6
+        splashedData = 6
+        flyingLowData = 5
+        flyingHighData = 5
+        spaceLowData = 5
+        spaceHighData = 5
+        recoveredData = 11
+        flyingThreshold = 200000
+        spaceThreshold = 1250000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>12</v>
+      </c>
+      <c r="J81">
+        <v>18000</v>
+      </c>
+      <c r="K81">
+        <v>90000</v>
+      </c>
+      <c r="M81" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Loki
+    adjustedParams
+    {
+        landedData = 6
+        splashedData = 6
+        flyingLowData = 5
+        flyingHighData = 5
+        spaceLowData = 5
+        spaceHighData = 5
+        recoveredData = 12
+        flyingThreshold = 18000
+        spaceThreshold = 90000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82">
+        <v>6.5</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="8"/>
+        <v>6.5</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="9"/>
+        <v>5.5</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="I82">
+        <v>12</v>
+      </c>
+      <c r="J82">
+        <v>18000</v>
+      </c>
+      <c r="K82">
+        <v>90000</v>
+      </c>
+      <c r="M82" s="1" t="str">
+        <f t="shared" ref="M82:M85" si="12">_xlfn.CONCAT("Item:NEEDS[",B82,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A82,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C82,CHAR(10),"        ",D$1," = ",D82,CHAR(10),"        ",E$1," = ",E82,CHAR(10),"        ",F$1," = ",F82,CHAR(10),"        ",G$1," = ",G82,CHAR(10),"        ",H$1," = ",H82,CHAR(10),"        ",I$1," = ",I82,CHAR(10),"        ",J$1," = ",J82,CHAR(10),"        ",K$1," = ",K82,CHAR(10),"    }",CHAR(10),"}")</f>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Catullus
+    adjustedParams
+    {
+        landedData = 6.5
+        splashedData = 6.5
+        flyingLowData = 5.5
+        flyingHighData = 5.5
+        spaceLowData = 5.5
+        spaceHighData = 5.5
+        recoveredData = 12
+        flyingThreshold = 18000
+        spaceThreshold = 90000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>12</v>
+      </c>
+      <c r="J83">
+        <v>33000</v>
+      </c>
+      <c r="K83">
+        <v>160000</v>
+      </c>
+      <c r="M83" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Tarsiss
+    adjustedParams
+    {
+        landedData = 7
+        splashedData = 7
+        flyingLowData = 6
+        flyingHighData = 6
+        spaceLowData = 6
+        spaceHighData = 6
+        recoveredData = 12
+        flyingThreshold = 33000
+        spaceThreshold = 160000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I84">
+        <v>11</v>
+      </c>
+      <c r="J84">
+        <v>280000</v>
+      </c>
+      <c r="K84">
+        <v>2500000</v>
+      </c>
+      <c r="M84" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Nero
+    adjustedParams
+    {
+        landedData = 6
+        splashedData = 6
+        flyingLowData = 5
+        flyingHighData = 5
+        spaceLowData = 5
+        spaceHighData = 5
+        recoveredData = 11
+        flyingThreshold = 280000
+        spaceThreshold = 2500000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85">
+        <v>6.5</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="8"/>
+        <v>6.5</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="9"/>
+        <v>5.5</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="I85">
+        <v>12</v>
+      </c>
+      <c r="J85">
+        <v>20000</v>
+      </c>
+      <c r="K85">
+        <v>150000</v>
+      </c>
+      <c r="M85" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Hadrian
+    adjustedParams
+    {
+        landedData = 6.5
+        splashedData = 6.5
+        flyingLowData = 5.5
+        flyingHighData = 5.5
+        spaceLowData = 5.5
+        spaceHighData = 5.5
+        recoveredData = 12
+        flyingThreshold = 20000
+        spaceThreshold = 150000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>238</v>
+      </c>
+      <c r="B86" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>12</v>
+      </c>
+      <c r="J86">
+        <v>18000</v>
+      </c>
+      <c r="K86">
+        <v>45000</v>
+      </c>
+      <c r="M86" s="1" t="str">
+        <f t="shared" ref="M86" si="13">_xlfn.CONCAT("Item:NEEDS[",B86,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A86,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C86,CHAR(10),"        ",D$1," = ",D86,CHAR(10),"        ",E$1," = ",E86,CHAR(10),"        ",F$1," = ",F86,CHAR(10),"        ",G$1," = ",G86,CHAR(10),"        ",H$1," = ",H86,CHAR(10),"        ",I$1," = ",I86,CHAR(10),"        ",J$1," = ",J86,CHAR(10),"        ",K$1," = ",K86,CHAR(10),"    }",CHAR(10),"}")</f>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Narisse
+    adjustedParams
+    {
+        landedData = 6
+        splashedData = 6
+        flyingLowData = 5
+        flyingHighData = 5
+        spaceLowData = 5
+        spaceHighData = 5
+        recoveredData = 12
+        flyingThreshold = 18000
+        spaceThreshold = 45000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>12</v>
+      </c>
+      <c r="J87">
+        <v>18000</v>
+      </c>
+      <c r="K87">
+        <v>65000</v>
+      </c>
+      <c r="M87" s="1" t="str">
+        <f t="shared" ref="M87" si="14">_xlfn.CONCAT("Item:NEEDS[",B87,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A87,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C87,CHAR(10),"        ",D$1," = ",D87,CHAR(10),"        ",E$1," = ",E87,CHAR(10),"        ",F$1," = ",F87,CHAR(10),"        ",G$1," = ",G87,CHAR(10),"        ",H$1," = ",H87,CHAR(10),"        ",I$1," = ",I87,CHAR(10),"        ",J$1," = ",J87,CHAR(10),"        ",K$1," = ",K87,CHAR(10),"    }",CHAR(10),"}")</f>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Muse
+    adjustedParams
+    {
+        landedData = 6
+        splashedData = 6
+        flyingLowData = 5
+        flyingHighData = 5
+        spaceLowData = 5
+        spaceHighData = 5
+        recoveredData = 12
+        flyingThreshold = 18000
+        spaceThreshold = 65000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>12</v>
+      </c>
+      <c r="J88">
+        <v>18000</v>
+      </c>
+      <c r="K88">
+        <v>60000</v>
+      </c>
+      <c r="M88" s="1" t="str">
+        <f t="shared" ref="M88" si="15">_xlfn.CONCAT("Item:NEEDS[",B88,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A88,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C88,CHAR(10),"        ",D$1," = ",D88,CHAR(10),"        ",E$1," = ",E88,CHAR(10),"        ",F$1," = ",F88,CHAR(10),"        ",G$1," = ",G88,CHAR(10),"        ",H$1," = ",H88,CHAR(10),"        ",I$1," = ",I88,CHAR(10),"        ",J$1," = ",J88,CHAR(10),"        ",K$1," = ",K88,CHAR(10),"    }",CHAR(10),"}")</f>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Minona
+    adjustedParams
+    {
+        landedData = 6
+        splashedData = 6
+        flyingLowData = 5
+        flyingHighData = 5
+        spaceLowData = 5
+        spaceHighData = 5
+        recoveredData = 12
+        flyingThreshold = 18000
+        spaceThreshold = 60000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>241</v>
+      </c>
+      <c r="B89" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>12</v>
+      </c>
+      <c r="J89">
+        <v>18000</v>
+      </c>
+      <c r="K89">
+        <v>25000</v>
+      </c>
+      <c r="M89" s="1" t="str">
+        <f t="shared" ref="M89" si="16">_xlfn.CONCAT("Item:NEEDS[",B89,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A89,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C89,CHAR(10),"        ",D$1," = ",D89,CHAR(10),"        ",E$1," = ",E89,CHAR(10),"        ",F$1," = ",F89,CHAR(10),"        ",G$1," = ",G89,CHAR(10),"        ",H$1," = ",H89,CHAR(10),"        ",I$1," = ",I89,CHAR(10),"        ",J$1," = ",J89,CHAR(10),"        ",K$1," = ",K89,CHAR(10),"    }",CHAR(10),"}")</f>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Agrippina
+    adjustedParams
+    {
+        landedData = 6
+        splashedData = 6
+        flyingLowData = 5
+        flyingHighData = 5
+        spaceLowData = 5
+        spaceHighData = 5
+        recoveredData = 12
+        flyingThreshold = 18000
+        spaceThreshold = 25000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>242</v>
+      </c>
+      <c r="B90" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>12</v>
+      </c>
+      <c r="J90">
+        <v>10000</v>
+      </c>
+      <c r="K90">
+        <v>15000</v>
+      </c>
+      <c r="M90" s="1" t="str">
+        <f t="shared" ref="M90:M91" si="17">_xlfn.CONCAT("Item:NEEDS[",B90,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A90,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C90,CHAR(10),"        ",D$1," = ",D90,CHAR(10),"        ",E$1," = ",E90,CHAR(10),"        ",F$1," = ",F90,CHAR(10),"        ",G$1," = ",G90,CHAR(10),"        ",H$1," = ",H90,CHAR(10),"        ",I$1," = ",I90,CHAR(10),"        ",J$1," = ",J90,CHAR(10),"        ",K$1," = ",K90,CHAR(10),"    }",CHAR(10),"}")</f>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Julia
+    adjustedParams
+    {
+        landedData = 6
+        splashedData = 6
+        flyingLowData = 5
+        flyingHighData = 5
+        spaceLowData = 5
+        spaceHighData = 5
+        recoveredData = 12
+        flyingThreshold = 10000
+        spaceThreshold = 15000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>243</v>
+      </c>
+      <c r="B91" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>13</v>
+      </c>
+      <c r="J91">
+        <v>10000</v>
+      </c>
+      <c r="K91">
+        <v>125000</v>
+      </c>
+      <c r="M91" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Hox
+    adjustedParams
+    {
+        landedData = 7
+        splashedData = 7
+        flyingLowData = 6
+        flyingHighData = 6
+        spaceLowData = 6
+        spaceHighData = 6
+        recoveredData = 13
+        flyingThreshold = 10000
+        spaceThreshold = 125000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>244</v>
+      </c>
+      <c r="B92" t="s">
+        <v>216</v>
+      </c>
+      <c r="C92">
+        <v>6.5</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="8"/>
+        <v>6.5</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="9"/>
+        <v>5.5</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="I92">
+        <v>14</v>
+      </c>
+      <c r="J92">
+        <v>18000</v>
+      </c>
+      <c r="K92">
+        <v>40000</v>
+      </c>
+      <c r="M92" s="1" t="str">
+        <f t="shared" ref="M92:M93" si="18">_xlfn.CONCAT("Item:NEEDS[",B92,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A92,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C92,CHAR(10),"        ",D$1," = ",D92,CHAR(10),"        ",E$1," = ",E92,CHAR(10),"        ",F$1," = ",F92,CHAR(10),"        ",G$1," = ",G92,CHAR(10),"        ",H$1," = ",H92,CHAR(10),"        ",I$1," = ",I92,CHAR(10),"        ",J$1," = ",J92,CHAR(10),"        ",K$1," = ",K92,CHAR(10),"    }",CHAR(10),"}")</f>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Argo
+    adjustedParams
+    {
+        landedData = 6.5
+        splashedData = 6.5
+        flyingLowData = 5.5
+        flyingHighData = 5.5
+        spaceLowData = 5.5
+        spaceHighData = 5.5
+        recoveredData = 14
+        flyingThreshold = 18000
+        spaceThreshold = 40000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>13</v>
+      </c>
+      <c r="J93">
+        <v>9000</v>
+      </c>
+      <c r="K93">
+        <v>105000</v>
+      </c>
+      <c r="M93" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[GPP]
+{
+    bodyName = Leto
+    adjustedParams
+    {
+        landedData = 7
+        splashedData = 7
+        flyingLowData = 6
+        flyingHighData = 6
+        spaceLowData = 6
+        spaceHighData = 6
+        recoveredData = 13
+        flyingThreshold = 9000
+        spaceThreshold = 105000
+    }
+}</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:M68" xr:uid="{AFC65FD1-7BB3-48D7-856F-14AEF5C1B522}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Source/Science.xlsx
+++ b/Source/Science.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C8D594-78DD-425B-8C7E-391AF0542FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C6AAD-984E-4E54-85D7-25B8E66E8F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="730" windowWidth="17390" windowHeight="19090" activeTab="2" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
+    <workbookView xWindow="16780" yWindow="5560" windowWidth="19860" windowHeight="11890" activeTab="1" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Defaults!$A$1:$D$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kiwi!$A$2:$X$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kiwi!$A$2:$X$136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ScienceParam!$A$1:$M$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stock!$A$2:$U$45</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="262">
   <si>
     <t>Experiment</t>
   </si>
@@ -784,6 +784,51 @@
   </si>
   <si>
     <t>GEP|GPP</t>
+  </si>
+  <si>
+    <t>ca_SiteSurvey</t>
+  </si>
+  <si>
+    <t>CoatlAerospace</t>
+  </si>
+  <si>
+    <t>ca_soilScoop</t>
+  </si>
+  <si>
+    <t>ca_gammaRay</t>
+  </si>
+  <si>
+    <t>ca_rpws</t>
+  </si>
+  <si>
+    <t>ca_orbitalScope</t>
+  </si>
+  <si>
+    <t>ca_mag</t>
+  </si>
+  <si>
+    <t>ca_IRspec</t>
+  </si>
+  <si>
+    <t>ca_ionElec</t>
+  </si>
+  <si>
+    <t>ca_UVspec</t>
+  </si>
+  <si>
+    <t>ca_solarWind</t>
+  </si>
+  <si>
+    <t>ca_kdex</t>
+  </si>
+  <si>
+    <t>ca_micrometeoroid</t>
+  </si>
+  <si>
+    <t>ca_radsci</t>
+  </si>
+  <si>
+    <t>ca_filmCamera</t>
   </si>
 </sst>
 </file>
@@ -4420,14 +4465,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7CD309-1AF9-460F-88C8-8DF0B79AC471}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:X134"/>
+  <dimension ref="A1:X136"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4440,7 +4484,7 @@
     <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="97.7265625" customWidth="1"/>
+    <col min="10" max="10" width="42.6328125" customWidth="1"/>
     <col min="11" max="11" width="73.7265625" customWidth="1"/>
     <col min="13" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
@@ -4539,7 +4583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4635,7 +4679,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -4657,7 +4701,7 @@
 }</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4687,7 +4731,7 @@
         <v>64</v>
       </c>
       <c r="J5" s="1" t="str">
-        <f t="shared" ref="J5:J69" si="1">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A5,"]]:NEEDS[",I5,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C5,CHAR(10),"     ","@scienceCap = ",D5,CHAR(10),"     ","@dataScale = ",E5,CHAR(10),"     ","@situationMask = ",F5,CHAR(10),"     ","@biomeMask = ",G5,CHAR(10),"}")</f>
+        <f t="shared" ref="J5:J36" si="1">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A5,"]]:NEEDS[",I5,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C5,CHAR(10),"     ","@scienceCap = ",D5,CHAR(10),"     ","@dataScale = ",E5,CHAR(10),"     ","@situationMask = ",F5,CHAR(10),"     ","@biomeMask = ",G5,CHAR(10),"}")</f>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[mobileMaterialsLab]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -4705,55 +4749,55 @@
     }</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M69" si="2">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="M5:M36" si="2">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ref="N5:N69" si="3">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="N5:N36" si="3">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" ref="O5:O69" si="4">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="O5:O36" si="4">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" ref="P5:P69" si="5">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="P5:P36" si="5">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" ref="Q5:Q69" si="6">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="Q5:Q36" si="6">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),5),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" ref="R5:R69" si="7">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="R5:R36" si="7">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" ref="S5:S69" si="8">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="S5:S36" si="8">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" ref="T5:T69" si="9">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="T5:T36" si="9">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" ref="U5:U69" si="10">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="U5:U36" si="10">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="V5" t="str">
-        <f t="shared" ref="V5:V69" si="11">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="V5:V36" si="11">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" ref="W5:W69" si="12">IF(F5&lt;&gt;"",IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" ref="W5:W36" si="12">IF(F5&lt;&gt;"",IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),5),1)*1=1,"Yes","No"),""),"")</f>
         <v>No</v>
       </c>
       <c r="X5" t="str">
-        <f t="shared" ref="X5:X69" si="13">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="X5:X36" si="13">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),6),1)*1=1,"Yes","No"),"")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -4852,7 +4896,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -4951,7 +4995,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -5050,7 +5094,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5146,7 +5190,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5242,7 +5286,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -5338,7 +5382,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="103" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="103" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -5434,7 +5478,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -5530,7 +5574,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -5626,7 +5670,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -5722,7 +5766,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5818,7 +5862,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5914,7 +5958,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -6010,7 +6054,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -6106,7 +6150,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -6205,7 +6249,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -6301,7 +6345,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -6397,7 +6441,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -6496,7 +6540,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -6592,7 +6636,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -6691,7 +6735,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -6790,7 +6834,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -6889,7 +6933,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6985,7 +7029,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -7084,7 +7128,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -7174,7 +7218,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -7273,7 +7317,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -7372,7 +7416,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -7471,7 +7515,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -7570,7 +7614,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -7669,7 +7713,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -7707,7 +7751,7 @@
 }</v>
       </c>
       <c r="K36" s="1" t="str">
-        <f t="shared" ref="K36:K69" si="15">IF(H36&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A36,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H36,CHAR(10),"    }"),"")</f>
+        <f t="shared" ref="K36:K74" si="15">IF(H36&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A36,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H36,CHAR(10),"    }"),"")</f>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[SCANsatAltimetryLoRes]]
     {
         @xmitDataScalar = 1
@@ -7762,7 +7806,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -7789,7 +7833,7 @@
         <v>41</v>
       </c>
       <c r="J37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J37:J68" si="16">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A37,"]]:NEEDS[",I37,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C37,CHAR(10),"     ","@scienceCap = ",D37,CHAR(10),"     ","@dataScale = ",E37,CHAR(10),"     ","@situationMask = ",F37,CHAR(10),"     ","@biomeMask = ",G37,CHAR(10),"}")</f>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[SCANsatAltimetryHiRes]]:NEEDS[SCANsat]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -7807,55 +7851,55 @@
     }</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M37:M68" si="17">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N37:N68" si="18">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O37:O68" si="19">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P37:P68" si="20">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Q37:Q68" si="21">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),5),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="R37:R68" si="22">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="S37:S68" si="23">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="T37:T68" si="24">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="U37:U68" si="25">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="V37:V68" si="26">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="W37:W68" si="27">IF(F37&lt;&gt;"",IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),5),1)*1=1,"Yes","No"),""),"")</f>
         <v>No</v>
       </c>
       <c r="X37" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="X37:X68" si="28">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),6),1)*1=1,"Yes","No"),"")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -7882,7 +7926,7 @@
         <v>41</v>
       </c>
       <c r="J38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[SCANsatBiomeAnomaly]]:NEEDS[SCANsat]:FOR[zKiwiAerospace]
 {
      @baseValue = 15
@@ -7900,55 +7944,55 @@
     }</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>No</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
       <c r="V38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X38" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -7975,7 +8019,7 @@
         <v>41</v>
       </c>
       <c r="J39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[SCANsatResources]]:NEEDS[SCANsat]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -7993,55 +8037,55 @@
     }</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>No</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X39" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -8068,7 +8112,7 @@
         <v>41</v>
       </c>
       <c r="J40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[SCANsatVisual]]:NEEDS[SCANsat]:FOR[zKiwiAerospace]
 {
      @baseValue = 12
@@ -8086,55 +8130,55 @@
     }</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>No</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X40" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -8161,7 +8205,7 @@
         <v>64</v>
       </c>
       <c r="J41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[surfaceSample]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 30
@@ -8176,55 +8220,55 @@
         <v/>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
       <c r="V41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X41" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -8251,7 +8295,7 @@
         <v>64</v>
       </c>
       <c r="J42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[asteroidSample]]:NEEDS[Squad]:FOR[zKiwiAerospace]
 {
      @baseValue = 50
@@ -8266,55 +8310,55 @@
         <v/>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X42" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -8338,7 +8382,7 @@
         <v>65</v>
       </c>
       <c r="J43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ex. Photo-Tylo-Cave]]:NEEDS[LTech]:FOR[zKiwiAerospace]
 {
      @baseValue = 16
@@ -8353,55 +8397,55 @@
         <v/>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>No</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
       <c r="V43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X43" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -8425,7 +8469,7 @@
         <v>66</v>
       </c>
       <c r="J44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[dmAsteroidScan]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -8440,55 +8484,55 @@
         <v/>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>No</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
       <c r="V44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X44" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -8512,7 +8556,7 @@
         <v>66</v>
       </c>
       <c r="J45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[AnomalyScan]]:NEEDS[DMagicOrbitalScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 16
@@ -8527,55 +8571,55 @@
         <v/>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>No</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
       <c r="V45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X45" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>180</v>
       </c>
@@ -8601,7 +8645,7 @@
         <v>181</v>
       </c>
       <c r="J46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[GasAnalyzer]]:NEEDS[Interkosmos]:FOR[zKiwiAerospace]
 {
      @baseValue = 12
@@ -8619,55 +8663,55 @@
     }</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
       <c r="V46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X46" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -8693,7 +8737,7 @@
         <v>181</v>
       </c>
       <c r="J47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[Hydrometer]]:NEEDS[Interkosmos]:FOR[zKiwiAerospace]
 {
      @baseValue = 8
@@ -8711,55 +8755,55 @@
     }</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X47" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>183</v>
       </c>
@@ -8785,7 +8829,7 @@
         <v>181</v>
       </c>
       <c r="J48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[IRSpectrometer]]:NEEDS[Interkosmos]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -8803,55 +8847,55 @@
     }</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X48" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>184</v>
       </c>
@@ -8877,7 +8921,7 @@
         <v>181</v>
       </c>
       <c r="J49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[Photometer]]:NEEDS[Interkosmos]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -8895,55 +8939,55 @@
     }</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X49" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -8969,7 +9013,7 @@
         <v>181</v>
       </c>
       <c r="J50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[Photopolarimeter]]:NEEDS[Interkosmos]:FOR[zKiwiAerospace]
 {
      @baseValue = 9
@@ -8987,55 +9031,55 @@
     }</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X50" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>186</v>
       </c>
@@ -9061,7 +9105,7 @@
         <v>181</v>
       </c>
       <c r="J51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[Crystals]]:NEEDS[Interkosmos]:FOR[zKiwiAerospace]
 {
      @baseValue = 8
@@ -9079,55 +9123,55 @@
     }</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X51" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>187</v>
       </c>
@@ -9135,7 +9179,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:D115" si="16">C52</f>
+        <f t="shared" ref="D52:D83" si="29">C52</f>
         <v>4</v>
       </c>
       <c r="E52">
@@ -9154,7 +9198,7 @@
         <v>188</v>
       </c>
       <c r="J52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[CardboardBox]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 4
@@ -9172,55 +9216,55 @@
     }</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X52" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -9228,7 +9272,7 @@
         <v>6</v>
       </c>
       <c r="D53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="E53">
@@ -9247,7 +9291,7 @@
         <v>188</v>
       </c>
       <c r="J53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[SampleBox]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 6
@@ -9265,55 +9309,55 @@
     }</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S53" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X53" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>190</v>
       </c>
@@ -9321,7 +9365,7 @@
         <v>25</v>
       </c>
       <c r="D54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="E54">
@@ -9340,7 +9384,7 @@
         <v>188</v>
       </c>
       <c r="J54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[KrakenScanner]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 25
@@ -9358,55 +9402,55 @@
     }</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S54" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X54" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -9414,7 +9458,7 @@
         <v>10</v>
       </c>
       <c r="D55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="E55">
@@ -9433,7 +9477,7 @@
         <v>188</v>
       </c>
       <c r="J55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[Incubator]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -9451,55 +9495,55 @@
     }</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X55" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>192</v>
       </c>
@@ -9507,7 +9551,7 @@
         <v>12</v>
       </c>
       <c r="D56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="E56">
@@ -9526,7 +9570,7 @@
         <v>188</v>
       </c>
       <c r="J56" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[TentacleSample]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 12
@@ -9544,55 +9588,55 @@
     }</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S56" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
       <c r="V56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X56" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>193</v>
       </c>
@@ -9600,7 +9644,7 @@
         <v>10</v>
       </c>
       <c r="D57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="E57">
@@ -9619,7 +9663,7 @@
         <v>188</v>
       </c>
       <c r="J57" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[SkinSample]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -9637,55 +9681,55 @@
     }</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S57" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U57" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
       <c r="V57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X57" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>194</v>
       </c>
@@ -9693,7 +9737,7 @@
         <v>10</v>
       </c>
       <c r="D58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="E58">
@@ -9712,7 +9756,7 @@
         <v>188</v>
       </c>
       <c r="J58" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[EyeSample]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -9730,55 +9774,55 @@
     }</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S58" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U58" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
       <c r="V58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X58" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>195</v>
       </c>
@@ -9786,7 +9830,7 @@
         <v>22</v>
       </c>
       <c r="D59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>22</v>
       </c>
       <c r="E59">
@@ -9805,7 +9849,7 @@
         <v>188</v>
       </c>
       <c r="J59" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[BloodSample]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 22
@@ -9823,55 +9867,55 @@
     }</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S59" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X59" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -9879,7 +9923,7 @@
         <v>8</v>
       </c>
       <c r="D60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="E60">
@@ -9898,7 +9942,7 @@
         <v>188</v>
       </c>
       <c r="J60" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[Microwaves]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 8
@@ -9916,55 +9960,55 @@
     }</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X60" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>197</v>
       </c>
@@ -9972,7 +10016,7 @@
         <v>20</v>
       </c>
       <c r="D61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="E61">
@@ -9991,7 +10035,7 @@
         <v>188</v>
       </c>
       <c r="J61" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ScienceRackBio]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -10009,55 +10053,55 @@
     }</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S61" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X61" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -10065,7 +10109,7 @@
         <v>20</v>
       </c>
       <c r="D62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="E62">
@@ -10084,7 +10128,7 @@
         <v>188</v>
       </c>
       <c r="J62" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ScienceRackExp]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -10102,55 +10146,55 @@
     }</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S62" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X62" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>199</v>
       </c>
@@ -10158,7 +10202,7 @@
         <v>22</v>
       </c>
       <c r="D63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>22</v>
       </c>
       <c r="E63">
@@ -10177,7 +10221,7 @@
         <v>188</v>
       </c>
       <c r="J63" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[KrakenSpecimen1]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 22
@@ -10195,55 +10239,55 @@
     }</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R63" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X63" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>200</v>
       </c>
@@ -10251,7 +10295,7 @@
         <v>22</v>
       </c>
       <c r="D64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>22</v>
       </c>
       <c r="E64">
@@ -10270,7 +10314,7 @@
         <v>188</v>
       </c>
       <c r="J64" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[KrakenSpecimen2]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 22
@@ -10288,55 +10332,55 @@
     }</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R64" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S64" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V64" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X64" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>201</v>
       </c>
@@ -10344,7 +10388,7 @@
         <v>25</v>
       </c>
       <c r="D65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="E65">
@@ -10363,7 +10407,7 @@
         <v>188</v>
       </c>
       <c r="J65" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[KrakenSpecimen3]]:NEEDS[KrakenScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 25
@@ -10381,55 +10425,55 @@
     }</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R65" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S65" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X65" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>202</v>
       </c>
@@ -10437,7 +10481,7 @@
         <v>10</v>
       </c>
       <c r="D66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="E66">
@@ -10456,7 +10500,7 @@
         <v>203</v>
       </c>
       <c r="J66" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[sspxFishStudy]]:NEEDS[StationPartsExpansionRedux]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -10474,55 +10518,55 @@
     }</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="T66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="U66" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
       <c r="V66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X66" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>204</v>
       </c>
@@ -10530,7 +10574,7 @@
         <v>10</v>
       </c>
       <c r="D67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="E67">
@@ -10549,7 +10593,7 @@
         <v>203</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[sspxPlantGrowth]]:NEEDS[StationPartsExpansionRedux]:FOR[zKiwiAerospace]
 {
      @baseValue = 10
@@ -10567,55 +10611,55 @@
     }</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
       <c r="V67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X67" t="str">
-        <f t="shared" si="13"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>205</v>
       </c>
@@ -10623,7 +10667,7 @@
         <v>15</v>
       </c>
       <c r="D68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="E68">
@@ -10642,7 +10686,7 @@
         <v>203</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[sspxVisualObservation]]:NEEDS[StationPartsExpansionRedux]:FOR[zKiwiAerospace]
 {
      @baseValue = 15
@@ -10660,51 +10704,51 @@
     }</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="R68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="S68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>Yes</v>
       </c>
       <c r="T68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>Yes</v>
       </c>
       <c r="U68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
       <c r="V68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>No</v>
       </c>
       <c r="W68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>No</v>
       </c>
       <c r="X68" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>No</v>
       </c>
     </row>
@@ -10716,7 +10760,7 @@
         <v>12</v>
       </c>
       <c r="D69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="E69">
@@ -10735,7 +10779,7 @@
         <v>207</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J69:J89" si="30">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A69,"]]:NEEDS[",I69,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C69,CHAR(10),"     ","@scienceCap = ",D69,CHAR(10),"     ","@dataScale = ",E69,CHAR(10),"     ","@situationMask = ",F69,CHAR(10),"     ","@biomeMask = ",G69,CHAR(10),"}")</f>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[Color Samples]]:NEEDS[Knes]:FOR[zKiwiAerospace]
 {
      @baseValue = 12
@@ -10753,51 +10797,51 @@
     }</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M69:M89" si="31">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N69:N89" si="32">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O69:O89" si="33">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P69:P89" si="34">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Q69:Q89" si="35">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),5),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="R69:R89" si="36">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="S69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="S69:S89" si="37">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="T69:T89" si="38">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="U69" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="U69:U89" si="39">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="V69" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="V69:V89" si="40">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="W69:W89" si="41">IF(F69&lt;&gt;"",IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),5),1)*1=1,"Yes","No"),""),"")</f>
         <v>No</v>
       </c>
       <c r="X69" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="X69:X89" si="42">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
     </row>
@@ -10809,7 +10853,7 @@
         <v>20</v>
       </c>
       <c r="D70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="E70">
@@ -10828,7 +10872,7 @@
         <v>207</v>
       </c>
       <c r="J70" s="1" t="str">
-        <f t="shared" ref="J70:J74" si="17">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A70,"]]:NEEDS[",I70,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C70,CHAR(10),"     ","@scienceCap = ",D70,CHAR(10),"     ","@dataScale = ",E70,CHAR(10),"     ","@situationMask = ",F70,CHAR(10),"     ","@biomeMask = ",G70,CHAR(10),"}")</f>
+        <f t="shared" si="30"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ScienceRackBioExperiment]]:NEEDS[Knes]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -10839,58 +10883,58 @@
 }</v>
       </c>
       <c r="K70" s="1" t="str">
-        <f t="shared" ref="K70:K74" si="18">IF(H70&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A70,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H70,CHAR(10),"    }"),"")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[ScienceRackBioExperiment]]
     {
         @xmitDataScalar = 0.1
     }</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" ref="M70:M74" si="19">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>Yes</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" ref="N70:N74" si="20">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" ref="O70:O74" si="21">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" ref="P70:P74" si="22">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" ref="Q70:Q74" si="23">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>Yes</v>
       </c>
       <c r="R70" t="str">
-        <f t="shared" ref="R70:R74" si="24">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>Yes</v>
       </c>
       <c r="S70" t="str">
-        <f t="shared" ref="S70:S74" si="25">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>Yes</v>
       </c>
       <c r="T70" t="str">
-        <f t="shared" ref="T70:T74" si="26">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="38"/>
         <v>Yes</v>
       </c>
       <c r="U70" t="str">
-        <f t="shared" ref="U70:U74" si="27">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>Yes</v>
       </c>
       <c r="V70" t="str">
-        <f t="shared" ref="V70:V74" si="28">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="40"/>
         <v>No</v>
       </c>
       <c r="W70" t="str">
-        <f t="shared" ref="W70:W74" si="29">IF(F70&lt;&gt;"",IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="41"/>
         <v>No</v>
       </c>
       <c r="X70" t="str">
-        <f t="shared" ref="X70:X74" si="30">IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="42"/>
         <v>No</v>
       </c>
     </row>
@@ -10902,7 +10946,7 @@
         <v>20</v>
       </c>
       <c r="D71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="E71">
@@ -10921,7 +10965,7 @@
         <v>207</v>
       </c>
       <c r="J71" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ScienceRackExperiment]]:NEEDS[Knes]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -10932,58 +10976,58 @@
 }</v>
       </c>
       <c r="K71" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[ScienceRackExperiment]]
     {
         @xmitDataScalar = 0.1
     }</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>Yes</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>Yes</v>
       </c>
       <c r="R71" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>Yes</v>
       </c>
       <c r="S71" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>Yes</v>
       </c>
       <c r="T71" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>Yes</v>
       </c>
       <c r="U71" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>Yes</v>
       </c>
       <c r="V71" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>No</v>
       </c>
       <c r="W71" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>No</v>
       </c>
       <c r="X71" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>No</v>
       </c>
     </row>
@@ -10995,7 +11039,7 @@
         <v>20</v>
       </c>
       <c r="D72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="E72">
@@ -11014,7 +11058,7 @@
         <v>207</v>
       </c>
       <c r="J72" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[CosmoCat]]:NEEDS[Knes]:FOR[zKiwiAerospace]
 {
      @baseValue = 20
@@ -11025,58 +11069,58 @@
 }</v>
       </c>
       <c r="K72" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[CosmoCat]]
     {
         @xmitDataScalar = 0.1
     }</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>Yes</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>Yes</v>
       </c>
       <c r="R72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>Yes</v>
       </c>
       <c r="S72" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>Yes</v>
       </c>
       <c r="T72" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>Yes</v>
       </c>
       <c r="U72" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>Yes</v>
       </c>
       <c r="V72" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>No</v>
       </c>
       <c r="W72" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>No</v>
       </c>
       <c r="X72" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>No</v>
       </c>
     </row>
@@ -11088,7 +11132,7 @@
         <v>12</v>
       </c>
       <c r="D73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="E73">
@@ -11107,7 +11151,7 @@
         <v>207</v>
       </c>
       <c r="J73" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[Telemetry]]:NEEDS[Knes]:FOR[zKiwiAerospace]
 {
      @baseValue = 12
@@ -11118,58 +11162,58 @@
 }</v>
       </c>
       <c r="K73" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[Telemetry]]
     {
         @xmitDataScalar = 1
     }</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>Yes</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>Yes</v>
       </c>
       <c r="R73" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>Yes</v>
       </c>
       <c r="S73" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>Yes</v>
       </c>
       <c r="T73" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>Yes</v>
       </c>
       <c r="U73" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
       <c r="V73" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>No</v>
       </c>
       <c r="W73" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>No</v>
       </c>
       <c r="X73" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>No</v>
       </c>
     </row>
@@ -11181,7 +11225,7 @@
         <v>12</v>
       </c>
       <c r="D74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="E74">
@@ -11200,7 +11244,7 @@
         <v>207</v>
       </c>
       <c r="J74" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[Geodesy]]:NEEDS[Knes]:FOR[zKiwiAerospace]
 {
      @baseValue = 12
@@ -11211,432 +11255,1816 @@
 }</v>
       </c>
       <c r="K74" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[Geodesy]]
     {
         @xmitDataScalar = 0.1
     }</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>Yes</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>Yes</v>
       </c>
       <c r="R74" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>Yes</v>
       </c>
       <c r="S74" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>Yes</v>
       </c>
       <c r="T74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>Yes</v>
       </c>
       <c r="U74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
       <c r="V74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>No</v>
       </c>
       <c r="W74" t="str">
+        <f t="shared" si="41"/>
+        <v>No</v>
+      </c>
+      <c r="X74" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>247</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="29"/>
-        <v>No</v>
-      </c>
-      <c r="X74" t="str">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>0.1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>248</v>
+      </c>
+      <c r="J75" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D75">
-        <f t="shared" si="16"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_SiteSurvey]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 6
+     @scienceCap = 6
+     @dataScale = 1
+     @situationMask = 3
+     @biomeMask = 3
+}</v>
+      </c>
+      <c r="K75" s="1" t="str">
+        <f>IF(H75&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[",A75,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H75,CHAR(10),"    }",CHAR(10),"}"),"")</f>
+        <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]
+{
+    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[ca_SiteSurvey]]
+    {
+        @xmitDataScalar = 0.1
+    }
+}</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="31"/>
+        <v>Yes</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="32"/>
+        <v>Yes</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="33"/>
+        <v>No</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="34"/>
+        <v>No</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="35"/>
+        <v>No</v>
+      </c>
+      <c r="R75" t="str">
+        <f t="shared" si="36"/>
+        <v>No</v>
+      </c>
+      <c r="S75" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="T75" t="str">
+        <f t="shared" si="38"/>
+        <v>Yes</v>
+      </c>
+      <c r="U75" t="str">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+      <c r="V75" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W75" t="str">
+        <f t="shared" si="41"/>
+        <v>No</v>
+      </c>
+      <c r="X75" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>249</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>0.1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>248</v>
+      </c>
+      <c r="J76" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_soilScoop]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 6
+     @scienceCap = 6
+     @dataScale = 1
+     @situationMask = 3
+     @biomeMask = 3
+}</v>
+      </c>
+      <c r="K76" s="1" t="str">
+        <f>IF(H76&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[",A76,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H76,CHAR(10),"    }",CHAR(10),"}"),"")</f>
+        <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]
+{
+    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[ca_soilScoop]]
+    {
+        @xmitDataScalar = 0.1
+    }
+}</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="31"/>
+        <v>Yes</v>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="32"/>
+        <v>Yes</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="33"/>
+        <v>No</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="34"/>
+        <v>No</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="35"/>
+        <v>No</v>
+      </c>
+      <c r="R76" t="str">
+        <f t="shared" si="36"/>
+        <v>No</v>
+      </c>
+      <c r="S76" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="T76" t="str">
+        <f t="shared" si="38"/>
+        <v>Yes</v>
+      </c>
+      <c r="U76" t="str">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+      <c r="V76" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W76" t="str">
+        <f t="shared" si="41"/>
+        <v>No</v>
+      </c>
+      <c r="X76" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>250</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>48</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>248</v>
+      </c>
+      <c r="J77" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_gammaRay]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 6
+     @scienceCap = 6
+     @dataScale = 1
+     @situationMask = 48
+     @biomeMask = 1
+}</v>
+      </c>
+      <c r="K77" s="1" t="str">
+        <f>IF(H77&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[",A77,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H77,CHAR(10),"    }",CHAR(10),"}"),"")</f>
+        <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]
+{
+    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[ca_gammaRay]]
+    {
+        @xmitDataScalar = 1
+    }
+}</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="31"/>
+        <v>No</v>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="32"/>
+        <v>No</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="33"/>
+        <v>No</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" si="34"/>
+        <v>No</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="R77" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="S77" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="T77" t="str">
+        <f t="shared" si="38"/>
+        <v>No</v>
+      </c>
+      <c r="U77" t="str">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+      <c r="V77" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W77" t="str">
+        <f t="shared" si="41"/>
+        <v>No</v>
+      </c>
+      <c r="X77" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>48</v>
+      </c>
+      <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D76">
-        <f t="shared" si="16"/>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>248</v>
+      </c>
+      <c r="J78" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_rpws]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 7
+     @scienceCap = 7
+     @dataScale = 2
+     @situationMask = 48
+     @biomeMask = 0
+}</v>
+      </c>
+      <c r="K78" s="1" t="str">
+        <f>IF(H78&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[",A78,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H78,CHAR(10),"    }",CHAR(10),"}"),"")</f>
+        <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]
+{
+    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[ca_rpws]]
+    {
+        @xmitDataScalar = 1
+    }
+}</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="31"/>
+        <v>No</v>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="32"/>
+        <v>No</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="33"/>
+        <v>No</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="34"/>
+        <v>No</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="R78" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="S78" t="str">
+        <f t="shared" si="37"/>
+        <v>No</v>
+      </c>
+      <c r="T78" t="str">
+        <f t="shared" si="38"/>
+        <v>No</v>
+      </c>
+      <c r="U78" t="str">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+      <c r="V78" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W78" t="str">
+        <f t="shared" si="41"/>
+        <v>No</v>
+      </c>
+      <c r="X78" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>48</v>
+      </c>
+      <c r="G79">
+        <v>16</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>248</v>
+      </c>
+      <c r="J79" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_orbitalScope]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 6
+     @scienceCap = 6
+     @dataScale = 3
+     @situationMask = 48
+     @biomeMask = 16
+}</v>
+      </c>
+      <c r="K79" s="1" t="str">
+        <f t="shared" ref="K79" si="43">IF(H79&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A79,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H79,CHAR(10),"    }"),"")</f>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[ca_orbitalScope]]
+    {
+        @xmitDataScalar = 1
+    }</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="31"/>
+        <v>No</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="32"/>
+        <v>No</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="33"/>
+        <v>No</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="34"/>
+        <v>No</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="R79" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="S79" t="str">
+        <f t="shared" si="37"/>
+        <v>No</v>
+      </c>
+      <c r="T79" t="str">
+        <f t="shared" si="38"/>
+        <v>No</v>
+      </c>
+      <c r="U79" t="str">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+      <c r="V79" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W79" t="str">
+        <f t="shared" si="41"/>
+        <v>Yes</v>
+      </c>
+      <c r="X79" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>48</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>248</v>
+      </c>
+      <c r="J80" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_mag]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 5
+     @scienceCap = 5
+     @dataScale = 1
+     @situationMask = 48
+     @biomeMask = 1
+}</v>
+      </c>
+      <c r="K80" s="1" t="str">
+        <f>IF(H80&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[",A80,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H80,CHAR(10),"    }",CHAR(10),"}"),"")</f>
+        <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]
+{
+    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[ca_mag]]
+    {
+        @xmitDataScalar = 1
+    }
+}</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="31"/>
+        <v>No</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="32"/>
+        <v>No</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="33"/>
+        <v>No</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="34"/>
+        <v>No</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="R80" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="S80" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="T80" t="str">
+        <f t="shared" si="38"/>
+        <v>No</v>
+      </c>
+      <c r="U80" t="str">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+      <c r="V80" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W80" t="str">
+        <f t="shared" si="41"/>
+        <v>No</v>
+      </c>
+      <c r="X80" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>48</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>248</v>
+      </c>
+      <c r="J81" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_IRspec]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 6
+     @scienceCap = 6
+     @dataScale = 1
+     @situationMask = 48
+     @biomeMask = 1
+}</v>
+      </c>
+      <c r="K81" s="1" t="str">
+        <f t="shared" ref="K81" si="44">IF(H81&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A81,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H81,CHAR(10),"    }"),"")</f>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[ca_IRspec]]
+    {
+        @xmitDataScalar = 1
+    }</v>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" si="31"/>
+        <v>No</v>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="32"/>
+        <v>No</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="33"/>
+        <v>No</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="34"/>
+        <v>No</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="R81" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="S81" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="T81" t="str">
+        <f t="shared" si="38"/>
+        <v>No</v>
+      </c>
+      <c r="U81" t="str">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+      <c r="V81" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W81" t="str">
+        <f t="shared" si="41"/>
+        <v>No</v>
+      </c>
+      <c r="X81" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>24</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>248</v>
+      </c>
+      <c r="J82" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_ionElec]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 5
+     @scienceCap = 5
+     @dataScale = 1
+     @situationMask = 24
+     @biomeMask = 1
+}</v>
+      </c>
+      <c r="K82" s="1" t="str">
+        <f>IF(H82&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[",A82,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H82,CHAR(10),"    }",CHAR(10),"}"),"")</f>
+        <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]
+{
+    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[ca_ionElec]]
+    {
+        @xmitDataScalar = 1
+    }
+}</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="31"/>
+        <v>No</v>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="32"/>
+        <v>No</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="33"/>
+        <v>No</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="34"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="R82" t="str">
+        <f t="shared" si="36"/>
+        <v>No</v>
+      </c>
+      <c r="S82" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="T82" t="str">
+        <f t="shared" si="38"/>
+        <v>No</v>
+      </c>
+      <c r="U82" t="str">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+      <c r="V82" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W82" t="str">
+        <f t="shared" si="41"/>
+        <v>No</v>
+      </c>
+      <c r="X82" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>48</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>248</v>
+      </c>
+      <c r="J83" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_UVspec]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 6
+     @scienceCap = 6
+     @dataScale = 1
+     @situationMask = 48
+     @biomeMask = 1
+}</v>
+      </c>
+      <c r="K83" s="1" t="str">
+        <f t="shared" ref="K83:K85" si="45">IF(H83&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A83,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H83,CHAR(10),"    }"),"")</f>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[ca_UVspec]]
+    {
+        @xmitDataScalar = 1
+    }</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="31"/>
+        <v>No</v>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="32"/>
+        <v>No</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="33"/>
+        <v>No</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="34"/>
+        <v>No</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="R83" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="S83" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="38"/>
+        <v>No</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+      <c r="V83" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W83" t="str">
+        <f t="shared" si="41"/>
+        <v>No</v>
+      </c>
+      <c r="X83" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ref="D84:D116" si="46">C84</f>
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>32</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>248</v>
+      </c>
+      <c r="J84" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_solarWind]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 6
+     @scienceCap = 6
+     @dataScale = 1
+     @situationMask = 32
+     @biomeMask = 1
+}</v>
+      </c>
+      <c r="K84" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[ca_solarWind]]
+    {
+        @xmitDataScalar = 1
+    }</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="31"/>
+        <v>No</v>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="32"/>
+        <v>No</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="33"/>
+        <v>No</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="34"/>
+        <v>No</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" si="35"/>
+        <v>No</v>
+      </c>
+      <c r="R84" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="S84" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="38"/>
+        <v>No</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+      <c r="V84" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W84" t="str">
+        <f t="shared" si="41"/>
+        <v>No</v>
+      </c>
+      <c r="X84" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ref="D85" si="47">C85</f>
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>63</v>
+      </c>
+      <c r="G85">
+        <v>21</v>
+      </c>
+      <c r="H85">
+        <v>0.1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>248</v>
+      </c>
+      <c r="J85" s="1" t="str">
+        <f t="shared" ref="J85" si="48">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A85,"]]:NEEDS[",I85,"]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C85,CHAR(10),"     ","@scienceCap = ",D85,CHAR(10),"     ","@dataScale = ",E85,CHAR(10),"     ","@situationMask = ",F85,CHAR(10),"     ","@biomeMask = ",G85,CHAR(10),"}")</f>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_kdex]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 10
+     @scienceCap = 10
+     @dataScale = 2
+     @situationMask = 63
+     @biomeMask = 21
+}</v>
+      </c>
+      <c r="K85" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[ca_kdex]]
+    {
+        @xmitDataScalar = 0.1
+    }</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" ref="M85" si="49">IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F85,6),1),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" ref="N85" si="50">IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F85,6),2),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" ref="O85" si="51">IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F85,6),3),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" ref="P85" si="52">IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F85,6),4),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" ref="Q85" si="53">IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F85,6),5),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="R85" t="str">
+        <f t="shared" ref="R85" si="54">IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F85,6),6),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="S85" t="str">
+        <f t="shared" ref="S85" si="55">IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G85,6),1),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" ref="T85" si="56">IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G85,6),2),1)*1=1,"Yes","No"),"")</f>
+        <v>No</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" ref="U85" si="57">IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G85,6),3),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="V85" t="str">
+        <f t="shared" ref="V85" si="58">IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G85,6),4),1)*1=1,"Yes","No"),"")</f>
+        <v>No</v>
+      </c>
+      <c r="W85" t="str">
+        <f t="shared" ref="W85" si="59">IF(F85&lt;&gt;"",IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G85,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="X85" t="str">
+        <f t="shared" ref="X85" si="60">IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G85,6),6),1)*1=1,"Yes","No"),"")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="46"/>
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>63</v>
+      </c>
+      <c r="G86">
+        <v>21</v>
+      </c>
+      <c r="H86">
+        <v>0.1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>248</v>
+      </c>
+      <c r="J86" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_kdex]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 10
+     @scienceCap = 10
+     @dataScale = 2
+     @situationMask = 63
+     @biomeMask = 21
+}</v>
+      </c>
+      <c r="K86" s="1" t="str">
+        <f>IF(H86&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[",A86,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H86,CHAR(10),"    }",CHAR(10),"}"),"")</f>
+        <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]
+{
+    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[ca_kdex]]
+    {
+        @xmitDataScalar = 0.1
+    }
+}</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="31"/>
+        <v>Yes</v>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="32"/>
+        <v>Yes</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="33"/>
+        <v>Yes</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="34"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="R86" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="S86" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="38"/>
+        <v>No</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="39"/>
+        <v>Yes</v>
+      </c>
+      <c r="V86" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W86" t="str">
+        <f t="shared" si="41"/>
+        <v>Yes</v>
+      </c>
+      <c r="X86" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="46"/>
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>48</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0.5</v>
+      </c>
+      <c r="I87" t="s">
+        <v>248</v>
+      </c>
+      <c r="J87" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_micrometeoroid]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 6
+     @scienceCap = 6
+     @dataScale = 1
+     @situationMask = 48
+     @biomeMask = 1
+}</v>
+      </c>
+      <c r="K87" s="1" t="str">
+        <f>IF(H87&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[",A87,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H87,CHAR(10),"    }",CHAR(10),"}"),"")</f>
+        <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]
+{
+    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[ca_micrometeoroid]]
+    {
+        @xmitDataScalar = 0.5
+    }
+}</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="31"/>
+        <v>No</v>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="32"/>
+        <v>No</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="33"/>
+        <v>No</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="34"/>
+        <v>No</v>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="R87" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="S87" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="38"/>
+        <v>No</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+      <c r="V87" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W87" t="str">
+        <f t="shared" si="41"/>
+        <v>No</v>
+      </c>
+      <c r="X87" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="46"/>
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>63</v>
+      </c>
+      <c r="G88">
+        <v>23</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>248</v>
+      </c>
+      <c r="J88" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_radsci]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 8
+     @scienceCap = 8
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 23
+}</v>
+      </c>
+      <c r="K88" s="1" t="str">
+        <f>IF(H88&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[",A88,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H88,CHAR(10),"    }",CHAR(10),"}"),"")</f>
+        <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]
+{
+    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[ca_radsci]]
+    {
+        @xmitDataScalar = 1
+    }
+}</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="31"/>
+        <v>Yes</v>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="32"/>
+        <v>Yes</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="33"/>
+        <v>Yes</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="34"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="R88" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="S88" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="38"/>
+        <v>Yes</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="39"/>
+        <v>Yes</v>
+      </c>
+      <c r="V88" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W88" t="str">
+        <f t="shared" si="41"/>
+        <v>Yes</v>
+      </c>
+      <c r="X88" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="46"/>
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>63</v>
+      </c>
+      <c r="G89">
+        <v>23</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>248</v>
+      </c>
+      <c r="J89" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_filmCamera]]:NEEDS[CoatlAerospace]:FOR[zKiwiAerospace]
+{
+     @baseValue = 7
+     @scienceCap = 7
+     @dataScale = 1
+     @situationMask = 63
+     @biomeMask = 23
+}</v>
+      </c>
+      <c r="K89" s="1" t="str">
+        <f>IF(H89&lt;&gt;"",_xlfn.CONCAT("@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]",CHAR(10),"{",CHAR(10),"    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[",A89,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H89,CHAR(10),"    }",CHAR(10),"}"),"")</f>
+        <v>@PART[*]:HAS[@MODULE[DMModuleScienceAnimateGeneric]]
+{
+    @MODULE[DMModuleScienceAnimateGeneric]:HAS[#experimentID[ca_filmCamera]]
+    {
+        @xmitDataScalar = 1
+    }
+}</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="31"/>
+        <v>Yes</v>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="32"/>
+        <v>Yes</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="33"/>
+        <v>Yes</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="34"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="R89" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="S89" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="38"/>
+        <v>Yes</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="39"/>
+        <v>Yes</v>
+      </c>
+      <c r="V89" t="str">
+        <f t="shared" si="40"/>
+        <v>No</v>
+      </c>
+      <c r="W89" t="str">
+        <f t="shared" si="41"/>
+        <v>Yes</v>
+      </c>
+      <c r="X89" t="str">
+        <f t="shared" si="42"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D90">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D77">
-        <f t="shared" si="16"/>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D91">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D78">
-        <f t="shared" si="16"/>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D92">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D79">
-        <f t="shared" si="16"/>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D93">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D80">
-        <f t="shared" si="16"/>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D94">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D81">
-        <f t="shared" si="16"/>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D95">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D82">
-        <f t="shared" si="16"/>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D96">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D83">
-        <f t="shared" si="16"/>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D97">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D84">
-        <f t="shared" si="16"/>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D98">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D85">
-        <f t="shared" si="16"/>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D99">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D86">
-        <f t="shared" si="16"/>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D100">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D87">
-        <f t="shared" si="16"/>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D101">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D88">
-        <f t="shared" si="16"/>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D102">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D89">
-        <f t="shared" si="16"/>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D103">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D90">
-        <f t="shared" si="16"/>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D104">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D91">
-        <f t="shared" si="16"/>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D105">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D92">
-        <f t="shared" si="16"/>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D106">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D93">
-        <f t="shared" si="16"/>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D107">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D94">
-        <f t="shared" si="16"/>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D108">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D95">
-        <f t="shared" si="16"/>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D109">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D96">
-        <f t="shared" si="16"/>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D110">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D97">
-        <f t="shared" si="16"/>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D111">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D98">
-        <f t="shared" si="16"/>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D112">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D99">
-        <f t="shared" si="16"/>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D113">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D100">
-        <f t="shared" si="16"/>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D101">
-        <f t="shared" si="16"/>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D115">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D102">
-        <f t="shared" si="16"/>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D116">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D103">
-        <f t="shared" si="16"/>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D117">
+        <f t="shared" ref="D117:D135" si="61">C117</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D104">
-        <f t="shared" si="16"/>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D118">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D105">
-        <f t="shared" si="16"/>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D119">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D106">
-        <f t="shared" si="16"/>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D120">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D107">
-        <f t="shared" si="16"/>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D121">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D108">
-        <f t="shared" si="16"/>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D122">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D109">
-        <f t="shared" si="16"/>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D123">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D110">
-        <f t="shared" si="16"/>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D124">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D111">
-        <f t="shared" si="16"/>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D125">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D112">
-        <f t="shared" si="16"/>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D126">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D113">
-        <f t="shared" si="16"/>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D127">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D114">
-        <f t="shared" si="16"/>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D128">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D115">
-        <f t="shared" si="16"/>
+    <row r="129" spans="4:24" x14ac:dyDescent="0.35">
+      <c r="D129">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D116">
-        <f t="shared" ref="D116:D134" si="31">C116</f>
+    <row r="130" spans="4:24" x14ac:dyDescent="0.35">
+      <c r="D130">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D117">
-        <f t="shared" si="31"/>
+    <row r="131" spans="4:24" x14ac:dyDescent="0.35">
+      <c r="D131">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D118">
-        <f t="shared" si="31"/>
+    <row r="132" spans="4:24" x14ac:dyDescent="0.35">
+      <c r="D132">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D119">
-        <f t="shared" si="31"/>
+    <row r="133" spans="4:24" x14ac:dyDescent="0.35">
+      <c r="D133">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D120">
-        <f t="shared" si="31"/>
+    <row r="134" spans="4:24" x14ac:dyDescent="0.35">
+      <c r="D134">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D121">
-        <f t="shared" si="31"/>
+    <row r="135" spans="4:24" x14ac:dyDescent="0.35">
+      <c r="D135">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D122">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D123">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D124">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D125">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D126">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D127">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D128">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D129">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D130">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D131">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D132">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D133">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D134">
-        <f t="shared" si="31"/>
-        <v>0</v>
+    <row r="136" spans="4:24" x14ac:dyDescent="0.35">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="M136" t="str">
+        <f>IF(F136&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F136,6),1),1)*1=1,"Yes","No"),"")</f>
+        <v/>
+      </c>
+      <c r="N136" t="str">
+        <f>IF(F136&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F136,6),2),1)*1=1,"Yes","No"),"")</f>
+        <v/>
+      </c>
+      <c r="O136" t="str">
+        <f>IF(F136&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F136,6),3),1)*1=1,"Yes","No"),"")</f>
+        <v/>
+      </c>
+      <c r="P136" t="str">
+        <f>IF(F136&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F136,6),4),1)*1=1,"Yes","No"),"")</f>
+        <v/>
+      </c>
+      <c r="Q136" t="str">
+        <f>IF(F136&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F136,6),5),1)*1=1,"Yes","No"),"")</f>
+        <v/>
+      </c>
+      <c r="R136" t="str">
+        <f>IF(F136&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F136,6),6),1)*1=1,"Yes","No"),"")</f>
+        <v/>
+      </c>
+      <c r="S136" t="str">
+        <f>IF(F136&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G136,6),1),1)*1=1,"Yes","No"),"")</f>
+        <v/>
+      </c>
+      <c r="T136" t="str">
+        <f>IF(F136&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G136,6),2),1)*1=1,"Yes","No"),"")</f>
+        <v/>
+      </c>
+      <c r="U136" t="str">
+        <f>IF(F136&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G136,6),3),1)*1=1,"Yes","No"),"")</f>
+        <v/>
+      </c>
+      <c r="V136" t="str">
+        <f>IF(F136&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G136,6),4),1)*1=1,"Yes","No"),"")</f>
+        <v/>
+      </c>
+      <c r="W136" t="str">
+        <f>IF(F136&lt;&gt;"",IF(F136&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G136,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <v/>
+      </c>
+      <c r="X136" t="str">
+        <f>IF(F136&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G136,6),6),1)*1=1,"Yes","No"),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:X134" xr:uid="{DC272CDC-2662-48AE-B083-BF6EA09AAB33}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Knes"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:X46">
-      <sortCondition ref="H2:H46"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A2:X136" xr:uid="{DC272CDC-2662-48AE-B083-BF6EA09AAB33}"/>
   <mergeCells count="2">
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="S1:X1"/>
@@ -11649,8 +13077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F6E689-7182-4BC0-80F9-0B8DE28A1A46}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>

--- a/Source/Science.xlsx
+++ b/Source/Science.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BB84BE-CAF4-402E-94A3-F3CED1D1C488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15313422-9CFD-4C82-A11C-F03434D4430A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="266">
   <si>
     <t>Experiment</t>
   </si>
@@ -832,6 +832,18 @@
   <si>
     <t>ca_filmCamera</t>
   </si>
+  <si>
+    <t>tantares_radiometer_scan</t>
+  </si>
+  <si>
+    <t>Tantares</t>
+  </si>
+  <si>
+    <t>tantares_x_ray_scan</t>
+  </si>
+  <si>
+    <t>tantares_multispectral_scan</t>
+  </si>
 </sst>
 </file>
 
@@ -4469,11 +4481,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE4B740-F49F-4D2C-983E-E732DD03A212}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:J87"/>
+      <selection pane="bottomRight" activeCell="J90" sqref="J88:J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4726,51 +4738,51 @@
 }</v>
       </c>
       <c r="L5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="L5:L36" si="2">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="M5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="M5:M36" si="3">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="N5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="N5:N36" si="4">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="O5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="O5:O36" si="5">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="P5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="P5:P36" si="6">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),5),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="Q5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="Q5:Q36" si="7">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F5,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="R5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="R5:R36" si="8">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="S5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="S5:S36" si="9">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="T5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="T5:T36" si="10">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="U5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="U5:U36" si="11">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="V5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" ref="V5:V36" si="12">IF(F5&lt;&gt;"",IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),5),1)*1=1,"Yes","No"),""),"")</f>
         <v>No</v>
       </c>
       <c r="W5" t="str">
-        <f>IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="W5:W36" si="13">IF(F5&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G5,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
     </row>
@@ -4815,51 +4827,51 @@
 }</v>
       </c>
       <c r="L6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F6,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F6,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F6,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F6,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F6,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="Q6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F6,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G6,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G6,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G6,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G6,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G6,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W6" t="str">
-        <f>IF(F6&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G6,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -4904,51 +4916,51 @@
 }</v>
       </c>
       <c r="L7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F7,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F7,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F7,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F7,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F7,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F7,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G7,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G7,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G7,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G7,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G7,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W7" t="str">
-        <f>IF(F7&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G7,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -4993,51 +5005,51 @@
 }</v>
       </c>
       <c r="L8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F8,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F8,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="N8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F8,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F8,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F8,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="Q8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F8,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G8,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G8,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="T8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G8,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G8,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G8,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W8" t="str">
-        <f>IF(F8&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G8,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5082,51 +5094,51 @@
 }</v>
       </c>
       <c r="L9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F9,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F9,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F9,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F9,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F9,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F9,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G9,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G9,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G9,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G9,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G9,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W9" t="str">
-        <f>IF(F9&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G9,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5171,51 +5183,51 @@
 }</v>
       </c>
       <c r="L10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F10,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F10,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F10,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F10,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F10,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F10,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G10,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G10,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G10,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G10,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G10,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W10" t="str">
-        <f>IF(F10&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G10,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5260,51 +5272,51 @@
 }</v>
       </c>
       <c r="L11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F11,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F11,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="N11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F11,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F11,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F11,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="Q11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F11,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G11,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G11,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G11,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G11,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G11,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W11" t="str">
-        <f>IF(F11&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G11,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5349,51 +5361,51 @@
 }</v>
       </c>
       <c r="L12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F12,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F12,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F12,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F12,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F12,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F12,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G12,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G12,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G12,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G12,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G12,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W12" t="str">
-        <f>IF(F12&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G12,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5438,51 +5450,51 @@
 }</v>
       </c>
       <c r="L13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F13,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F13,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F13,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F13,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F13,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F13,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G13,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G13,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G13,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G13,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G13,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W13" t="str">
-        <f>IF(F13&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G13,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5527,51 +5539,51 @@
 }</v>
       </c>
       <c r="L14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F14,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F14,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="N14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F14,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="O14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F14,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="P14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F14,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F14,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G14,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G14,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="T14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G14,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="U14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G14,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G14,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="W14" t="str">
-        <f>IF(F14&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G14,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5616,51 +5628,51 @@
 }</v>
       </c>
       <c r="L15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F15,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F15,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="N15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F15,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F15,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="P15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F15,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F15,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G15,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G15,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="T15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G15,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G15,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G15,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W15" t="str">
-        <f>IF(F15&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G15,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5705,51 +5717,51 @@
 }</v>
       </c>
       <c r="L16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F16,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F16,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="N16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F16,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="O16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F16,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="P16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F16,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F16,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G16,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G16,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="T16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G16,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="U16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G16,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G16,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W16" t="str">
-        <f>IF(F16&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G16,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5794,51 +5806,51 @@
 }</v>
       </c>
       <c r="L17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F17,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F17,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="N17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F17,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="O17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F17,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="P17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F17,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F17,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G17,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G17,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="T17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G17,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G17,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G17,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W17" t="str">
-        <f>IF(F17&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G17,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5883,51 +5895,51 @@
 }</v>
       </c>
       <c r="L18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F18,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F18,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F18,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F18,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F18,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="Q18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F18,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G18,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G18,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G18,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G18,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G18,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W18" t="str">
-        <f>IF(F18&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G18,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -5972,51 +5984,51 @@
 }</v>
       </c>
       <c r="L19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F19,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F19,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="N19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F19,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F19,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F19,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F19,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G19,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G19,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="T19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G19,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G19,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G19,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="W19" t="str">
-        <f>IF(F19&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G19,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6061,51 +6073,51 @@
 }</v>
       </c>
       <c r="L20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F20,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F20,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="N20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F20,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F20,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F20,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F20,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G20,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G20,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G20,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G20,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G20,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W20" t="str">
-        <f>IF(F20&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G20,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -6150,51 +6162,51 @@
 }</v>
       </c>
       <c r="L21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F21,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F21,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="N21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F21,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F21,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F21,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F21,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G21,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G21,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="T21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G21,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G21,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G21,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="W21" t="str">
-        <f>IF(F21&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G21,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6239,51 +6251,51 @@
 }</v>
       </c>
       <c r="L22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F22,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F22,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F22,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="O22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F22,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="P22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F22,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="Q22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F22,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G22,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G22,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G22,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="U22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G22,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
       <c r="V22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G22,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W22" t="str">
-        <f>IF(F22&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G22,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -6328,51 +6340,51 @@
 }</v>
       </c>
       <c r="L23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F23,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F23,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F23,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F23,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F23,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F23,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G23,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G23,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G23,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G23,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G23,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W23" t="str">
-        <f>IF(F23&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G23,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -6417,51 +6429,51 @@
 }</v>
       </c>
       <c r="L24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F24,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F24,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="N24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F24,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="O24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F24,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="P24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F24,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F24,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G24,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G24,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="T24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G24,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="U24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G24,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
       <c r="V24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G24,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="W24" t="str">
-        <f>IF(F24&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G24,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6506,51 +6518,51 @@
 }</v>
       </c>
       <c r="L25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F25,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F25,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F25,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F25,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F25,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F25,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G25,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G25,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G25,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G25,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G25,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="W25" t="str">
-        <f>IF(F25&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G25,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -6595,51 +6607,51 @@
 }</v>
       </c>
       <c r="L26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F26,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F26,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="N26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F26,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F26,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F26,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="Q26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F26,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G26,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G26,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="T26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G26,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G26,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G26,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W26" t="str">
-        <f>IF(F26&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G26,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -6684,51 +6696,51 @@
 }</v>
       </c>
       <c r="L27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F27,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F27,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F27,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F27,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F27,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="Q27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F27,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G27,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G27,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G27,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G27,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G27,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W27" t="str">
-        <f>IF(F27&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G27,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -6773,51 +6785,51 @@
 }</v>
       </c>
       <c r="L28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F28,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F28,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F28,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F28,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F28,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="Q28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F28,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G28,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G28,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G28,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G28,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G28,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W28" t="str">
-        <f>IF(F28&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G28,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -6862,51 +6874,51 @@
 }</v>
       </c>
       <c r="L29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F29,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F29,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F29,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F29,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F29,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F29,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="R29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G29,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G29,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G29,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G29,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G29,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="W29" t="str">
-        <f>IF(F29&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G29,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -6951,51 +6963,51 @@
 }</v>
       </c>
       <c r="L30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F30,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F30,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F30,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F30,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F30,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="Q30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F30,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G30,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G30,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G30,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G30,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G30,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W30" t="str">
-        <f>IF(F30&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G30,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -7040,51 +7052,51 @@
 }</v>
       </c>
       <c r="L31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F31,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F31,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F31,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F31,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F31,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F31,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G31,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G31,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G31,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G31,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G31,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W31" t="str">
-        <f>IF(F31&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G31,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -7129,51 +7141,51 @@
 }</v>
       </c>
       <c r="L32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F32,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F32,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F32,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F32,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F32,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="Q32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F32,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G32,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G32,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G32,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G32,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G32,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W32" t="str">
-        <f>IF(F32&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G32,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -7218,51 +7230,51 @@
 }</v>
       </c>
       <c r="L33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F33,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="M33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F33,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F33,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F33,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F33,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="Q33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F33,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G33,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="S33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G33,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G33,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G33,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G33,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W33" t="str">
-        <f>IF(F33&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G33,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -7307,51 +7319,51 @@
 }</v>
       </c>
       <c r="L34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F34,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F34,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F34,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F34,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F34,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F34,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G34,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G34,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G34,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G34,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G34,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W34" t="str">
-        <f>IF(F34&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G34,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -7396,51 +7408,51 @@
 }</v>
       </c>
       <c r="L35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F35,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F35,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F35,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F35,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F35,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="Q35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F35,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G35,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G35,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G35,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G35,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G35,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W35" t="str">
-        <f>IF(F35&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G35,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -7482,51 +7494,51 @@
 }</v>
       </c>
       <c r="L36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F36,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="M36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F36,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="N36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F36,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="O36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F36,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="P36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F36,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="Q36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F36,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="R36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G36,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="S36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G36,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="T36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G36,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="U36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G36,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
       <c r="V36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G36,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="W36" t="str">
-        <f>IF(F36&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G36,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="13"/>
         <v>No</v>
       </c>
     </row>
@@ -7568,51 +7580,51 @@
 }</v>
       </c>
       <c r="L37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="L37:L68" si="14">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="M37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="M37:M68" si="15">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="N37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="N37:N68" si="16">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="O37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="O37:O68" si="17">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="P37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="P37:P68" si="18">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),5),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="Q37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="Q37:Q68" si="19">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F37,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="R37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="R37:R68" si="20">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="S37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="S37:S68" si="21">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="T37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="T37:T68" si="22">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="U37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="U37:U68" si="23">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="V37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" ref="V37:V68" si="24">IF(F37&lt;&gt;"",IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),5),1)*1=1,"Yes","No"),""),"")</f>
         <v>No</v>
       </c>
       <c r="W37" t="str">
-        <f>IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="W37:W68" si="25">IF(F37&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G37,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
     </row>
@@ -7654,51 +7666,51 @@
 }</v>
       </c>
       <c r="L38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F38,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="M38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F38,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
       <c r="N38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F38,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>No</v>
       </c>
       <c r="O38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F38,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="P38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F38,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>No</v>
       </c>
       <c r="Q38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F38,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="R38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G38,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G38,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G38,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G38,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G38,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W38" t="str">
-        <f>IF(F38&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G38,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -7740,51 +7752,51 @@
 }</v>
       </c>
       <c r="L39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F39,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="M39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F39,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
       <c r="N39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F39,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>No</v>
       </c>
       <c r="O39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F39,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="P39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F39,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>No</v>
       </c>
       <c r="Q39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F39,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="R39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G39,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G39,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G39,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G39,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G39,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W39" t="str">
-        <f>IF(F39&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G39,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -7826,51 +7838,51 @@
 }</v>
       </c>
       <c r="L40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F40,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="M40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F40,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
       <c r="N40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F40,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>No</v>
       </c>
       <c r="O40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F40,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="P40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F40,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>No</v>
       </c>
       <c r="Q40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F40,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="R40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G40,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G40,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G40,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G40,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G40,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W40" t="str">
-        <f>IF(F40&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G40,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -7912,51 +7924,51 @@
 }</v>
       </c>
       <c r="L41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F41,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F41,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F41,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>No</v>
       </c>
       <c r="O41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F41,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="P41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F41,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>No</v>
       </c>
       <c r="Q41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F41,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="R41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G41,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="S41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G41,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="T41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G41,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G41,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G41,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W41" t="str">
-        <f>IF(F41&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G41,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -7998,51 +8010,51 @@
 }</v>
       </c>
       <c r="L42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F42,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F42,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F42,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F42,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F42,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F42,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G42,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="S42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G42,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="T42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G42,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="U42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G42,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G42,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W42" t="str">
-        <f>IF(F42&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G42,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -8081,51 +8093,51 @@
 }</v>
       </c>
       <c r="L43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F43,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="M43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F43,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
       <c r="N43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F43,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>No</v>
       </c>
       <c r="O43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F43,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="P43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F43,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>No</v>
       </c>
       <c r="Q43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F43,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="R43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G43,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G43,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G43,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G43,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G43,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W43" t="str">
-        <f>IF(F43&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G43,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -8164,51 +8176,51 @@
 }</v>
       </c>
       <c r="L44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F44,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>No</v>
       </c>
       <c r="M44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F44,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>No</v>
       </c>
       <c r="N44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F44,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>No</v>
       </c>
       <c r="O44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F44,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="P44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F44,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>No</v>
       </c>
       <c r="Q44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F44,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>No</v>
       </c>
       <c r="R44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G44,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G44,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G44,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G44,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G44,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W44" t="str">
-        <f>IF(F44&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G44,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -8250,51 +8262,51 @@
 }</v>
       </c>
       <c r="L45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F45,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F45,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F45,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F45,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F45,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F45,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G45,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="S45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G45,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="T45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G45,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G45,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G45,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W45" t="str">
-        <f>IF(F45&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G45,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -8336,51 +8348,51 @@
 }</v>
       </c>
       <c r="L46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F46,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F46,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F46,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F46,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F46,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F46,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G46,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="S46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G46,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="T46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G46,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="U46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G46,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G46,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W46" t="str">
-        <f>IF(F46&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G46,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -8422,51 +8434,51 @@
 }</v>
       </c>
       <c r="L47" t="str">
-        <f>IF(F47&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F47,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M47" t="str">
-        <f>IF(F47&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F47,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N47" t="str">
-        <f>IF(F47&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F47,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O47" t="str">
-        <f>IF(F47&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F47,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P47" t="str">
-        <f>IF(F47&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F47,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q47" t="str">
-        <f>IF(F47&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F47,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R47" t="str">
-        <f>IF(F47&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G47,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="S47" t="str">
-        <f>IF(F47&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G47,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="T47" t="str">
-        <f>IF(F47&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G47,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="U47" t="str">
-        <f>IF(F47&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G47,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V47" t="str">
-        <f>IF(F47&lt;&gt;"",IF(F47&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G47,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W47" t="str">
-        <f>IF(F47&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G47,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -8508,51 +8520,51 @@
 }</v>
       </c>
       <c r="L48" t="str">
-        <f>IF(F48&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F48,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M48" t="str">
-        <f>IF(F48&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F48,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N48" t="str">
-        <f>IF(F48&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F48,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O48" t="str">
-        <f>IF(F48&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F48,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P48" t="str">
-        <f>IF(F48&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F48,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q48" t="str">
-        <f>IF(F48&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F48,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R48" t="str">
-        <f>IF(F48&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G48,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="S48" t="str">
-        <f>IF(F48&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G48,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="T48" t="str">
-        <f>IF(F48&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G48,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="U48" t="str">
-        <f>IF(F48&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G48,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V48" t="str">
-        <f>IF(F48&lt;&gt;"",IF(F48&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G48,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W48" t="str">
-        <f>IF(F48&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G48,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -8594,51 +8606,51 @@
 }</v>
       </c>
       <c r="L49" t="str">
-        <f>IF(F49&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F49,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M49" t="str">
-        <f>IF(F49&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F49,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N49" t="str">
-        <f>IF(F49&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F49,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O49" t="str">
-        <f>IF(F49&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F49,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P49" t="str">
-        <f>IF(F49&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F49,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q49" t="str">
-        <f>IF(F49&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F49,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R49" t="str">
-        <f>IF(F49&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G49,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="S49" t="str">
-        <f>IF(F49&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G49,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="T49" t="str">
-        <f>IF(F49&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G49,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="U49" t="str">
-        <f>IF(F49&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G49,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V49" t="str">
-        <f>IF(F49&lt;&gt;"",IF(F49&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G49,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W49" t="str">
-        <f>IF(F49&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G49,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -8680,51 +8692,51 @@
 }</v>
       </c>
       <c r="L50" t="str">
-        <f>IF(F50&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F50,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M50" t="str">
-        <f>IF(F50&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F50,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N50" t="str">
-        <f>IF(F50&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F50,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O50" t="str">
-        <f>IF(F50&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F50,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P50" t="str">
-        <f>IF(F50&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F50,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q50" t="str">
-        <f>IF(F50&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F50,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R50" t="str">
-        <f>IF(F50&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G50,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="S50" t="str">
-        <f>IF(F50&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G50,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="T50" t="str">
-        <f>IF(F50&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G50,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="U50" t="str">
-        <f>IF(F50&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G50,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V50" t="str">
-        <f>IF(F50&lt;&gt;"",IF(F50&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G50,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W50" t="str">
-        <f>IF(F50&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G50,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -8766,51 +8778,51 @@
 }</v>
       </c>
       <c r="L51" t="str">
-        <f>IF(F51&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F51,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M51" t="str">
-        <f>IF(F51&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F51,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N51" t="str">
-        <f>IF(F51&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F51,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O51" t="str">
-        <f>IF(F51&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F51,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P51" t="str">
-        <f>IF(F51&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F51,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q51" t="str">
-        <f>IF(F51&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F51,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R51" t="str">
-        <f>IF(F51&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G51,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S51" t="str">
-        <f>IF(F51&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G51,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T51" t="str">
-        <f>IF(F51&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G51,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U51" t="str">
-        <f>IF(F51&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G51,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V51" t="str">
-        <f>IF(F51&lt;&gt;"",IF(F51&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G51,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W51" t="str">
-        <f>IF(F51&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G51,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -8852,51 +8864,51 @@
 }</v>
       </c>
       <c r="L52" t="str">
-        <f>IF(F52&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F52,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M52" t="str">
-        <f>IF(F52&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F52,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N52" t="str">
-        <f>IF(F52&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F52,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O52" t="str">
-        <f>IF(F52&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F52,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P52" t="str">
-        <f>IF(F52&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F52,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q52" t="str">
-        <f>IF(F52&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F52,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R52" t="str">
-        <f>IF(F52&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G52,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S52" t="str">
-        <f>IF(F52&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G52,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T52" t="str">
-        <f>IF(F52&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G52,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U52" t="str">
-        <f>IF(F52&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G52,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V52" t="str">
-        <f>IF(F52&lt;&gt;"",IF(F52&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G52,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W52" t="str">
-        <f>IF(F52&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G52,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -8938,51 +8950,51 @@
 }</v>
       </c>
       <c r="L53" t="str">
-        <f>IF(F53&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F53,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M53" t="str">
-        <f>IF(F53&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F53,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N53" t="str">
-        <f>IF(F53&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F53,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O53" t="str">
-        <f>IF(F53&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F53,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P53" t="str">
-        <f>IF(F53&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F53,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q53" t="str">
-        <f>IF(F53&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F53,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R53" t="str">
-        <f>IF(F53&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G53,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S53" t="str">
-        <f>IF(F53&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G53,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T53" t="str">
-        <f>IF(F53&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G53,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U53" t="str">
-        <f>IF(F53&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G53,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V53" t="str">
-        <f>IF(F53&lt;&gt;"",IF(F53&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G53,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W53" t="str">
-        <f>IF(F53&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G53,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -9024,51 +9036,51 @@
 }</v>
       </c>
       <c r="L54" t="str">
-        <f>IF(F54&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F54,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M54" t="str">
-        <f>IF(F54&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F54,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N54" t="str">
-        <f>IF(F54&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F54,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O54" t="str">
-        <f>IF(F54&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F54,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P54" t="str">
-        <f>IF(F54&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F54,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q54" t="str">
-        <f>IF(F54&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F54,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R54" t="str">
-        <f>IF(F54&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G54,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S54" t="str">
-        <f>IF(F54&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G54,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T54" t="str">
-        <f>IF(F54&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G54,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U54" t="str">
-        <f>IF(F54&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G54,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V54" t="str">
-        <f>IF(F54&lt;&gt;"",IF(F54&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G54,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W54" t="str">
-        <f>IF(F54&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G54,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -9110,51 +9122,51 @@
 }</v>
       </c>
       <c r="L55" t="str">
-        <f>IF(F55&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F55,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M55" t="str">
-        <f>IF(F55&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F55,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N55" t="str">
-        <f>IF(F55&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F55,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O55" t="str">
-        <f>IF(F55&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F55,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P55" t="str">
-        <f>IF(F55&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F55,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q55" t="str">
-        <f>IF(F55&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F55,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R55" t="str">
-        <f>IF(F55&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G55,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S55" t="str">
-        <f>IF(F55&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G55,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T55" t="str">
-        <f>IF(F55&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G55,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U55" t="str">
-        <f>IF(F55&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G55,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V55" t="str">
-        <f>IF(F55&lt;&gt;"",IF(F55&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G55,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W55" t="str">
-        <f>IF(F55&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G55,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -9196,51 +9208,51 @@
 }</v>
       </c>
       <c r="L56" t="str">
-        <f>IF(F56&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F56,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M56" t="str">
-        <f>IF(F56&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F56,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N56" t="str">
-        <f>IF(F56&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F56,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O56" t="str">
-        <f>IF(F56&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F56,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P56" t="str">
-        <f>IF(F56&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F56,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q56" t="str">
-        <f>IF(F56&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F56,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R56" t="str">
-        <f>IF(F56&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G56,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S56" t="str">
-        <f>IF(F56&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G56,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T56" t="str">
-        <f>IF(F56&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G56,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U56" t="str">
-        <f>IF(F56&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G56,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V56" t="str">
-        <f>IF(F56&lt;&gt;"",IF(F56&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G56,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W56" t="str">
-        <f>IF(F56&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G56,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -9282,51 +9294,51 @@
 }</v>
       </c>
       <c r="L57" t="str">
-        <f>IF(F57&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F57,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M57" t="str">
-        <f>IF(F57&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F57,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N57" t="str">
-        <f>IF(F57&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F57,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O57" t="str">
-        <f>IF(F57&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F57,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P57" t="str">
-        <f>IF(F57&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F57,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q57" t="str">
-        <f>IF(F57&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F57,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R57" t="str">
-        <f>IF(F57&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G57,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S57" t="str">
-        <f>IF(F57&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G57,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T57" t="str">
-        <f>IF(F57&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G57,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U57" t="str">
-        <f>IF(F57&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G57,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V57" t="str">
-        <f>IF(F57&lt;&gt;"",IF(F57&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G57,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W57" t="str">
-        <f>IF(F57&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G57,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -9368,51 +9380,51 @@
 }</v>
       </c>
       <c r="L58" t="str">
-        <f>IF(F58&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F58,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M58" t="str">
-        <f>IF(F58&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F58,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N58" t="str">
-        <f>IF(F58&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F58,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O58" t="str">
-        <f>IF(F58&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F58,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P58" t="str">
-        <f>IF(F58&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F58,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q58" t="str">
-        <f>IF(F58&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F58,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R58" t="str">
-        <f>IF(F58&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G58,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S58" t="str">
-        <f>IF(F58&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G58,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T58" t="str">
-        <f>IF(F58&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G58,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U58" t="str">
-        <f>IF(F58&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G58,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V58" t="str">
-        <f>IF(F58&lt;&gt;"",IF(F58&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G58,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W58" t="str">
-        <f>IF(F58&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G58,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -9454,51 +9466,51 @@
 }</v>
       </c>
       <c r="L59" t="str">
-        <f>IF(F59&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F59,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M59" t="str">
-        <f>IF(F59&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F59,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N59" t="str">
-        <f>IF(F59&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F59,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O59" t="str">
-        <f>IF(F59&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F59,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P59" t="str">
-        <f>IF(F59&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F59,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q59" t="str">
-        <f>IF(F59&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F59,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R59" t="str">
-        <f>IF(F59&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G59,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S59" t="str">
-        <f>IF(F59&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G59,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T59" t="str">
-        <f>IF(F59&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G59,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U59" t="str">
-        <f>IF(F59&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G59,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V59" t="str">
-        <f>IF(F59&lt;&gt;"",IF(F59&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G59,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W59" t="str">
-        <f>IF(F59&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G59,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -9540,51 +9552,51 @@
 }</v>
       </c>
       <c r="L60" t="str">
-        <f>IF(F60&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F60,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M60" t="str">
-        <f>IF(F60&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F60,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N60" t="str">
-        <f>IF(F60&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F60,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O60" t="str">
-        <f>IF(F60&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F60,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P60" t="str">
-        <f>IF(F60&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F60,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q60" t="str">
-        <f>IF(F60&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F60,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R60" t="str">
-        <f>IF(F60&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G60,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S60" t="str">
-        <f>IF(F60&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G60,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T60" t="str">
-        <f>IF(F60&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G60,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U60" t="str">
-        <f>IF(F60&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G60,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V60" t="str">
-        <f>IF(F60&lt;&gt;"",IF(F60&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G60,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W60" t="str">
-        <f>IF(F60&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G60,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -9626,51 +9638,51 @@
 }</v>
       </c>
       <c r="L61" t="str">
-        <f>IF(F61&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F61,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M61" t="str">
-        <f>IF(F61&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F61,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N61" t="str">
-        <f>IF(F61&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F61,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O61" t="str">
-        <f>IF(F61&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F61,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P61" t="str">
-        <f>IF(F61&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F61,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q61" t="str">
-        <f>IF(F61&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F61,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R61" t="str">
-        <f>IF(F61&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G61,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S61" t="str">
-        <f>IF(F61&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G61,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T61" t="str">
-        <f>IF(F61&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G61,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U61" t="str">
-        <f>IF(F61&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G61,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V61" t="str">
-        <f>IF(F61&lt;&gt;"",IF(F61&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G61,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W61" t="str">
-        <f>IF(F61&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G61,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -9712,51 +9724,51 @@
 }</v>
       </c>
       <c r="L62" t="str">
-        <f>IF(F62&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F62,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M62" t="str">
-        <f>IF(F62&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F62,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N62" t="str">
-        <f>IF(F62&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F62,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O62" t="str">
-        <f>IF(F62&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F62,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P62" t="str">
-        <f>IF(F62&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F62,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q62" t="str">
-        <f>IF(F62&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F62,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R62" t="str">
-        <f>IF(F62&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G62,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S62" t="str">
-        <f>IF(F62&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G62,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T62" t="str">
-        <f>IF(F62&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G62,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U62" t="str">
-        <f>IF(F62&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G62,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V62" t="str">
-        <f>IF(F62&lt;&gt;"",IF(F62&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G62,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W62" t="str">
-        <f>IF(F62&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G62,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -9798,51 +9810,51 @@
 }</v>
       </c>
       <c r="L63" t="str">
-        <f>IF(F63&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F63,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M63" t="str">
-        <f>IF(F63&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F63,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N63" t="str">
-        <f>IF(F63&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F63,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O63" t="str">
-        <f>IF(F63&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F63,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P63" t="str">
-        <f>IF(F63&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F63,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q63" t="str">
-        <f>IF(F63&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F63,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R63" t="str">
-        <f>IF(F63&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G63,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S63" t="str">
-        <f>IF(F63&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G63,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T63" t="str">
-        <f>IF(F63&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G63,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U63" t="str">
-        <f>IF(F63&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G63,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V63" t="str">
-        <f>IF(F63&lt;&gt;"",IF(F63&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G63,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W63" t="str">
-        <f>IF(F63&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G63,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -9884,51 +9896,51 @@
 }</v>
       </c>
       <c r="L64" t="str">
-        <f>IF(F64&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F64,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M64" t="str">
-        <f>IF(F64&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F64,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N64" t="str">
-        <f>IF(F64&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F64,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O64" t="str">
-        <f>IF(F64&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F64,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P64" t="str">
-        <f>IF(F64&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F64,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q64" t="str">
-        <f>IF(F64&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F64,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R64" t="str">
-        <f>IF(F64&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G64,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S64" t="str">
-        <f>IF(F64&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G64,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T64" t="str">
-        <f>IF(F64&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G64,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U64" t="str">
-        <f>IF(F64&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G64,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V64" t="str">
-        <f>IF(F64&lt;&gt;"",IF(F64&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G64,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W64" t="str">
-        <f>IF(F64&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G64,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -9970,51 +9982,51 @@
 }</v>
       </c>
       <c r="L65" t="str">
-        <f>IF(F65&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F65,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M65" t="str">
-        <f>IF(F65&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F65,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N65" t="str">
-        <f>IF(F65&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F65,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>No</v>
       </c>
       <c r="O65" t="str">
-        <f>IF(F65&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F65,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="P65" t="str">
-        <f>IF(F65&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F65,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q65" t="str">
-        <f>IF(F65&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F65,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R65" t="str">
-        <f>IF(F65&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G65,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S65" t="str">
-        <f>IF(F65&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G65,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T65" t="str">
-        <f>IF(F65&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G65,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U65" t="str">
-        <f>IF(F65&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G65,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V65" t="str">
-        <f>IF(F65&lt;&gt;"",IF(F65&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G65,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W65" t="str">
-        <f>IF(F65&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G65,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -10056,51 +10068,51 @@
 }</v>
       </c>
       <c r="L66" t="str">
-        <f>IF(F66&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F66,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M66" t="str">
-        <f>IF(F66&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F66,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N66" t="str">
-        <f>IF(F66&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F66,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>No</v>
       </c>
       <c r="O66" t="str">
-        <f>IF(F66&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F66,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="P66" t="str">
-        <f>IF(F66&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F66,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q66" t="str">
-        <f>IF(F66&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F66,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R66" t="str">
-        <f>IF(F66&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G66,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>No</v>
       </c>
       <c r="S66" t="str">
-        <f>IF(F66&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G66,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>No</v>
       </c>
       <c r="T66" t="str">
-        <f>IF(F66&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G66,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>No</v>
       </c>
       <c r="U66" t="str">
-        <f>IF(F66&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G66,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V66" t="str">
-        <f>IF(F66&lt;&gt;"",IF(F66&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G66,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W66" t="str">
-        <f>IF(F66&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G66,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -10131,7 +10143,7 @@
         <v>203</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f t="shared" ref="J67:J87" si="2">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A67,"],#scienceDifficulty[hard]]:NEEDS[",I67,",!FeatureScience]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C67,CHAR(10),"     ","@scienceCap = ",D67,CHAR(10),"     ","@dataScale = ",E67,CHAR(10),"     ","@situationMask = ",F67,CHAR(10),"     ","@biomeMask = ",G67,CHAR(10),"}")</f>
+        <f t="shared" ref="J67:J87" si="26">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A67,"],#scienceDifficulty[hard]]:NEEDS[",I67,",!FeatureScience]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C67,CHAR(10),"     ","@scienceCap = ",D67,CHAR(10),"     ","@dataScale = ",E67,CHAR(10),"     ","@situationMask = ",F67,CHAR(10),"     ","@biomeMask = ",G67,CHAR(10),"}")</f>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[sspxVisualObservation],#scienceDifficulty[hard]]:NEEDS[StationPartsExpansionRedux,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 7.5
@@ -10142,51 +10154,51 @@
 }</v>
       </c>
       <c r="L67" t="str">
-        <f>IF(F67&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F67,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M67" t="str">
-        <f>IF(F67&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F67,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N67" t="str">
-        <f>IF(F67&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F67,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>No</v>
       </c>
       <c r="O67" t="str">
-        <f>IF(F67&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F67,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="P67" t="str">
-        <f>IF(F67&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F67,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q67" t="str">
-        <f>IF(F67&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F67,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R67" t="str">
-        <f>IF(F67&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G67,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="S67" t="str">
-        <f>IF(F67&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G67,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="T67" t="str">
-        <f>IF(F67&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G67,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="U67" t="str">
-        <f>IF(F67&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G67,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V67" t="str">
-        <f>IF(F67&lt;&gt;"",IF(F67&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G67,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W67" t="str">
-        <f>IF(F67&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G67,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -10198,7 +10210,7 @@
         <v>6</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D130" si="3">C68</f>
+        <f t="shared" ref="D68:D130" si="27">C68</f>
         <v>6</v>
       </c>
       <c r="E68">
@@ -10217,7 +10229,7 @@
         <v>207</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[Color Samples],#scienceDifficulty[hard]]:NEEDS[Knes,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 6
@@ -10228,51 +10240,51 @@
 }</v>
       </c>
       <c r="L68" t="str">
-        <f>IF(F68&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F68,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="14"/>
         <v>Yes</v>
       </c>
       <c r="M68" t="str">
-        <f>IF(F68&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F68,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="15"/>
         <v>Yes</v>
       </c>
       <c r="N68" t="str">
-        <f>IF(F68&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F68,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
       <c r="O68" t="str">
-        <f>IF(F68&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F68,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="P68" t="str">
-        <f>IF(F68&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F68,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="18"/>
         <v>Yes</v>
       </c>
       <c r="Q68" t="str">
-        <f>IF(F68&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F68,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="19"/>
         <v>Yes</v>
       </c>
       <c r="R68" t="str">
-        <f>IF(F68&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G68,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="20"/>
         <v>Yes</v>
       </c>
       <c r="S68" t="str">
-        <f>IF(F68&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G68,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
       <c r="T68" t="str">
-        <f>IF(F68&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G68,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="22"/>
         <v>Yes</v>
       </c>
       <c r="U68" t="str">
-        <f>IF(F68&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G68,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="23"/>
         <v>No</v>
       </c>
       <c r="V68" t="str">
-        <f>IF(F68&lt;&gt;"",IF(F68&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G68,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="24"/>
         <v>No</v>
       </c>
       <c r="W68" t="str">
-        <f>IF(F68&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G68,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="25"/>
         <v>No</v>
       </c>
     </row>
@@ -10284,7 +10296,7 @@
         <v>15</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
       <c r="E69">
@@ -10303,7 +10315,7 @@
         <v>207</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ScienceRackBioExperiment],#scienceDifficulty[hard]]:NEEDS[Knes,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 15
@@ -10314,51 +10326,51 @@
 }</v>
       </c>
       <c r="L69" t="str">
-        <f>IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="L69:L87" si="28">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="M69" t="str">
-        <f>IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="M69:M87" si="29">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="N69" t="str">
-        <f>IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="N69:N87" si="30">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="O69" t="str">
-        <f>IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="O69:O87" si="31">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="P69" t="str">
-        <f>IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="P69:P87" si="32">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),5),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="Q69" t="str">
-        <f>IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="Q69:Q87" si="33">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="R69" t="str">
-        <f>IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="R69:R87" si="34">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="S69" t="str">
-        <f>IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="S69:S87" si="35">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="T69" t="str">
-        <f>IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="T69:T87" si="36">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="U69" t="str">
-        <f>IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="U69:U87" si="37">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="V69" t="str">
-        <f>IF(F69&lt;&gt;"",IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" ref="V69:V87" si="38">IF(F69&lt;&gt;"",IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),5),1)*1=1,"Yes","No"),""),"")</f>
         <v>No</v>
       </c>
       <c r="W69" t="str">
-        <f>IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="W69:W87" si="39">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
     </row>
@@ -10370,7 +10382,7 @@
         <v>15</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
       <c r="E70">
@@ -10389,7 +10401,7 @@
         <v>207</v>
       </c>
       <c r="J70" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ScienceRackExperiment],#scienceDifficulty[hard]]:NEEDS[Knes,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 15
@@ -10400,51 +10412,51 @@
 }</v>
       </c>
       <c r="L70" t="str">
-        <f>IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M70" t="str">
-        <f>IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>Yes</v>
       </c>
       <c r="N70" t="str">
-        <f>IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>Yes</v>
       </c>
       <c r="O70" t="str">
-        <f>IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>Yes</v>
       </c>
       <c r="P70" t="str">
-        <f>IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q70" t="str">
-        <f>IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F70,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R70" t="str">
-        <f>IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S70" t="str">
-        <f>IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>Yes</v>
       </c>
       <c r="T70" t="str">
-        <f>IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>Yes</v>
       </c>
       <c r="U70" t="str">
-        <f>IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V70" t="str">
-        <f>IF(F70&lt;&gt;"",IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W70" t="str">
-        <f>IF(F70&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G70,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -10456,7 +10468,7 @@
         <v>15</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
       <c r="E71">
@@ -10475,7 +10487,7 @@
         <v>207</v>
       </c>
       <c r="J71" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[CosmoCat],#scienceDifficulty[hard]]:NEEDS[Knes,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 15
@@ -10486,51 +10498,51 @@
 }</v>
       </c>
       <c r="L71" t="str">
-        <f>IF(F71&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F71,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M71" t="str">
-        <f>IF(F71&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F71,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>Yes</v>
       </c>
       <c r="N71" t="str">
-        <f>IF(F71&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F71,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>Yes</v>
       </c>
       <c r="O71" t="str">
-        <f>IF(F71&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F71,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>Yes</v>
       </c>
       <c r="P71" t="str">
-        <f>IF(F71&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F71,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q71" t="str">
-        <f>IF(F71&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F71,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R71" t="str">
-        <f>IF(F71&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G71,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>No</v>
       </c>
       <c r="S71" t="str">
-        <f>IF(F71&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G71,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>No</v>
       </c>
       <c r="T71" t="str">
-        <f>IF(F71&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G71,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U71" t="str">
-        <f>IF(F71&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G71,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V71" t="str">
-        <f>IF(F71&lt;&gt;"",IF(F71&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G71,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W71" t="str">
-        <f>IF(F71&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G71,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -10542,7 +10554,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="E72">
@@ -10561,7 +10573,7 @@
         <v>207</v>
       </c>
       <c r="J72" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[Telemetry],#scienceDifficulty[hard]]:NEEDS[Knes,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 1
@@ -10572,51 +10584,51 @@
 }</v>
       </c>
       <c r="L72" t="str">
-        <f>IF(F72&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F72,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M72" t="str">
-        <f>IF(F72&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F72,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>Yes</v>
       </c>
       <c r="N72" t="str">
-        <f>IF(F72&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F72,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>Yes</v>
       </c>
       <c r="O72" t="str">
-        <f>IF(F72&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F72,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>Yes</v>
       </c>
       <c r="P72" t="str">
-        <f>IF(F72&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F72,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q72" t="str">
-        <f>IF(F72&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F72,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R72" t="str">
-        <f>IF(F72&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G72,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>No</v>
       </c>
       <c r="S72" t="str">
-        <f>IF(F72&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G72,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>No</v>
       </c>
       <c r="T72" t="str">
-        <f>IF(F72&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G72,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U72" t="str">
-        <f>IF(F72&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G72,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V72" t="str">
-        <f>IF(F72&lt;&gt;"",IF(F72&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G72,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W72" t="str">
-        <f>IF(F72&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G72,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -10628,7 +10640,7 @@
         <v>12</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="E73">
@@ -10647,7 +10659,7 @@
         <v>207</v>
       </c>
       <c r="J73" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[Geodesy],#scienceDifficulty[hard]]:NEEDS[Knes,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 12
@@ -10658,51 +10670,51 @@
 }</v>
       </c>
       <c r="L73" t="str">
-        <f>IF(F73&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F73,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M73" t="str">
-        <f>IF(F73&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F73,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>Yes</v>
       </c>
       <c r="N73" t="str">
-        <f>IF(F73&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F73,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>Yes</v>
       </c>
       <c r="O73" t="str">
-        <f>IF(F73&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F73,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>Yes</v>
       </c>
       <c r="P73" t="str">
-        <f>IF(F73&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F73,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q73" t="str">
-        <f>IF(F73&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F73,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R73" t="str">
-        <f>IF(F73&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G73,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S73" t="str">
-        <f>IF(F73&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G73,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>Yes</v>
       </c>
       <c r="T73" t="str">
-        <f>IF(F73&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G73,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U73" t="str">
-        <f>IF(F73&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G73,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V73" t="str">
-        <f>IF(F73&lt;&gt;"",IF(F73&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G73,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W73" t="str">
-        <f>IF(F73&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G73,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -10714,7 +10726,7 @@
         <v>5</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="E74">
@@ -10733,7 +10745,7 @@
         <v>248</v>
       </c>
       <c r="J74" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_SiteSurvey],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 5
@@ -10744,51 +10756,51 @@
 }</v>
       </c>
       <c r="L74" t="str">
-        <f>IF(F74&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F74,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M74" t="str">
-        <f>IF(F74&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F74,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>Yes</v>
       </c>
       <c r="N74" t="str">
-        <f>IF(F74&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F74,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>No</v>
       </c>
       <c r="O74" t="str">
-        <f>IF(F74&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F74,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>No</v>
       </c>
       <c r="P74" t="str">
-        <f>IF(F74&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F74,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>No</v>
       </c>
       <c r="Q74" t="str">
-        <f>IF(F74&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F74,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>No</v>
       </c>
       <c r="R74" t="str">
-        <f>IF(F74&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G74,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S74" t="str">
-        <f>IF(F74&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G74,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>Yes</v>
       </c>
       <c r="T74" t="str">
-        <f>IF(F74&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G74,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U74" t="str">
-        <f>IF(F74&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G74,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V74" t="str">
-        <f>IF(F74&lt;&gt;"",IF(F74&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G74,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W74" t="str">
-        <f>IF(F74&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G74,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -10800,7 +10812,7 @@
         <v>5</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="E75">
@@ -10819,7 +10831,7 @@
         <v>248</v>
       </c>
       <c r="J75" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_soilScoop],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 5
@@ -10830,51 +10842,51 @@
 }</v>
       </c>
       <c r="L75" t="str">
-        <f>IF(F75&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F75,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M75" t="str">
-        <f>IF(F75&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F75,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>Yes</v>
       </c>
       <c r="N75" t="str">
-        <f>IF(F75&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F75,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>No</v>
       </c>
       <c r="O75" t="str">
-        <f>IF(F75&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F75,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>No</v>
       </c>
       <c r="P75" t="str">
-        <f>IF(F75&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F75,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>No</v>
       </c>
       <c r="Q75" t="str">
-        <f>IF(F75&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F75,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>No</v>
       </c>
       <c r="R75" t="str">
-        <f>IF(F75&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G75,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S75" t="str">
-        <f>IF(F75&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G75,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>Yes</v>
       </c>
       <c r="T75" t="str">
-        <f>IF(F75&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G75,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U75" t="str">
-        <f>IF(F75&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G75,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V75" t="str">
-        <f>IF(F75&lt;&gt;"",IF(F75&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G75,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W75" t="str">
-        <f>IF(F75&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G75,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -10886,7 +10898,7 @@
         <v>3</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="E76">
@@ -10905,7 +10917,7 @@
         <v>248</v>
       </c>
       <c r="J76" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_gammaRay],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 3
@@ -10916,51 +10928,51 @@
 }</v>
       </c>
       <c r="L76" t="str">
-        <f>IF(F76&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F76,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>No</v>
       </c>
       <c r="M76" t="str">
-        <f>IF(F76&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F76,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>No</v>
       </c>
       <c r="N76" t="str">
-        <f>IF(F76&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F76,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>No</v>
       </c>
       <c r="O76" t="str">
-        <f>IF(F76&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F76,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>No</v>
       </c>
       <c r="P76" t="str">
-        <f>IF(F76&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F76,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q76" t="str">
-        <f>IF(F76&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F76,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R76" t="str">
-        <f>IF(F76&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G76,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S76" t="str">
-        <f>IF(F76&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G76,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>No</v>
       </c>
       <c r="T76" t="str">
-        <f>IF(F76&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G76,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U76" t="str">
-        <f>IF(F76&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G76,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V76" t="str">
-        <f>IF(F76&lt;&gt;"",IF(F76&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G76,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W76" t="str">
-        <f>IF(F76&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G76,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -10972,7 +10984,7 @@
         <v>3.5</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>3.5</v>
       </c>
       <c r="E77">
@@ -10991,7 +11003,7 @@
         <v>248</v>
       </c>
       <c r="J77" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_rpws],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 3.5
@@ -11002,51 +11014,51 @@
 }</v>
       </c>
       <c r="L77" t="str">
-        <f>IF(F77&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F77,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>No</v>
       </c>
       <c r="M77" t="str">
-        <f>IF(F77&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F77,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>No</v>
       </c>
       <c r="N77" t="str">
-        <f>IF(F77&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F77,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>No</v>
       </c>
       <c r="O77" t="str">
-        <f>IF(F77&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F77,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>No</v>
       </c>
       <c r="P77" t="str">
-        <f>IF(F77&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F77,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q77" t="str">
-        <f>IF(F77&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F77,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R77" t="str">
-        <f>IF(F77&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G77,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>No</v>
       </c>
       <c r="S77" t="str">
-        <f>IF(F77&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G77,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>No</v>
       </c>
       <c r="T77" t="str">
-        <f>IF(F77&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G77,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U77" t="str">
-        <f>IF(F77&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G77,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V77" t="str">
-        <f>IF(F77&lt;&gt;"",IF(F77&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G77,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W77" t="str">
-        <f>IF(F77&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G77,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -11058,7 +11070,7 @@
         <v>3</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="E78">
@@ -11077,7 +11089,7 @@
         <v>248</v>
       </c>
       <c r="J78" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_orbitalScope],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 3
@@ -11088,51 +11100,51 @@
 }</v>
       </c>
       <c r="L78" t="str">
-        <f>IF(F78&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F78,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>No</v>
       </c>
       <c r="M78" t="str">
-        <f>IF(F78&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F78,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>No</v>
       </c>
       <c r="N78" t="str">
-        <f>IF(F78&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F78,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>No</v>
       </c>
       <c r="O78" t="str">
-        <f>IF(F78&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F78,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>No</v>
       </c>
       <c r="P78" t="str">
-        <f>IF(F78&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F78,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q78" t="str">
-        <f>IF(F78&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F78,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R78" t="str">
-        <f>IF(F78&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G78,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>No</v>
       </c>
       <c r="S78" t="str">
-        <f>IF(F78&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G78,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>No</v>
       </c>
       <c r="T78" t="str">
-        <f>IF(F78&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G78,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U78" t="str">
-        <f>IF(F78&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G78,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V78" t="str">
-        <f>IF(F78&lt;&gt;"",IF(F78&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G78,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>Yes</v>
       </c>
       <c r="W78" t="str">
-        <f>IF(F78&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G78,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -11144,7 +11156,7 @@
         <v>2.5</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="E79">
@@ -11163,7 +11175,7 @@
         <v>248</v>
       </c>
       <c r="J79" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_mag],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 2.5
@@ -11174,51 +11186,51 @@
 }</v>
       </c>
       <c r="L79" t="str">
-        <f>IF(F79&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F79,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>No</v>
       </c>
       <c r="M79" t="str">
-        <f>IF(F79&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F79,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>No</v>
       </c>
       <c r="N79" t="str">
-        <f>IF(F79&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F79,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>No</v>
       </c>
       <c r="O79" t="str">
-        <f>IF(F79&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F79,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>No</v>
       </c>
       <c r="P79" t="str">
-        <f>IF(F79&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F79,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q79" t="str">
-        <f>IF(F79&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F79,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R79" t="str">
-        <f>IF(F79&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G79,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S79" t="str">
-        <f>IF(F79&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G79,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>No</v>
       </c>
       <c r="T79" t="str">
-        <f>IF(F79&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G79,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U79" t="str">
-        <f>IF(F79&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G79,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V79" t="str">
-        <f>IF(F79&lt;&gt;"",IF(F79&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G79,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W79" t="str">
-        <f>IF(F79&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G79,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -11230,7 +11242,7 @@
         <v>3</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="E80">
@@ -11249,7 +11261,7 @@
         <v>248</v>
       </c>
       <c r="J80" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_IRspec],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 3
@@ -11260,51 +11272,51 @@
 }</v>
       </c>
       <c r="L80" t="str">
-        <f>IF(F80&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F80,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>No</v>
       </c>
       <c r="M80" t="str">
-        <f>IF(F80&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F80,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>No</v>
       </c>
       <c r="N80" t="str">
-        <f>IF(F80&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F80,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>No</v>
       </c>
       <c r="O80" t="str">
-        <f>IF(F80&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F80,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>No</v>
       </c>
       <c r="P80" t="str">
-        <f>IF(F80&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F80,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q80" t="str">
-        <f>IF(F80&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F80,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R80" t="str">
-        <f>IF(F80&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G80,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S80" t="str">
-        <f>IF(F80&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G80,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>No</v>
       </c>
       <c r="T80" t="str">
-        <f>IF(F80&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G80,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U80" t="str">
-        <f>IF(F80&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G80,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V80" t="str">
-        <f>IF(F80&lt;&gt;"",IF(F80&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G80,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W80" t="str">
-        <f>IF(F80&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G80,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -11316,7 +11328,7 @@
         <v>2.5</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="E81">
@@ -11335,7 +11347,7 @@
         <v>248</v>
       </c>
       <c r="J81" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_ionElec],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 2.5
@@ -11346,51 +11358,51 @@
 }</v>
       </c>
       <c r="L81" t="str">
-        <f>IF(F81&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F81,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>No</v>
       </c>
       <c r="M81" t="str">
-        <f>IF(F81&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F81,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>No</v>
       </c>
       <c r="N81" t="str">
-        <f>IF(F81&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F81,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>No</v>
       </c>
       <c r="O81" t="str">
-        <f>IF(F81&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F81,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>Yes</v>
       </c>
       <c r="P81" t="str">
-        <f>IF(F81&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F81,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q81" t="str">
-        <f>IF(F81&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F81,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>No</v>
       </c>
       <c r="R81" t="str">
-        <f>IF(F81&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G81,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S81" t="str">
-        <f>IF(F81&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G81,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>No</v>
       </c>
       <c r="T81" t="str">
-        <f>IF(F81&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G81,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U81" t="str">
-        <f>IF(F81&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G81,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V81" t="str">
-        <f>IF(F81&lt;&gt;"",IF(F81&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G81,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W81" t="str">
-        <f>IF(F81&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G81,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -11402,7 +11414,7 @@
         <v>2.5</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="E82">
@@ -11421,7 +11433,7 @@
         <v>248</v>
       </c>
       <c r="J82" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_UVspec],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 2.5
@@ -11432,51 +11444,51 @@
 }</v>
       </c>
       <c r="L82" t="str">
-        <f>IF(F82&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F82,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>No</v>
       </c>
       <c r="M82" t="str">
-        <f>IF(F82&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F82,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>No</v>
       </c>
       <c r="N82" t="str">
-        <f>IF(F82&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F82,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>No</v>
       </c>
       <c r="O82" t="str">
-        <f>IF(F82&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F82,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>No</v>
       </c>
       <c r="P82" t="str">
-        <f>IF(F82&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F82,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q82" t="str">
-        <f>IF(F82&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F82,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R82" t="str">
-        <f>IF(F82&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G82,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S82" t="str">
-        <f>IF(F82&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G82,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>No</v>
       </c>
       <c r="T82" t="str">
-        <f>IF(F82&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G82,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U82" t="str">
-        <f>IF(F82&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G82,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V82" t="str">
-        <f>IF(F82&lt;&gt;"",IF(F82&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G82,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W82" t="str">
-        <f>IF(F82&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G82,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -11488,7 +11500,7 @@
         <v>3</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="E83">
@@ -11507,7 +11519,7 @@
         <v>248</v>
       </c>
       <c r="J83" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_solarWind],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 3
@@ -11518,51 +11530,51 @@
 }</v>
       </c>
       <c r="L83" t="str">
-        <f>IF(F83&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F83,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>No</v>
       </c>
       <c r="M83" t="str">
-        <f>IF(F83&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F83,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>No</v>
       </c>
       <c r="N83" t="str">
-        <f>IF(F83&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F83,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>No</v>
       </c>
       <c r="O83" t="str">
-        <f>IF(F83&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F83,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>No</v>
       </c>
       <c r="P83" t="str">
-        <f>IF(F83&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F83,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>No</v>
       </c>
       <c r="Q83" t="str">
-        <f>IF(F83&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F83,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R83" t="str">
-        <f>IF(F83&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G83,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S83" t="str">
-        <f>IF(F83&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G83,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>No</v>
       </c>
       <c r="T83" t="str">
-        <f>IF(F83&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G83,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U83" t="str">
-        <f>IF(F83&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G83,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V83" t="str">
-        <f>IF(F83&lt;&gt;"",IF(F83&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G83,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W83" t="str">
-        <f>IF(F83&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G83,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -11574,7 +11586,7 @@
         <v>5</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="E84">
@@ -11593,7 +11605,7 @@
         <v>248</v>
       </c>
       <c r="J84" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_kdex],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 5
@@ -11604,51 +11616,51 @@
 }</v>
       </c>
       <c r="L84" t="str">
-        <f>IF(F84&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F84,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M84" t="str">
-        <f>IF(F84&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F84,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>Yes</v>
       </c>
       <c r="N84" t="str">
-        <f>IF(F84&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F84,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>Yes</v>
       </c>
       <c r="O84" t="str">
-        <f>IF(F84&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F84,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>Yes</v>
       </c>
       <c r="P84" t="str">
-        <f>IF(F84&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F84,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q84" t="str">
-        <f>IF(F84&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F84,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R84" t="str">
-        <f>IF(F84&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G84,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S84" t="str">
-        <f>IF(F84&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G84,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>No</v>
       </c>
       <c r="T84" t="str">
-        <f>IF(F84&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G84,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>Yes</v>
       </c>
       <c r="U84" t="str">
-        <f>IF(F84&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G84,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V84" t="str">
-        <f>IF(F84&lt;&gt;"",IF(F84&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G84,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>Yes</v>
       </c>
       <c r="W84" t="str">
-        <f>IF(F84&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G84,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -11660,7 +11672,7 @@
         <v>6</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="E85">
@@ -11679,7 +11691,7 @@
         <v>248</v>
       </c>
       <c r="J85" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_micrometeoroid],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 6
@@ -11690,51 +11702,51 @@
 }</v>
       </c>
       <c r="L85" t="str">
-        <f>IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F85,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>No</v>
       </c>
       <c r="M85" t="str">
-        <f>IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F85,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>No</v>
       </c>
       <c r="N85" t="str">
-        <f>IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F85,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>No</v>
       </c>
       <c r="O85" t="str">
-        <f>IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F85,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>No</v>
       </c>
       <c r="P85" t="str">
-        <f>IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F85,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q85" t="str">
-        <f>IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F85,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R85" t="str">
-        <f>IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G85,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S85" t="str">
-        <f>IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G85,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>No</v>
       </c>
       <c r="T85" t="str">
-        <f>IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G85,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>No</v>
       </c>
       <c r="U85" t="str">
-        <f>IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G85,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V85" t="str">
-        <f>IF(F85&lt;&gt;"",IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G85,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>No</v>
       </c>
       <c r="W85" t="str">
-        <f>IF(F85&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G85,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -11746,7 +11758,7 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="E86">
@@ -11765,7 +11777,7 @@
         <v>248</v>
       </c>
       <c r="J86" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_radsci],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 4
@@ -11776,51 +11788,51 @@
 }</v>
       </c>
       <c r="L86" t="str">
-        <f>IF(F86&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F86,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M86" t="str">
-        <f>IF(F86&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F86,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>Yes</v>
       </c>
       <c r="N86" t="str">
-        <f>IF(F86&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F86,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>Yes</v>
       </c>
       <c r="O86" t="str">
-        <f>IF(F86&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F86,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>Yes</v>
       </c>
       <c r="P86" t="str">
-        <f>IF(F86&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F86,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q86" t="str">
-        <f>IF(F86&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F86,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R86" t="str">
-        <f>IF(F86&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G86,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S86" t="str">
-        <f>IF(F86&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G86,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>Yes</v>
       </c>
       <c r="T86" t="str">
-        <f>IF(F86&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G86,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>Yes</v>
       </c>
       <c r="U86" t="str">
-        <f>IF(F86&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G86,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V86" t="str">
-        <f>IF(F86&lt;&gt;"",IF(F86&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G86,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>Yes</v>
       </c>
       <c r="W86" t="str">
-        <f>IF(F86&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G86,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="39"/>
         <v>No</v>
       </c>
     </row>
@@ -11832,7 +11844,7 @@
         <v>3</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="E87">
@@ -11851,7 +11863,7 @@
         <v>248</v>
       </c>
       <c r="J87" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[ca_filmCamera],#scienceDifficulty[hard]]:NEEDS[CoatlAerospace,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 3
@@ -11862,327 +11874,423 @@
 }</v>
       </c>
       <c r="L87" t="str">
-        <f>IF(F87&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F87,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="28"/>
         <v>Yes</v>
       </c>
       <c r="M87" t="str">
-        <f>IF(F87&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F87,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="29"/>
         <v>Yes</v>
       </c>
       <c r="N87" t="str">
-        <f>IF(F87&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F87,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="30"/>
         <v>Yes</v>
       </c>
       <c r="O87" t="str">
-        <f>IF(F87&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F87,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="31"/>
         <v>Yes</v>
       </c>
       <c r="P87" t="str">
-        <f>IF(F87&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F87,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
       <c r="Q87" t="str">
-        <f>IF(F87&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F87,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="33"/>
         <v>Yes</v>
       </c>
       <c r="R87" t="str">
-        <f>IF(F87&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G87,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="34"/>
         <v>Yes</v>
       </c>
       <c r="S87" t="str">
-        <f>IF(F87&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G87,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="35"/>
         <v>Yes</v>
       </c>
       <c r="T87" t="str">
-        <f>IF(F87&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G87,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="36"/>
         <v>Yes</v>
       </c>
       <c r="U87" t="str">
-        <f>IF(F87&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G87,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" si="37"/>
         <v>No</v>
       </c>
       <c r="V87" t="str">
-        <f>IF(F87&lt;&gt;"",IF(F87&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G87,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" si="38"/>
         <v>Yes</v>
       </c>
       <c r="W87" t="str">
-        <f>IF(F87&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G87,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
       <c r="D88">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>51</v>
+      </c>
+      <c r="G88">
+        <v>51</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>263</v>
+      </c>
+      <c r="J88" s="1" t="str">
+        <f t="shared" ref="J88:J90" si="40">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A88,"],#scienceDifficulty[default]]:NEEDS[",I88,",!FeatureScience]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C88,CHAR(10),"     ","@scienceCap = ",D88,CHAR(10),"     ","@dataScale = ",E88,CHAR(10),"     ","@situationMask = ",F88,CHAR(10),"     ","@biomeMask = ",G88,CHAR(10),"}")</f>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[tantares_radiometer_scan],#scienceDifficulty[default]]:NEEDS[Tantares,!FeatureScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 10
+     @scienceCap = 10
+     @dataScale = 3
+     @situationMask = 51
+     @biomeMask = 51
+}</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
       <c r="D89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>51</v>
+      </c>
+      <c r="G89">
+        <v>51</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>263</v>
+      </c>
+      <c r="J89" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[tantares_x_ray_scan],#scienceDifficulty[default]]:NEEDS[Tantares,!FeatureScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 10
+     @scienceCap = 10
+     @dataScale = 3
+     @situationMask = 51
+     @biomeMask = 51
+}</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
       <c r="D90">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>51</v>
+      </c>
+      <c r="G90">
+        <v>51</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>263</v>
+      </c>
+      <c r="J90" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[tantares_multispectral_scan],#scienceDifficulty[default]]:NEEDS[Tantares,!FeatureScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 10
+     @scienceCap = 10
+     @dataScale = 3
+     @situationMask = 51
+     @biomeMask = 51
+}</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D131">
-        <f t="shared" ref="D131:D133" si="4">C131</f>
+        <f t="shared" ref="D131:D133" si="41">C131</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -12251,11 +12359,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7CD309-1AF9-460F-88C8-8DF0B79AC471}">
   <dimension ref="A1:X136"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomRight" activeCell="K90" sqref="K90:K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18553,7 +18661,7 @@
         <v>207</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f t="shared" ref="J69:J89" si="29">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A69,"],#scienceDifficulty[default]]:NEEDS[",I69,",!FeatureScience]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C69,CHAR(10),"     ","@scienceCap = ",D69,CHAR(10),"     ","@dataScale = ",E69,CHAR(10),"     ","@situationMask = ",F69,CHAR(10),"     ","@biomeMask = ",G69,CHAR(10),"}")</f>
+        <f t="shared" ref="J69:J91" si="29">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A69,"],#scienceDifficulty[default]]:NEEDS[",I69,",!FeatureScience]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C69,CHAR(10),"     ","@scienceCap = ",D69,CHAR(10),"     ","@dataScale = ",E69,CHAR(10),"     ","@situationMask = ",F69,CHAR(10),"     ","@biomeMask = ",G69,CHAR(10),"}")</f>
         <v>@EXPERIMENT_DEFINITION:HAS[#id[Color Samples],#scienceDifficulty[default]]:NEEDS[Knes,!FeatureScience]:FOR[zKiwiAerospace]
 {
      @baseValue = 12
@@ -18571,51 +18679,51 @@
     }</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" ref="M69:M89" si="30">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="M69:M92" si="30">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" ref="N69:N89" si="31">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="N69:N92" si="31">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" ref="O69:O89" si="32">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="O69:O92" si="32">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" ref="P69:P89" si="33">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="P69:P92" si="33">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" ref="Q69:Q89" si="34">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="Q69:Q92" si="34">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),5),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" ref="R69:R89" si="35">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="R69:R92" si="35">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="S69" t="str">
-        <f t="shared" ref="S69:S89" si="36">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="S69:S92" si="36">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" ref="T69:T89" si="37">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="T69:T92" si="37">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="U69" t="str">
-        <f t="shared" ref="U69:U89" si="38">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="U69:U92" si="38">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="V69" t="str">
-        <f t="shared" ref="V69:V89" si="39">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="V69:V92" si="39">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" ref="W69:W89" si="40">IF(F69&lt;&gt;"",IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" ref="W69:W92" si="40">IF(F69&lt;&gt;"",IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),5),1)*1=1,"Yes","No"),""),"")</f>
         <v>No</v>
       </c>
       <c r="X69" t="str">
-        <f t="shared" ref="X69:X89" si="41">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="X69:X92" si="41">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
     </row>
@@ -20499,22 +20607,283 @@
         <v>No</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90">
+        <v>20</v>
+      </c>
       <c r="D90">
-        <f t="shared" ref="D84:D116" si="57">C90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+        <f t="shared" ref="D90:D116" si="57">C90</f>
+        <v>20</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>51</v>
+      </c>
+      <c r="G90">
+        <v>51</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>263</v>
+      </c>
+      <c r="J90" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[tantares_radiometer_scan],#scienceDifficulty[default]]:NEEDS[Tantares,!FeatureScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 20
+     @scienceCap = 20
+     @dataScale = 3
+     @situationMask = 51
+     @biomeMask = 51
+}</v>
+      </c>
+      <c r="K90" s="1" t="str">
+        <f t="shared" ref="K90:K91" si="58">IF(H90&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A90,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H90,CHAR(10),"    }"),"")</f>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[tantares_radiometer_scan]]
+    {
+        @xmitDataScalar = 1
+    }</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="30"/>
+        <v>Yes</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="31"/>
+        <v>Yes</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="32"/>
+        <v>No</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="33"/>
+        <v>No</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" si="34"/>
+        <v>Yes</v>
+      </c>
+      <c r="R90" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="S90" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="38"/>
+        <v>No</v>
+      </c>
+      <c r="V90" t="str">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+      <c r="W90" t="str">
+        <f t="shared" si="40"/>
+        <v>Yes</v>
+      </c>
+      <c r="X90" t="str">
+        <f t="shared" si="41"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
       <c r="D91">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>51</v>
+      </c>
+      <c r="G91">
+        <v>51</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>263</v>
+      </c>
+      <c r="J91" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[tantares_x_ray_scan],#scienceDifficulty[default]]:NEEDS[Tantares,!FeatureScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 20
+     @scienceCap = 20
+     @dataScale = 3
+     @situationMask = 51
+     @biomeMask = 51
+}</v>
+      </c>
+      <c r="K91" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[tantares_x_ray_scan]]
+    {
+        @xmitDataScalar = 1
+    }</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="30"/>
+        <v>Yes</v>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="31"/>
+        <v>Yes</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="32"/>
+        <v>No</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="33"/>
+        <v>No</v>
+      </c>
+      <c r="Q91" t="str">
+        <f t="shared" si="34"/>
+        <v>Yes</v>
+      </c>
+      <c r="R91" t="str">
+        <f t="shared" si="35"/>
+        <v>Yes</v>
+      </c>
+      <c r="S91" t="str">
+        <f t="shared" si="36"/>
+        <v>Yes</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="37"/>
+        <v>Yes</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="38"/>
+        <v>No</v>
+      </c>
+      <c r="V91" t="str">
+        <f t="shared" si="39"/>
+        <v>No</v>
+      </c>
+      <c r="W91" t="str">
+        <f t="shared" si="40"/>
+        <v>Yes</v>
+      </c>
+      <c r="X91" t="str">
+        <f t="shared" si="41"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
       <c r="D92">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>51</v>
+      </c>
+      <c r="G92">
+        <v>51</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>263</v>
+      </c>
+      <c r="J92" s="1" t="str">
+        <f t="shared" ref="J92" si="59">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A92,"],#scienceDifficulty[default]]:NEEDS[",I92,",!FeatureScience]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C92,CHAR(10),"     ","@scienceCap = ",D92,CHAR(10),"     ","@dataScale = ",E92,CHAR(10),"     ","@situationMask = ",F92,CHAR(10),"     ","@biomeMask = ",G92,CHAR(10),"}")</f>
+        <v>@EXPERIMENT_DEFINITION:HAS[#id[tantares_multispectral_scan],#scienceDifficulty[default]]:NEEDS[Tantares,!FeatureScience]:FOR[zKiwiAerospace]
+{
+     @baseValue = 20
+     @scienceCap = 20
+     @dataScale = 3
+     @situationMask = 51
+     @biomeMask = 51
+}</v>
+      </c>
+      <c r="K92" s="1" t="str">
+        <f t="shared" ref="K92" si="60">IF(H92&lt;&gt;"",_xlfn.CONCAT("    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[",A92,"]]",CHAR(10),"    {",CHAR(10),"        @xmitDataScalar = ",H92,CHAR(10),"    }"),"")</f>
+        <v xml:space="preserve">    @MODULE[ModuleScienceExperiment]:HAS[#experimentID[tantares_multispectral_scan]]
+    {
+        @xmitDataScalar = 1
+    }</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" ref="M92" si="61">IF(F92&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F92,6),1),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" ref="N92" si="62">IF(F92&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F92,6),2),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" ref="O92" si="63">IF(F92&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F92,6),3),1)*1=1,"Yes","No"),"")</f>
+        <v>No</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" ref="P92" si="64">IF(F92&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F92,6),4),1)*1=1,"Yes","No"),"")</f>
+        <v>No</v>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" ref="Q92" si="65">IF(F92&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F92,6),5),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="R92" t="str">
+        <f t="shared" ref="R92" si="66">IF(F92&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F92,6),6),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="S92" t="str">
+        <f t="shared" ref="S92" si="67">IF(F92&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G92,6),1),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" ref="T92" si="68">IF(F92&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G92,6),2),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" ref="U92" si="69">IF(F92&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G92,6),3),1)*1=1,"Yes","No"),"")</f>
+        <v>No</v>
+      </c>
+      <c r="V92" t="str">
+        <f t="shared" ref="V92" si="70">IF(F92&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G92,6),4),1)*1=1,"Yes","No"),"")</f>
+        <v>No</v>
+      </c>
+      <c r="W92" t="str">
+        <f t="shared" ref="W92" si="71">IF(F92&lt;&gt;"",IF(F92&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G92,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <v>Yes</v>
+      </c>
+      <c r="X92" t="str">
+        <f t="shared" ref="X92" si="72">IF(F92&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G92,6),6),1)*1=1,"Yes","No"),"")</f>
+        <v>Yes</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.35">
@@ -20663,115 +21032,115 @@
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D117">
-        <f t="shared" ref="D117:D135" si="58">C117</f>
+        <f t="shared" ref="D117:D135" si="73">C117</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D118">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D119">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D120">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D121">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D122">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D123">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D124">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D125">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D126">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D127">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D128">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D129">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D130">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D131">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D132">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D134">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D135">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>

--- a/Source/Science.xlsx
+++ b/Source/Science.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15313422-9CFD-4C82-A11C-F03434D4430A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E481D9-EE08-434E-87A8-871FA21E5999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
+    <workbookView xWindow="-27570" yWindow="1575" windowWidth="27555" windowHeight="9615" activeTab="2" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -12357,13 +12357,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7CD309-1AF9-460F-88C8-8DF0B79AC471}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K90" sqref="K90:K92"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12376,7 +12377,7 @@
     <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="42.6328125" customWidth="1"/>
+    <col min="10" max="10" width="97.81640625" customWidth="1"/>
     <col min="11" max="11" width="73.7265625" customWidth="1"/>
     <col min="13" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
@@ -12475,7 +12476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -12571,7 +12572,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -12593,7 +12594,7 @@
 }</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -12689,7 +12690,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -12788,7 +12789,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -12887,7 +12888,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -12986,7 +12987,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -13178,7 +13179,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -13274,7 +13275,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="103" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="103" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -13370,7 +13371,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -13466,7 +13467,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -13562,7 +13563,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -13658,7 +13659,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -13754,7 +13755,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -13850,7 +13851,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -13946,7 +13947,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -14042,7 +14043,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -14141,7 +14142,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -14237,7 +14238,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -14333,7 +14334,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -14432,7 +14433,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -14528,7 +14529,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -14627,7 +14628,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -14726,7 +14727,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -14825,7 +14826,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14921,7 +14922,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -15020,7 +15021,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -15110,7 +15111,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -15209,7 +15210,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -15308,7 +15309,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -15407,7 +15408,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -15506,7 +15507,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -15605,7 +15606,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -15698,7 +15699,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -15791,7 +15792,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -15884,7 +15885,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -15977,7 +15978,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -16070,7 +16071,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -16160,7 +16161,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -16250,7 +16251,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -16327,7 +16328,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -16414,7 +16415,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -16501,7 +16502,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>180</v>
       </c>
@@ -16593,7 +16594,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -16685,7 +16686,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>183</v>
       </c>
@@ -16777,7 +16778,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>184</v>
       </c>
@@ -16869,7 +16870,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -16961,7 +16962,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>186</v>
       </c>
@@ -17053,7 +17054,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>187</v>
       </c>
@@ -17146,7 +17147,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -17239,7 +17240,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>190</v>
       </c>
@@ -17332,7 +17333,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -17425,7 +17426,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>192</v>
       </c>
@@ -17518,7 +17519,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>193</v>
       </c>
@@ -17611,7 +17612,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>194</v>
       </c>
@@ -17704,7 +17705,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>195</v>
       </c>
@@ -17797,7 +17798,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -17890,7 +17891,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>197</v>
       </c>
@@ -17983,7 +17984,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -18076,7 +18077,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>199</v>
       </c>
@@ -18169,7 +18170,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>200</v>
       </c>
@@ -18262,7 +18263,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>201</v>
       </c>
@@ -18355,7 +18356,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>202</v>
       </c>
@@ -18448,7 +18449,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>204</v>
       </c>
@@ -18541,7 +18542,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>205</v>
       </c>
@@ -18634,7 +18635,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>206</v>
       </c>
@@ -18679,55 +18680,55 @@
     }</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" ref="M69:M92" si="30">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="M69:M91" si="30">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" ref="N69:N92" si="31">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="N69:N91" si="31">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" ref="O69:O92" si="32">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="O69:O91" si="32">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" ref="P69:P92" si="33">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="P69:P91" si="33">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" ref="Q69:Q92" si="34">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),5),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="Q69:Q91" si="34">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),5),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" ref="R69:R92" si="35">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),6),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="R69:R91" si="35">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F69,6),6),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="S69" t="str">
-        <f t="shared" ref="S69:S92" si="36">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),1),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="S69:S91" si="36">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),1),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" ref="T69:T92" si="37">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),2),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="T69:T91" si="37">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),2),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="U69" t="str">
-        <f t="shared" ref="U69:U92" si="38">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),3),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="U69:U91" si="38">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),3),1)*1=1,"Yes","No"),"")</f>
         <v>Yes</v>
       </c>
       <c r="V69" t="str">
-        <f t="shared" ref="V69:V92" si="39">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),4),1)*1=1,"Yes","No"),"")</f>
+        <f t="shared" ref="V69:V91" si="39">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),4),1)*1=1,"Yes","No"),"")</f>
         <v>No</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" ref="W69:W92" si="40">IF(F69&lt;&gt;"",IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),5),1)*1=1,"Yes","No"),""),"")</f>
+        <f t="shared" ref="W69:W91" si="40">IF(F69&lt;&gt;"",IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),5),1)*1=1,"Yes","No"),""),"")</f>
         <v>No</v>
       </c>
       <c r="X69" t="str">
-        <f t="shared" ref="X69:X92" si="41">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),6),1)*1=1,"Yes","No"),"")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+        <f t="shared" ref="X69:X91" si="41">IF(F69&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($G69,6),6),1)*1=1,"Yes","No"),"")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -18820,7 +18821,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -18913,7 +18914,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>210</v>
       </c>
@@ -19006,7 +19007,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>211</v>
       </c>
@@ -19099,7 +19100,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>212</v>
       </c>
@@ -20607,7 +20608,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>262</v>
       </c>
@@ -20700,7 +20701,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>264</v>
       </c>
@@ -20793,7 +20794,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>265</v>
       </c>
@@ -20886,265 +20887,265 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D93">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D94">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D95">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D96">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D97">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D98">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D99">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D100">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D101">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D102">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D103">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D104">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D105">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D106">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D107">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D108">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D109">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D110">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D111">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D112">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D113">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D114">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D115">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D116">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D117">
         <f t="shared" ref="D117:D135" si="73">C117</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D118">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D119">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D120">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D121">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D122">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D123">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D124">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D125">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D126">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D127">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D128">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D129">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D130">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D131">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D132">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D133">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D134">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="D135">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="M136" t="str">
@@ -21197,7 +21198,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:X136" xr:uid="{DC272CDC-2662-48AE-B083-BF6EA09AAB33}"/>
+  <autoFilter ref="A2:X136" xr:uid="{DC272CDC-2662-48AE-B083-BF6EA09AAB33}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="CoatlAerospace"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="S1:X1"/>

--- a/Source/Science.xlsx
+++ b/Source/Science.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E481D9-EE08-434E-87A8-871FA21E5999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634E5B97-215E-41E8-A6B0-540CED9EBC69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27570" yWindow="1575" windowWidth="27555" windowHeight="9615" activeTab="2" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
+    <workbookView minimized="1" xWindow="-22050" yWindow="1260" windowWidth="20640" windowHeight="16290" activeTab="1" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -4479,13 +4479,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE4B740-F49F-4D2C-983E-E732DD03A212}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J90" sqref="J88:J90"/>
+      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4596,7 +4597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -4697,7 +4698,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -4964,7 +4965,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="103" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="103" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -5409,7 +5410,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -5676,7 +5677,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -6210,7 +6211,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -6299,7 +6300,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -6388,7 +6389,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -6566,7 +6567,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -6744,7 +6745,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6833,7 +6834,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -6922,7 +6923,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -7100,7 +7101,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -7189,7 +7190,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -7542,7 +7543,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -7628,7 +7629,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -7714,7 +7715,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -7886,7 +7887,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -7972,7 +7973,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -8058,7 +8059,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -8141,7 +8142,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -8224,7 +8225,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -8310,7 +8311,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -8396,7 +8397,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>184</v>
       </c>
@@ -8568,7 +8569,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>186</v>
       </c>
@@ -8740,7 +8741,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>187</v>
       </c>
@@ -8826,7 +8827,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>189</v>
       </c>
@@ -8912,7 +8913,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>190</v>
       </c>
@@ -8998,7 +8999,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>191</v>
       </c>
@@ -9084,7 +9085,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>192</v>
       </c>
@@ -9170,7 +9171,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>193</v>
       </c>
@@ -9256,7 +9257,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>194</v>
       </c>
@@ -9342,7 +9343,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>195</v>
       </c>
@@ -9428,7 +9429,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>196</v>
       </c>
@@ -9514,7 +9515,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>197</v>
       </c>
@@ -9600,7 +9601,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>198</v>
       </c>
@@ -9686,7 +9687,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>199</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>200</v>
       </c>
@@ -9858,7 +9859,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>201</v>
       </c>
@@ -9944,7 +9945,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>202</v>
       </c>
@@ -10030,7 +10031,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>204</v>
       </c>
@@ -10116,7 +10117,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>205</v>
       </c>
@@ -10202,7 +10203,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>206</v>
       </c>
@@ -10288,7 +10289,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -10374,7 +10375,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -10460,7 +10461,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>210</v>
       </c>
@@ -10546,7 +10547,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>211</v>
       </c>
@@ -10632,7 +10633,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>212</v>
       </c>
@@ -11922,7 +11923,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>262</v>
       </c>
@@ -11960,7 +11961,7 @@
 }</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>264</v>
       </c>
@@ -11998,7 +11999,7 @@
 }</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>265</v>
       </c>
@@ -12036,265 +12037,265 @@
 }</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="D91">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="D92">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="D93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="D94">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="D95">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="D96">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D97">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D98">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D99">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D100">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D101">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D102">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D103">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D104">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D105">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D106">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D107">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D108">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D109">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D110">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D111">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D112">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D113">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D114">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D115">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D116">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D117">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D118">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D119">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D120">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D121">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D122">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D123">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D124">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D125">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D126">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D127">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D128">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="4:23" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="D129">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="4:23" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="D130">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="4:23" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="D131">
         <f t="shared" ref="D131:D133" si="41">C131</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="4:23" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="D132">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="4:23" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="D133">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="4:23" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="J134" s="1"/>
       <c r="L134" t="str">
         <f>IF(F134&lt;&gt;"",IF(LEFT(RIGHT(DEC2BIN($F134,6),1),1)*1=1,"Yes","No"),"")</f>
@@ -12346,7 +12347,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W134" xr:uid="{DC272CDC-2662-48AE-B083-BF6EA09AAB33}"/>
+  <autoFilter ref="A2:W134" xr:uid="{DC272CDC-2662-48AE-B083-BF6EA09AAB33}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="CoatlAerospace"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="R1:W1"/>
@@ -12360,11 +12367,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19193,7 +19200,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>247</v>
       </c>
@@ -19289,7 +19296,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>249</v>
       </c>
@@ -19385,7 +19392,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>250</v>
       </c>
@@ -19481,7 +19488,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>251</v>
       </c>
@@ -19577,7 +19584,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>252</v>
       </c>
@@ -19670,7 +19677,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>253</v>
       </c>
@@ -19766,7 +19773,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>254</v>
       </c>
@@ -19859,7 +19866,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>255</v>
       </c>
@@ -19955,7 +19962,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>256</v>
       </c>
@@ -20048,7 +20055,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -20141,7 +20148,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>258</v>
       </c>
@@ -20234,7 +20241,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>258</v>
       </c>
@@ -20320,7 +20327,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>259</v>
       </c>
@@ -20416,7 +20423,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>260</v>
       </c>
@@ -20512,7 +20519,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>261</v>
       </c>
@@ -20608,7 +20615,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>262</v>
       </c>
@@ -20701,7 +20708,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>264</v>
       </c>
@@ -20794,7 +20801,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>265</v>
       </c>
@@ -21201,7 +21208,7 @@
   <autoFilter ref="A2:X136" xr:uid="{DC272CDC-2662-48AE-B083-BF6EA09AAB33}">
     <filterColumn colId="8">
       <filters>
-        <filter val="CoatlAerospace"/>
+        <filter val="Tantares"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -26822,7 +26829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03953A02-1E19-4098-AFDF-9C664D8C6031}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/Source/Science.xlsx
+++ b/Source/Science.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634E5B97-215E-41E8-A6B0-540CED9EBC69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1381DF7-9FAF-40B2-8AC5-4F580FE8759A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-22050" yWindow="1260" windowWidth="20640" windowHeight="16290" activeTab="1" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{18B22CFD-9E2F-4ACB-8B6C-C8C8B7035FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="287">
   <si>
     <t>Experiment</t>
   </si>
@@ -707,9 +707,6 @@
     <t>Niven</t>
   </si>
   <si>
-    <t>Squad,!GPP</t>
-  </si>
-  <si>
     <t>Gael</t>
   </si>
   <si>
@@ -844,6 +841,72 @@
   <si>
     <t>tantares_multispectral_scan</t>
   </si>
+  <si>
+    <t>Squad,!JNSQ</t>
+  </si>
+  <si>
+    <t>Squad,!GPP,!JNSQ</t>
+  </si>
+  <si>
+    <t>Aden</t>
+  </si>
+  <si>
+    <t>JNSQ</t>
+  </si>
+  <si>
+    <t>Edna</t>
+  </si>
+  <si>
+    <t>Dak</t>
+  </si>
+  <si>
+    <t>Moon of Edna</t>
+  </si>
+  <si>
+    <t>Lindor</t>
+  </si>
+  <si>
+    <t>Krel</t>
+  </si>
+  <si>
+    <t>Moon of Lindor</t>
+  </si>
+  <si>
+    <t>Huygen</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>Talos</t>
+  </si>
+  <si>
+    <t>Hamek</t>
+  </si>
+  <si>
+    <t>Nara</t>
+  </si>
+  <si>
+    <t>Amos</t>
+  </si>
+  <si>
+    <t>Moon of Nara</t>
+  </si>
+  <si>
+    <t>Enon</t>
+  </si>
+  <si>
+    <t>Prax</t>
+  </si>
+  <si>
+    <t>Celes</t>
+  </si>
+  <si>
+    <t>Moon of Eeloo</t>
+  </si>
+  <si>
+    <t>Tam</t>
+  </si>
 </sst>
 </file>
 
@@ -878,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -887,6 +950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4482,7 +4546,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10721,7 +10785,7 @@
     </row>
     <row r="74" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -10743,7 +10807,7 @@
         <v>0.1</v>
       </c>
       <c r="I74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J74" s="1" t="str">
         <f t="shared" si="26"/>
@@ -10807,7 +10871,7 @@
     </row>
     <row r="75" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -10829,7 +10893,7 @@
         <v>0.1</v>
       </c>
       <c r="I75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J75" s="1" t="str">
         <f t="shared" si="26"/>
@@ -10893,7 +10957,7 @@
     </row>
     <row r="76" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -10915,7 +10979,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J76" s="1" t="str">
         <f t="shared" si="26"/>
@@ -10979,7 +11043,7 @@
     </row>
     <row r="77" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C77">
         <v>3.5</v>
@@ -11001,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J77" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11065,7 +11129,7 @@
     </row>
     <row r="78" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -11087,7 +11151,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J78" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11151,7 +11215,7 @@
     </row>
     <row r="79" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C79">
         <v>2.5</v>
@@ -11173,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J79" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11237,7 +11301,7 @@
     </row>
     <row r="80" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -11259,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J80" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11323,7 +11387,7 @@
     </row>
     <row r="81" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C81">
         <v>2.5</v>
@@ -11345,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J81" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11409,7 +11473,7 @@
     </row>
     <row r="82" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C82">
         <v>2.5</v>
@@ -11431,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J82" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11495,7 +11559,7 @@
     </row>
     <row r="83" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -11517,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J83" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11581,7 +11645,7 @@
     </row>
     <row r="84" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -11603,7 +11667,7 @@
         <v>0.1</v>
       </c>
       <c r="I84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J84" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11667,7 +11731,7 @@
     </row>
     <row r="85" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -11689,7 +11753,7 @@
         <v>0.5</v>
       </c>
       <c r="I85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J85" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11753,7 +11817,7 @@
     </row>
     <row r="86" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -11775,7 +11839,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J86" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11839,7 +11903,7 @@
     </row>
     <row r="87" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -11861,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J87" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11925,7 +11989,7 @@
     </row>
     <row r="88" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C88">
         <v>10</v>
@@ -11947,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J88" s="1" t="str">
         <f t="shared" ref="J88:J90" si="40">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A88,"],#scienceDifficulty[default]]:NEEDS[",I88,",!FeatureScience]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C88,CHAR(10),"     ","@scienceCap = ",D88,CHAR(10),"     ","@dataScale = ",E88,CHAR(10),"     ","@situationMask = ",F88,CHAR(10),"     ","@biomeMask = ",G88,CHAR(10),"}")</f>
@@ -11963,7 +12027,7 @@
     </row>
     <row r="89" spans="1:23" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C89">
         <v>10</v>
@@ -11985,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J89" s="1" t="str">
         <f t="shared" si="40"/>
@@ -12001,7 +12065,7 @@
     </row>
     <row r="90" spans="1:23" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C90">
         <v>10</v>
@@ -12023,7 +12087,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J90" s="1" t="str">
         <f t="shared" si="40"/>
@@ -19202,7 +19266,7 @@
     </row>
     <row r="75" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -19224,7 +19288,7 @@
         <v>0.1</v>
       </c>
       <c r="I75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J75" s="1" t="str">
         <f t="shared" si="29"/>
@@ -19298,7 +19362,7 @@
     </row>
     <row r="76" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -19320,7 +19384,7 @@
         <v>0.1</v>
       </c>
       <c r="I76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J76" s="1" t="str">
         <f t="shared" si="29"/>
@@ -19394,7 +19458,7 @@
     </row>
     <row r="77" spans="1:24" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -19416,7 +19480,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J77" s="1" t="str">
         <f t="shared" si="29"/>
@@ -19490,7 +19554,7 @@
     </row>
     <row r="78" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C78">
         <v>7</v>
@@ -19512,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J78" s="1" t="str">
         <f t="shared" si="29"/>
@@ -19586,7 +19650,7 @@
     </row>
     <row r="79" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -19608,7 +19672,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J79" s="1" t="str">
         <f t="shared" si="29"/>
@@ -19679,7 +19743,7 @@
     </row>
     <row r="80" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -19701,7 +19765,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J80" s="1" t="str">
         <f t="shared" si="29"/>
@@ -19775,7 +19839,7 @@
     </row>
     <row r="81" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -19797,7 +19861,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J81" s="1" t="str">
         <f t="shared" si="29"/>
@@ -19868,7 +19932,7 @@
     </row>
     <row r="82" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -19890,7 +19954,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J82" s="1" t="str">
         <f t="shared" si="29"/>
@@ -19964,7 +20028,7 @@
     </row>
     <row r="83" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -19986,7 +20050,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J83" s="1" t="str">
         <f t="shared" si="29"/>
@@ -20057,7 +20121,7 @@
     </row>
     <row r="84" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -20079,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J84" s="1" t="str">
         <f t="shared" si="29"/>
@@ -20150,7 +20214,7 @@
     </row>
     <row r="85" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C85">
         <v>10</v>
@@ -20172,7 +20236,7 @@
         <v>0.1</v>
       </c>
       <c r="I85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J85" s="1" t="str">
         <f t="shared" si="29"/>
@@ -20243,7 +20307,7 @@
     </row>
     <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C86">
         <v>10</v>
@@ -20265,7 +20329,7 @@
         <v>0.1</v>
       </c>
       <c r="I86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1" t="str">
@@ -20329,7 +20393,7 @@
     </row>
     <row r="87" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -20351,7 +20415,7 @@
         <v>0.5</v>
       </c>
       <c r="I87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J87" s="1" t="str">
         <f t="shared" si="29"/>
@@ -20425,7 +20489,7 @@
     </row>
     <row r="88" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C88">
         <v>8</v>
@@ -20447,7 +20511,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J88" s="1" t="str">
         <f t="shared" si="29"/>
@@ -20521,7 +20585,7 @@
     </row>
     <row r="89" spans="1:24" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C89">
         <v>7</v>
@@ -20543,7 +20607,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J89" s="1" t="str">
         <f t="shared" si="29"/>
@@ -20617,7 +20681,7 @@
     </row>
     <row r="90" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C90">
         <v>20</v>
@@ -20639,7 +20703,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J90" s="1" t="str">
         <f t="shared" si="29"/>
@@ -20710,7 +20774,7 @@
     </row>
     <row r="91" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C91">
         <v>20</v>
@@ -20732,7 +20796,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J91" s="1" t="str">
         <f t="shared" si="29"/>
@@ -20803,7 +20867,7 @@
     </row>
     <row r="92" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C92">
         <v>20</v>
@@ -20825,7 +20889,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J92" s="1" t="str">
         <f t="shared" ref="J92" si="59">_xlfn.CONCAT("@EXPERIMENT_DEFINITION:HAS[#id[",A92,"],#scienceDifficulty[default]]:NEEDS[",I92,",!FeatureScience]:FOR[zKiwiAerospace]",CHAR(10),"{",CHAR(10),"     ","@baseValue = ",C92,CHAR(10),"     ","@scienceCap = ",D92,CHAR(10),"     ","@dataScale = ",E92,CHAR(10),"     ","@situationMask = ",F92,CHAR(10),"     ","@biomeMask = ",G92,CHAR(10),"}")</f>
@@ -21222,11 +21286,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F6E689-7182-4BC0-80F9-0B8DE28A1A46}">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M94" sqref="M94:M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21281,12 +21345,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C2">
         <v>2.5</v>
@@ -21315,9 +21379,9 @@
       <c r="K2" s="2">
         <v>1000000000</v>
       </c>
-      <c r="M2" s="1" t="str">
+      <c r="M2" s="4" t="str">
         <f>_xlfn.CONCAT("Item:NEEDS[",B2,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A2,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C2,CHAR(10),"        ",D$1," = ",D2,CHAR(10),"        ",E$1," = ",E2,CHAR(10),"        ",F$1," = ",F2,CHAR(10),"        ",G$1," = ",G2,CHAR(10),"        ",H$1," = ",H2,CHAR(10),"        ",I$1," = ",I2,CHAR(10),"        ",J$1," = ",J2,CHAR(10),"        ",K$1," = ",K2,CHAR(10),"    }",CHAR(10),"}")</f>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Sun
     adjustedParams
@@ -21335,12 +21399,12 @@
 }</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C3">
         <v>0.8</v>
@@ -21369,9 +21433,9 @@
       <c r="K3">
         <v>250000</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="M3" s="4" t="str">
         <f t="shared" ref="M3:M66" si="0">_xlfn.CONCAT("Item:NEEDS[",B3,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A3,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C3,CHAR(10),"        ",D$1," = ",D3,CHAR(10),"        ",E$1," = ",E3,CHAR(10),"        ",F$1," = ",F3,CHAR(10),"        ",G$1," = ",G3,CHAR(10),"        ",H$1," = ",H3,CHAR(10),"        ",I$1," = ",I3,CHAR(10),"        ",J$1," = ",J3,CHAR(10),"        ",K$1," = ",K3,CHAR(10),"    }",CHAR(10),"}")</f>
-        <v>Item:NEEDS[Squad,!GPP]
+        <v>Item:NEEDS[Squad,!GPP,!JNSQ]
 {
     bodyName = Kerbin
     adjustedParams
@@ -21389,12 +21453,12 @@
 }</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -21428,9 +21492,9 @@
       <c r="K4">
         <v>60000</v>
       </c>
-      <c r="M4" s="1" t="str">
+      <c r="M4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Mun
     adjustedParams
@@ -21448,12 +21512,12 @@
 }</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C5">
         <v>3.5</v>
@@ -21487,9 +21551,9 @@
       <c r="K5">
         <v>30000</v>
       </c>
-      <c r="M5" s="1" t="str">
+      <c r="M5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Minmus
     adjustedParams
@@ -21507,12 +21571,12 @@
 }</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -21546,9 +21610,9 @@
       <c r="K6">
         <v>80000</v>
       </c>
-      <c r="M6" s="1" t="str">
+      <c r="M6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Moho
     adjustedParams
@@ -21566,12 +21630,12 @@
 }</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C7">
         <v>4.5</v>
@@ -21605,9 +21669,9 @@
       <c r="K7">
         <v>400000</v>
       </c>
-      <c r="M7" s="1" t="str">
+      <c r="M7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Eve
     adjustedParams
@@ -21625,12 +21689,12 @@
 }</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C8">
         <v>4.5</v>
@@ -21664,9 +21728,9 @@
       <c r="K8">
         <v>140000</v>
       </c>
-      <c r="M8" s="1" t="str">
+      <c r="M8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Duna
     adjustedParams
@@ -21684,12 +21748,12 @@
 }</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -21723,9 +21787,9 @@
       <c r="K9">
         <v>50000</v>
       </c>
-      <c r="M9" s="1" t="str">
+      <c r="M9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Ike
     adjustedParams
@@ -21743,12 +21807,12 @@
 }</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C10">
         <v>5.5</v>
@@ -21782,9 +21846,9 @@
       <c r="K10">
         <v>4000000</v>
       </c>
-      <c r="M10" s="1" t="str">
+      <c r="M10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Jool
     adjustedParams
@@ -21802,12 +21866,12 @@
 }</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -21841,9 +21905,9 @@
       <c r="K11">
         <v>200000</v>
       </c>
-      <c r="M11" s="1" t="str">
+      <c r="M11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Laythe
     adjustedParams
@@ -21861,12 +21925,12 @@
 }</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C12">
         <v>4.5</v>
@@ -21900,9 +21964,9 @@
       <c r="K12">
         <v>90000</v>
       </c>
-      <c r="M12" s="1" t="str">
+      <c r="M12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Vall
     adjustedParams
@@ -21920,12 +21984,12 @@
 }</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C13">
         <v>4.5</v>
@@ -21959,9 +22023,9 @@
       <c r="K13">
         <v>25000</v>
       </c>
-      <c r="M13" s="1" t="str">
+      <c r="M13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Bop
     adjustedParams
@@ -21979,12 +22043,12 @@
 }</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C14">
         <v>4.5</v>
@@ -22018,9 +22082,9 @@
       <c r="K14">
         <v>250000</v>
       </c>
-      <c r="M14" s="1" t="str">
+      <c r="M14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Tylo
     adjustedParams
@@ -22038,12 +22102,12 @@
 }</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C15">
         <v>4.5</v>
@@ -22077,9 +22141,9 @@
       <c r="K15">
         <v>6000</v>
       </c>
-      <c r="M15" s="1" t="str">
+      <c r="M15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Gilly
     adjustedParams
@@ -22097,12 +22161,12 @@
 }</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -22136,9 +22200,9 @@
       <c r="K16">
         <v>22000</v>
       </c>
-      <c r="M16" s="1" t="str">
+      <c r="M16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Pol
     adjustedParams
@@ -22156,12 +22220,12 @@
 }</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -22195,9 +22259,9 @@
       <c r="K17">
         <v>25000</v>
       </c>
-      <c r="M17" s="1" t="str">
+      <c r="M17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Dres
     adjustedParams
@@ -22215,12 +22279,12 @@
 }</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -22254,9 +22318,9 @@
       <c r="K18">
         <v>60000</v>
       </c>
-      <c r="M18" s="1" t="str">
+      <c r="M18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Item:NEEDS[Squad]
+        <v>Item:NEEDS[Squad,!JNSQ]
 {
     bodyName = Eeloo
     adjustedParams
@@ -22274,7 +22338,7 @@
 }</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -22316,7 +22380,7 @@
       <c r="L19" t="s">
         <v>97</v>
       </c>
-      <c r="M19" s="1" t="str">
+      <c r="M19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -22336,7 +22400,7 @@
 }</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -22378,7 +22442,7 @@
       <c r="L20" t="s">
         <v>97</v>
       </c>
-      <c r="M20" s="1" t="str">
+      <c r="M20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -22398,7 +22462,7 @@
 }</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -22440,7 +22504,7 @@
       <c r="L21" t="s">
         <v>99</v>
       </c>
-      <c r="M21" s="1" t="str">
+      <c r="M21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -22460,7 +22524,7 @@
 }</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -22502,7 +22566,7 @@
       <c r="L22" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="1" t="str">
+      <c r="M22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -22522,7 +22586,7 @@
 }</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -22564,7 +22628,7 @@
       <c r="L23" t="s">
         <v>101</v>
       </c>
-      <c r="M23" s="1" t="str">
+      <c r="M23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -22584,7 +22648,7 @@
 }</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -22626,7 +22690,7 @@
       <c r="L24" t="s">
         <v>101</v>
       </c>
-      <c r="M24" s="1" t="str">
+      <c r="M24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -22646,7 +22710,7 @@
 }</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -22688,7 +22752,7 @@
       <c r="L25" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="1" t="str">
+      <c r="M25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -22708,7 +22772,7 @@
 }</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -22750,7 +22814,7 @@
       <c r="L26" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="1" t="str">
+      <c r="M26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -22770,7 +22834,7 @@
 }</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -22812,7 +22876,7 @@
       <c r="L27" t="s">
         <v>106</v>
       </c>
-      <c r="M27" s="1" t="str">
+      <c r="M27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -22832,7 +22896,7 @@
 }</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -22874,7 +22938,7 @@
       <c r="L28" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="1" t="str">
+      <c r="M28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -22894,7 +22958,7 @@
 }</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -22936,7 +23000,7 @@
       <c r="L29" t="s">
         <v>106</v>
       </c>
-      <c r="M29" s="1" t="str">
+      <c r="M29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -22956,7 +23020,7 @@
 }</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -22998,7 +23062,7 @@
       <c r="L30" t="s">
         <v>114</v>
       </c>
-      <c r="M30" s="1" t="str">
+      <c r="M30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -23018,7 +23082,7 @@
 }</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -23060,7 +23124,7 @@
       <c r="L31" t="s">
         <v>114</v>
       </c>
-      <c r="M31" s="1" t="str">
+      <c r="M31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -23080,7 +23144,7 @@
 }</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -23122,7 +23186,7 @@
       <c r="L32" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="1" t="str">
+      <c r="M32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -23142,7 +23206,7 @@
 }</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -23184,7 +23248,7 @@
       <c r="L33" t="s">
         <v>114</v>
       </c>
-      <c r="M33" s="1" t="str">
+      <c r="M33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[OPM]
 {
@@ -23204,7 +23268,7 @@
 }</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -23246,7 +23310,7 @@
       <c r="L34" t="s">
         <v>117</v>
       </c>
-      <c r="M34" s="1" t="str">
+      <c r="M34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -23266,7 +23330,7 @@
 }</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -23308,7 +23372,7 @@
       <c r="L35" t="s">
         <v>117</v>
       </c>
-      <c r="M35" s="1" t="str">
+      <c r="M35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -23328,7 +23392,7 @@
 }</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -23370,7 +23434,7 @@
       <c r="L36" t="s">
         <v>120</v>
       </c>
-      <c r="M36" s="1" t="str">
+      <c r="M36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -23390,7 +23454,7 @@
 }</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -23432,7 +23496,7 @@
       <c r="L37" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="1" t="str">
+      <c r="M37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -23452,7 +23516,7 @@
 }</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -23494,7 +23558,7 @@
       <c r="L38" t="s">
         <v>130</v>
       </c>
-      <c r="M38" s="1" t="str">
+      <c r="M38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -23514,7 +23578,7 @@
 }</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -23556,7 +23620,7 @@
       <c r="L39" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="1" t="str">
+      <c r="M39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -23576,7 +23640,7 @@
 }</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -23618,7 +23682,7 @@
       <c r="L40" t="s">
         <v>127</v>
       </c>
-      <c r="M40" s="1" t="str">
+      <c r="M40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -23638,7 +23702,7 @@
 }</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -23680,7 +23744,7 @@
       <c r="L41" t="s">
         <v>127</v>
       </c>
-      <c r="M41" s="1" t="str">
+      <c r="M41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -23700,7 +23764,7 @@
 }</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -23742,7 +23806,7 @@
       <c r="L42" t="s">
         <v>127</v>
       </c>
-      <c r="M42" s="1" t="str">
+      <c r="M42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -23762,7 +23826,7 @@
 }</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -23804,7 +23868,7 @@
       <c r="L43" t="s">
         <v>127</v>
       </c>
-      <c r="M43" s="1" t="str">
+      <c r="M43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -23824,7 +23888,7 @@
 }</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -23866,7 +23930,7 @@
       <c r="L44" t="s">
         <v>136</v>
       </c>
-      <c r="M44" s="1" t="str">
+      <c r="M44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -23886,7 +23950,7 @@
 }</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -23928,7 +23992,7 @@
       <c r="L45" t="s">
         <v>120</v>
       </c>
-      <c r="M45" s="1" t="str">
+      <c r="M45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -23948,7 +24012,7 @@
 }</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>123</v>
       </c>
@@ -23990,7 +24054,7 @@
       <c r="L46" t="s">
         <v>124</v>
       </c>
-      <c r="M46" s="1" t="str">
+      <c r="M46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -24010,7 +24074,7 @@
 }</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -24052,7 +24116,7 @@
       <c r="L47" t="s">
         <v>120</v>
       </c>
-      <c r="M47" s="1" t="str">
+      <c r="M47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -24072,7 +24136,7 @@
 }</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -24114,7 +24178,7 @@
       <c r="L48" t="s">
         <v>122</v>
       </c>
-      <c r="M48" s="1" t="str">
+      <c r="M48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[MPE]
 {
@@ -24134,7 +24198,7 @@
 }</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>138</v>
       </c>
@@ -24176,7 +24240,7 @@
       <c r="L49" t="s">
         <v>140</v>
       </c>
-      <c r="M49" s="1" t="str">
+      <c r="M49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -24196,7 +24260,7 @@
 }</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -24238,7 +24302,7 @@
       <c r="L50" t="s">
         <v>142</v>
       </c>
-      <c r="M50" s="1" t="str">
+      <c r="M50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -24258,7 +24322,7 @@
 }</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -24300,7 +24364,7 @@
       <c r="L51" t="s">
         <v>140</v>
       </c>
-      <c r="M51" s="1" t="str">
+      <c r="M51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -24320,7 +24384,7 @@
 }</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>144</v>
       </c>
@@ -24362,7 +24426,7 @@
       <c r="L52" t="s">
         <v>145</v>
       </c>
-      <c r="M52" s="1" t="str">
+      <c r="M52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -24382,7 +24446,7 @@
 }</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>146</v>
       </c>
@@ -24424,7 +24488,7 @@
       <c r="L53" t="s">
         <v>142</v>
       </c>
-      <c r="M53" s="1" t="str">
+      <c r="M53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -24444,7 +24508,7 @@
 }</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>147</v>
       </c>
@@ -24486,7 +24550,7 @@
       <c r="L54" t="s">
         <v>148</v>
       </c>
-      <c r="M54" s="1" t="str">
+      <c r="M54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -24506,7 +24570,7 @@
 }</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -24548,7 +24612,7 @@
       <c r="L55" t="s">
         <v>142</v>
       </c>
-      <c r="M55" s="1" t="str">
+      <c r="M55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -24568,7 +24632,7 @@
 }</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -24610,7 +24674,7 @@
       <c r="L56" t="s">
         <v>140</v>
       </c>
-      <c r="M56" s="1" t="str">
+      <c r="M56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -24630,7 +24694,7 @@
 }</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -24672,7 +24736,7 @@
       <c r="L57" t="s">
         <v>140</v>
       </c>
-      <c r="M57" s="1" t="str">
+      <c r="M57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -24692,7 +24756,7 @@
 }</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -24734,7 +24798,7 @@
       <c r="L58" t="s">
         <v>140</v>
       </c>
-      <c r="M58" s="1" t="str">
+      <c r="M58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -24754,7 +24818,7 @@
 }</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -24796,7 +24860,7 @@
       <c r="L59" t="s">
         <v>140</v>
       </c>
-      <c r="M59" s="1" t="str">
+      <c r="M59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -24816,7 +24880,7 @@
 }</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -24858,7 +24922,7 @@
       <c r="L60" t="s">
         <v>155</v>
       </c>
-      <c r="M60" s="1" t="str">
+      <c r="M60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -24878,7 +24942,7 @@
 }</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>156</v>
       </c>
@@ -24920,7 +24984,7 @@
       <c r="L61" t="s">
         <v>155</v>
       </c>
-      <c r="M61" s="1" t="str">
+      <c r="M61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -24940,7 +25004,7 @@
 }</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>157</v>
       </c>
@@ -24982,7 +25046,7 @@
       <c r="L62" t="s">
         <v>140</v>
       </c>
-      <c r="M62" s="1" t="str">
+      <c r="M62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP]
 {
@@ -25002,12 +25066,12 @@
 }</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -25039,7 +25103,7 @@
       <c r="L63" t="s">
         <v>159</v>
       </c>
-      <c r="M63" s="1" t="str">
+      <c r="M63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GEP|GPP]
 {
@@ -25059,7 +25123,7 @@
 }</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>215</v>
       </c>
@@ -25098,7 +25162,7 @@
       <c r="K64">
         <v>80000</v>
       </c>
-      <c r="M64" s="1" t="str">
+      <c r="M64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GPP]
 {
@@ -25118,7 +25182,7 @@
 }</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>217</v>
       </c>
@@ -25157,7 +25221,7 @@
       <c r="K65">
         <v>250000</v>
       </c>
-      <c r="M65" s="1" t="str">
+      <c r="M65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GPP]
 {
@@ -25177,7 +25241,7 @@
 }</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>218</v>
       </c>
@@ -25216,7 +25280,7 @@
       <c r="K66">
         <v>30000</v>
       </c>
-      <c r="M66" s="1" t="str">
+      <c r="M66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Item:NEEDS[GPP]
 {
@@ -25236,7 +25300,7 @@
 }</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>219</v>
       </c>
@@ -25275,7 +25339,7 @@
       <c r="K67">
         <v>200000</v>
       </c>
-      <c r="M67" s="1" t="str">
+      <c r="M67" s="4" t="str">
         <f t="shared" ref="M67:M68" si="4">_xlfn.CONCAT("Item:NEEDS[",B67,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A67,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C67,CHAR(10),"        ",D$1," = ",D67,CHAR(10),"        ",E$1," = ",E67,CHAR(10),"        ",F$1," = ",F67,CHAR(10),"        ",G$1," = ",G67,CHAR(10),"        ",H$1," = ",H67,CHAR(10),"        ",I$1," = ",I67,CHAR(10),"        ",J$1," = ",J67,CHAR(10),"        ",K$1," = ",K67,CHAR(10),"    }",CHAR(10),"}")</f>
         <v>Item:NEEDS[GPP]
 {
@@ -25295,7 +25359,7 @@
 }</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -25329,7 +25393,7 @@
       <c r="K68">
         <v>300000</v>
       </c>
-      <c r="M68" s="1" t="str">
+      <c r="M68" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Item:NEEDS[GPP]
 {
@@ -25349,9 +25413,9 @@
 }</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B69" t="s">
         <v>216</v>
@@ -25383,7 +25447,7 @@
       <c r="K69">
         <v>300000</v>
       </c>
-      <c r="M69" s="1" t="str">
+      <c r="M69" s="4" t="str">
         <f t="shared" ref="M69:M73" si="5">_xlfn.CONCAT("Item:NEEDS[",B69,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A69,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C69,CHAR(10),"        ",D$1," = ",D69,CHAR(10),"        ",E$1," = ",E69,CHAR(10),"        ",F$1," = ",F69,CHAR(10),"        ",G$1," = ",G69,CHAR(10),"        ",H$1," = ",H69,CHAR(10),"        ",I$1," = ",I69,CHAR(10),"        ",J$1," = ",J69,CHAR(10),"        ",K$1," = ",K69,CHAR(10),"    }",CHAR(10),"}")</f>
         <v>Item:NEEDS[GPP]
 {
@@ -25403,9 +25467,9 @@
 }</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B70" t="s">
         <v>216</v>
@@ -25418,7 +25482,7 @@
         <v>3.5</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:H93" si="7">$C70-1</f>
+        <f t="shared" ref="E70:H94" si="7">$C70-1</f>
         <v>2.5</v>
       </c>
       <c r="F70">
@@ -25442,7 +25506,7 @@
       <c r="K70">
         <v>50000</v>
       </c>
-      <c r="M70" s="1" t="str">
+      <c r="M70" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Item:NEEDS[GPP]
 {
@@ -25462,9 +25526,9 @@
 }</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B71" t="s">
         <v>216</v>
@@ -25501,7 +25565,7 @@
       <c r="K71">
         <v>75000</v>
       </c>
-      <c r="M71" s="1" t="str">
+      <c r="M71" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Item:NEEDS[GPP]
 {
@@ -25521,9 +25585,9 @@
 }</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B72" t="s">
         <v>216</v>
@@ -25532,11 +25596,11 @@
         <v>4.5</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D93" si="8">$C72</f>
+        <f t="shared" ref="D72:D125" si="8">$C72</f>
         <v>4.5</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E93" si="9">$C72-1</f>
+        <f t="shared" ref="E72:H95" si="9">$C72-1</f>
         <v>3.5</v>
       </c>
       <c r="F72">
@@ -25560,7 +25624,7 @@
       <c r="K72">
         <v>500000</v>
       </c>
-      <c r="M72" s="1" t="str">
+      <c r="M72" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Item:NEEDS[GPP]
 {
@@ -25580,9 +25644,9 @@
 }</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B73" t="s">
         <v>216</v>
@@ -25619,7 +25683,7 @@
       <c r="K73">
         <v>10000</v>
       </c>
-      <c r="M73" s="1" t="str">
+      <c r="M73" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Item:NEEDS[GPP]
 {
@@ -25639,9 +25703,9 @@
 }</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B74" t="s">
         <v>216</v>
@@ -25678,7 +25742,7 @@
       <c r="K74">
         <v>275000</v>
       </c>
-      <c r="M74" s="1" t="str">
+      <c r="M74" s="4" t="str">
         <f t="shared" ref="M74:M78" si="10">_xlfn.CONCAT("Item:NEEDS[",B74,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A74,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C74,CHAR(10),"        ",D$1," = ",D74,CHAR(10),"        ",E$1," = ",E74,CHAR(10),"        ",F$1," = ",F74,CHAR(10),"        ",G$1," = ",G74,CHAR(10),"        ",H$1," = ",H74,CHAR(10),"        ",I$1," = ",I74,CHAR(10),"        ",J$1," = ",J74,CHAR(10),"        ",K$1," = ",K74,CHAR(10),"    }",CHAR(10),"}")</f>
         <v>Item:NEEDS[GPP]
 {
@@ -25698,9 +25762,9 @@
 }</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B75" t="s">
         <v>216</v>
@@ -25737,7 +25801,7 @@
       <c r="K75">
         <v>115000</v>
       </c>
-      <c r="M75" s="1" t="str">
+      <c r="M75" s="4" t="str">
         <f t="shared" si="10"/>
         <v>Item:NEEDS[GPP]
 {
@@ -25757,9 +25821,9 @@
 }</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B76" t="s">
         <v>216</v>
@@ -25796,7 +25860,7 @@
       <c r="K76">
         <v>1750000</v>
       </c>
-      <c r="M76" s="1" t="str">
+      <c r="M76" s="4" t="str">
         <f t="shared" si="10"/>
         <v>Item:NEEDS[GPP]
 {
@@ -25816,9 +25880,9 @@
 }</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B77" t="s">
         <v>216</v>
@@ -25855,7 +25919,7 @@
       <c r="K77">
         <v>175000</v>
       </c>
-      <c r="M77" s="1" t="str">
+      <c r="M77" s="4" t="str">
         <f t="shared" si="10"/>
         <v>Item:NEEDS[GPP]
 {
@@ -25875,9 +25939,9 @@
 }</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B78" t="s">
         <v>216</v>
@@ -25914,7 +25978,7 @@
       <c r="K78">
         <v>62500</v>
       </c>
-      <c r="M78" s="1" t="str">
+      <c r="M78" s="4" t="str">
         <f t="shared" si="10"/>
         <v>Item:NEEDS[GPP]
 {
@@ -25934,9 +25998,9 @@
 }</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B79" t="s">
         <v>216</v>
@@ -25973,7 +26037,7 @@
       <c r="K79">
         <v>52500</v>
       </c>
-      <c r="M79" s="1" t="str">
+      <c r="M79" s="4" t="str">
         <f t="shared" ref="M79:M81" si="11">_xlfn.CONCAT("Item:NEEDS[",B79,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A79,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C79,CHAR(10),"        ",D$1," = ",D79,CHAR(10),"        ",E$1," = ",E79,CHAR(10),"        ",F$1," = ",F79,CHAR(10),"        ",G$1," = ",G79,CHAR(10),"        ",H$1," = ",H79,CHAR(10),"        ",I$1," = ",I79,CHAR(10),"        ",J$1," = ",J79,CHAR(10),"        ",K$1," = ",K79,CHAR(10),"    }",CHAR(10),"}")</f>
         <v>Item:NEEDS[GPP]
 {
@@ -25993,9 +26057,9 @@
 }</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B80" t="s">
         <v>216</v>
@@ -26032,7 +26096,7 @@
       <c r="K80">
         <v>1250000</v>
       </c>
-      <c r="M80" s="1" t="str">
+      <c r="M80" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Item:NEEDS[GPP]
 {
@@ -26052,9 +26116,9 @@
 }</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B81" t="s">
         <v>216</v>
@@ -26091,7 +26155,7 @@
       <c r="K81">
         <v>90000</v>
       </c>
-      <c r="M81" s="1" t="str">
+      <c r="M81" s="4" t="str">
         <f t="shared" si="11"/>
         <v>Item:NEEDS[GPP]
 {
@@ -26111,9 +26175,9 @@
 }</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B82" t="s">
         <v>216</v>
@@ -26150,7 +26214,7 @@
       <c r="K82">
         <v>90000</v>
       </c>
-      <c r="M82" s="1" t="str">
+      <c r="M82" s="4" t="str">
         <f t="shared" ref="M82:M85" si="12">_xlfn.CONCAT("Item:NEEDS[",B82,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A82,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C82,CHAR(10),"        ",D$1," = ",D82,CHAR(10),"        ",E$1," = ",E82,CHAR(10),"        ",F$1," = ",F82,CHAR(10),"        ",G$1," = ",G82,CHAR(10),"        ",H$1," = ",H82,CHAR(10),"        ",I$1," = ",I82,CHAR(10),"        ",J$1," = ",J82,CHAR(10),"        ",K$1," = ",K82,CHAR(10),"    }",CHAR(10),"}")</f>
         <v>Item:NEEDS[GPP]
 {
@@ -26170,9 +26234,9 @@
 }</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B83" t="s">
         <v>216</v>
@@ -26209,7 +26273,7 @@
       <c r="K83">
         <v>160000</v>
       </c>
-      <c r="M83" s="1" t="str">
+      <c r="M83" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Item:NEEDS[GPP]
 {
@@ -26229,9 +26293,9 @@
 }</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B84" t="s">
         <v>216</v>
@@ -26268,7 +26332,7 @@
       <c r="K84">
         <v>2500000</v>
       </c>
-      <c r="M84" s="1" t="str">
+      <c r="M84" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Item:NEEDS[GPP]
 {
@@ -26288,9 +26352,9 @@
 }</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B85" t="s">
         <v>216</v>
@@ -26327,7 +26391,7 @@
       <c r="K85">
         <v>150000</v>
       </c>
-      <c r="M85" s="1" t="str">
+      <c r="M85" s="4" t="str">
         <f t="shared" si="12"/>
         <v>Item:NEEDS[GPP]
 {
@@ -26347,9 +26411,9 @@
 }</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B86" t="s">
         <v>216</v>
@@ -26386,7 +26450,7 @@
       <c r="K86">
         <v>45000</v>
       </c>
-      <c r="M86" s="1" t="str">
+      <c r="M86" s="4" t="str">
         <f t="shared" ref="M86" si="13">_xlfn.CONCAT("Item:NEEDS[",B86,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A86,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C86,CHAR(10),"        ",D$1," = ",D86,CHAR(10),"        ",E$1," = ",E86,CHAR(10),"        ",F$1," = ",F86,CHAR(10),"        ",G$1," = ",G86,CHAR(10),"        ",H$1," = ",H86,CHAR(10),"        ",I$1," = ",I86,CHAR(10),"        ",J$1," = ",J86,CHAR(10),"        ",K$1," = ",K86,CHAR(10),"    }",CHAR(10),"}")</f>
         <v>Item:NEEDS[GPP]
 {
@@ -26406,9 +26470,9 @@
 }</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B87" t="s">
         <v>216</v>
@@ -26445,7 +26509,7 @@
       <c r="K87">
         <v>65000</v>
       </c>
-      <c r="M87" s="1" t="str">
+      <c r="M87" s="4" t="str">
         <f t="shared" ref="M87" si="14">_xlfn.CONCAT("Item:NEEDS[",B87,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A87,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C87,CHAR(10),"        ",D$1," = ",D87,CHAR(10),"        ",E$1," = ",E87,CHAR(10),"        ",F$1," = ",F87,CHAR(10),"        ",G$1," = ",G87,CHAR(10),"        ",H$1," = ",H87,CHAR(10),"        ",I$1," = ",I87,CHAR(10),"        ",J$1," = ",J87,CHAR(10),"        ",K$1," = ",K87,CHAR(10),"    }",CHAR(10),"}")</f>
         <v>Item:NEEDS[GPP]
 {
@@ -26465,9 +26529,9 @@
 }</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B88" t="s">
         <v>216</v>
@@ -26504,7 +26568,7 @@
       <c r="K88">
         <v>60000</v>
       </c>
-      <c r="M88" s="1" t="str">
+      <c r="M88" s="4" t="str">
         <f t="shared" ref="M88" si="15">_xlfn.CONCAT("Item:NEEDS[",B88,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A88,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C88,CHAR(10),"        ",D$1," = ",D88,CHAR(10),"        ",E$1," = ",E88,CHAR(10),"        ",F$1," = ",F88,CHAR(10),"        ",G$1," = ",G88,CHAR(10),"        ",H$1," = ",H88,CHAR(10),"        ",I$1," = ",I88,CHAR(10),"        ",J$1," = ",J88,CHAR(10),"        ",K$1," = ",K88,CHAR(10),"    }",CHAR(10),"}")</f>
         <v>Item:NEEDS[GPP]
 {
@@ -26524,9 +26588,9 @@
 }</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B89" t="s">
         <v>216</v>
@@ -26563,7 +26627,7 @@
       <c r="K89">
         <v>25000</v>
       </c>
-      <c r="M89" s="1" t="str">
+      <c r="M89" s="4" t="str">
         <f t="shared" ref="M89" si="16">_xlfn.CONCAT("Item:NEEDS[",B89,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A89,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C89,CHAR(10),"        ",D$1," = ",D89,CHAR(10),"        ",E$1," = ",E89,CHAR(10),"        ",F$1," = ",F89,CHAR(10),"        ",G$1," = ",G89,CHAR(10),"        ",H$1," = ",H89,CHAR(10),"        ",I$1," = ",I89,CHAR(10),"        ",J$1," = ",J89,CHAR(10),"        ",K$1," = ",K89,CHAR(10),"    }",CHAR(10),"}")</f>
         <v>Item:NEEDS[GPP]
 {
@@ -26583,9 +26647,9 @@
 }</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B90" t="s">
         <v>216</v>
@@ -26622,7 +26686,7 @@
       <c r="K90">
         <v>15000</v>
       </c>
-      <c r="M90" s="1" t="str">
+      <c r="M90" s="4" t="str">
         <f t="shared" ref="M90:M91" si="17">_xlfn.CONCAT("Item:NEEDS[",B90,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A90,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C90,CHAR(10),"        ",D$1," = ",D90,CHAR(10),"        ",E$1," = ",E90,CHAR(10),"        ",F$1," = ",F90,CHAR(10),"        ",G$1," = ",G90,CHAR(10),"        ",H$1," = ",H90,CHAR(10),"        ",I$1," = ",I90,CHAR(10),"        ",J$1," = ",J90,CHAR(10),"        ",K$1," = ",K90,CHAR(10),"    }",CHAR(10),"}")</f>
         <v>Item:NEEDS[GPP]
 {
@@ -26642,9 +26706,9 @@
 }</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B91" t="s">
         <v>216</v>
@@ -26681,7 +26745,7 @@
       <c r="K91">
         <v>125000</v>
       </c>
-      <c r="M91" s="1" t="str">
+      <c r="M91" s="4" t="str">
         <f t="shared" si="17"/>
         <v>Item:NEEDS[GPP]
 {
@@ -26701,9 +26765,9 @@
 }</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B92" t="s">
         <v>216</v>
@@ -26740,8 +26804,8 @@
       <c r="K92">
         <v>40000</v>
       </c>
-      <c r="M92" s="1" t="str">
-        <f t="shared" ref="M92:M93" si="18">_xlfn.CONCAT("Item:NEEDS[",B92,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A92,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C92,CHAR(10),"        ",D$1," = ",D92,CHAR(10),"        ",E$1," = ",E92,CHAR(10),"        ",F$1," = ",F92,CHAR(10),"        ",G$1," = ",G92,CHAR(10),"        ",H$1," = ",H92,CHAR(10),"        ",I$1," = ",I92,CHAR(10),"        ",J$1," = ",J92,CHAR(10),"        ",K$1," = ",K92,CHAR(10),"    }",CHAR(10),"}")</f>
+      <c r="M92" s="4" t="str">
+        <f t="shared" ref="M92:M125" si="18">_xlfn.CONCAT("Item:NEEDS[",B92,"]",CHAR(10),"{",CHAR(10),"    bodyName = ",A92,CHAR(10),"    adjustedParams",CHAR(10),"    {",CHAR(10),"        ",C$1," = ",C92,CHAR(10),"        ",D$1," = ",D92,CHAR(10),"        ",E$1," = ",E92,CHAR(10),"        ",F$1," = ",F92,CHAR(10),"        ",G$1," = ",G92,CHAR(10),"        ",H$1," = ",H92,CHAR(10),"        ",I$1," = ",I92,CHAR(10),"        ",J$1," = ",J92,CHAR(10),"        ",K$1," = ",K92,CHAR(10),"    }",CHAR(10),"}")</f>
         <v>Item:NEEDS[GPP]
 {
     bodyName = Argo
@@ -26760,9 +26824,9 @@
 }</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="232" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B93" t="s">
         <v>216</v>
@@ -26799,7 +26863,7 @@
       <c r="K93">
         <v>105000</v>
       </c>
-      <c r="M93" s="1" t="str">
+      <c r="M93" s="4" t="str">
         <f t="shared" si="18"/>
         <v>Item:NEEDS[GPP]
 {
@@ -26815,6 +26879,1927 @@
         recoveredData = 13
         flyingThreshold = 9000
         spaceThreshold = 105000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" t="s">
+        <v>268</v>
+      </c>
+      <c r="C94">
+        <v>2.5</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94">
+        <v>500000</v>
+      </c>
+      <c r="K94" s="2">
+        <v>3000000000</v>
+      </c>
+      <c r="M94" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Sun
+    adjustedParams
+    {
+        landedData = 2.5
+        splashedData = 2.5
+        flyingLowData = 1.5
+        flyingHighData = 1.5
+        spaceLowData = 1.5
+        spaceHighData = 1.5
+        recoveredData = 4
+        flyingThreshold = 500000
+        spaceThreshold = 3000000000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>7</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>325000</v>
+      </c>
+      <c r="M95" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Moho
+    adjustedParams
+    {
+        landedData = 5
+        splashedData = 5
+        flyingLowData = 4
+        flyingHighData = 4
+        spaceLowData = 4
+        spaceHighData = 4
+        recoveredData = 7
+        flyingThreshold = 1
+        spaceThreshold = 325000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96">
+        <v>4.5</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ref="E96:H125" si="19">$C96-1</f>
+        <v>3.5</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="J96">
+        <v>27000</v>
+      </c>
+      <c r="K96">
+        <v>1025000</v>
+      </c>
+      <c r="M96" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Eve
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 5
+        flyingThreshold = 27000
+        spaceThreshold = 1025000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" t="s">
+        <v>268</v>
+      </c>
+      <c r="C97">
+        <v>4.5</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="I97">
+        <v>6</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>20000</v>
+      </c>
+      <c r="M97" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Gilly
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 6
+        flyingThreshold = 1
+        spaceThreshold = 20000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" t="s">
+        <v>268</v>
+      </c>
+      <c r="C98">
+        <v>0.8</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="19"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="19"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="19"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="19"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>21000</v>
+      </c>
+      <c r="K98">
+        <v>800000</v>
+      </c>
+      <c r="M98" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Kerbin
+    adjustedParams
+    {
+        landedData = 0.8
+        splashedData = 0.8
+        flyingLowData = -0.2
+        flyingHighData = -0.2
+        spaceLowData = -0.2
+        spaceHighData = -0.2
+        recoveredData = 1
+        flyingThreshold = 21000
+        spaceThreshold = 800000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" t="s">
+        <v>268</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>200000</v>
+      </c>
+      <c r="M99" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Mun
+    adjustedParams
+    {
+        landedData = 3
+        splashedData = 3
+        flyingLowData = 2
+        flyingHighData = 2
+        spaceLowData = 2
+        spaceHighData = 2
+        recoveredData = 2
+        flyingThreshold = 1
+        spaceThreshold = 200000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100">
+        <v>3.5</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+      <c r="I100">
+        <v>2.5</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>80000</v>
+      </c>
+      <c r="M100" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Minmus
+    adjustedParams
+    {
+        landedData = 3.5
+        splashedData = 3.5
+        flyingLowData = 2.5
+        flyingHighData = 2.5
+        spaceLowData = 2.5
+        spaceHighData = 2.5
+        recoveredData = 2.5
+        flyingThreshold = 1
+        spaceThreshold = 80000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" t="s">
+        <v>268</v>
+      </c>
+      <c r="C101">
+        <v>4.5</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="I101">
+        <v>5</v>
+      </c>
+      <c r="J101">
+        <v>10000</v>
+      </c>
+      <c r="K101">
+        <v>400000</v>
+      </c>
+      <c r="M101" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Duna
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 5
+        flyingThreshold = 10000
+        spaceThreshold = 400000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B102" t="s">
+        <v>268</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>105000</v>
+      </c>
+      <c r="M102" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Ike
+    adjustedParams
+    {
+        landedData = 4
+        splashedData = 4
+        flyingLowData = 3
+        flyingHighData = 3
+        spaceLowData = 3
+        spaceHighData = 3
+        recoveredData = 5
+        flyingThreshold = 1
+        spaceThreshold = 105000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>269</v>
+      </c>
+      <c r="B103" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>6</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>130000</v>
+      </c>
+      <c r="M103" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Edna
+    adjustedParams
+    {
+        landedData = 4
+        splashedData = 4
+        flyingLowData = 3
+        flyingHighData = 3
+        spaceLowData = 3
+        spaceHighData = 3
+        recoveredData = 6
+        flyingThreshold = 1
+        spaceThreshold = 130000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104">
+        <v>3.5</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+      <c r="I104">
+        <v>6</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>15000</v>
+      </c>
+      <c r="L104" t="s">
+        <v>271</v>
+      </c>
+      <c r="M104" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Dak
+    adjustedParams
+    {
+        landedData = 3.5
+        splashedData = 3.5
+        flyingLowData = 2.5
+        flyingHighData = 2.5
+        spaceLowData = 2.5
+        spaceHighData = 2.5
+        recoveredData = 6
+        flyingThreshold = 1
+        spaceThreshold = 15000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>90</v>
+      </c>
+      <c r="B105" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="I105">
+        <v>6</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>180000</v>
+      </c>
+      <c r="M105" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Dres
+    adjustedParams
+    {
+        landedData = 4
+        splashedData = 4
+        flyingLowData = 3
+        flyingHighData = 3
+        spaceLowData = 3
+        spaceHighData = 3
+        recoveredData = 6
+        flyingThreshold = 1
+        spaceThreshold = 180000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" t="s">
+        <v>268</v>
+      </c>
+      <c r="C106">
+        <v>5.5</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="8"/>
+        <v>5.5</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="I106">
+        <v>6</v>
+      </c>
+      <c r="J106">
+        <v>285000</v>
+      </c>
+      <c r="K106">
+        <v>7000000</v>
+      </c>
+      <c r="M106" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Jool
+    adjustedParams
+    {
+        landedData = 5.5
+        splashedData = 5.5
+        flyingLowData = 4.5
+        flyingHighData = 4.5
+        spaceLowData = 4.5
+        spaceHighData = 4.5
+        recoveredData = 6
+        flyingThreshold = 285000
+        spaceThreshold = 7000000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="I107">
+        <v>8</v>
+      </c>
+      <c r="J107">
+        <v>23000</v>
+      </c>
+      <c r="K107">
+        <v>550000</v>
+      </c>
+      <c r="M107" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Laythe
+    adjustedParams
+    {
+        landedData = 6
+        splashedData = 6
+        flyingLowData = 5
+        flyingHighData = 5
+        spaceLowData = 5
+        spaceHighData = 5
+        recoveredData = 8
+        flyingThreshold = 23000
+        spaceThreshold = 550000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" t="s">
+        <v>268</v>
+      </c>
+      <c r="C108">
+        <v>4.5</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="I108">
+        <v>8</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>275000</v>
+      </c>
+      <c r="M108" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Vall
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 8
+        flyingThreshold = 1
+        spaceThreshold = 275000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109" t="s">
+        <v>268</v>
+      </c>
+      <c r="C109">
+        <v>5.5</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="8"/>
+        <v>5.5</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="I109">
+        <v>8</v>
+      </c>
+      <c r="J109">
+        <v>11000</v>
+      </c>
+      <c r="K109">
+        <v>450000</v>
+      </c>
+      <c r="M109" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Tylo
+    adjustedParams
+    {
+        landedData = 5.5
+        splashedData = 5.5
+        flyingLowData = 4.5
+        flyingHighData = 4.5
+        spaceLowData = 4.5
+        spaceHighData = 4.5
+        recoveredData = 8
+        flyingThreshold = 11000
+        spaceThreshold = 450000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" t="s">
+        <v>268</v>
+      </c>
+      <c r="C110">
+        <v>4.5</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="I110">
+        <v>8</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>95000</v>
+      </c>
+      <c r="M110" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Bop
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 8
+        flyingThreshold = 1
+        spaceThreshold = 95000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111">
+        <v>4.5</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="I111">
+        <v>8</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>65000</v>
+      </c>
+      <c r="M111" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Pol
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 8
+        flyingThreshold = 1
+        spaceThreshold = 65000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112" t="s">
+        <v>268</v>
+      </c>
+      <c r="C112">
+        <v>5.5</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="8"/>
+        <v>5.5</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="I112">
+        <v>7</v>
+      </c>
+      <c r="J112">
+        <v>230000</v>
+      </c>
+      <c r="K112">
+        <v>4000000</v>
+      </c>
+      <c r="M112" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Lindor
+    adjustedParams
+    {
+        landedData = 5.5
+        splashedData = 5.5
+        flyingLowData = 4.5
+        flyingHighData = 4.5
+        spaceLowData = 4.5
+        spaceHighData = 4.5
+        recoveredData = 7
+        flyingThreshold = 230000
+        spaceThreshold = 4000000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113">
+        <v>4.5</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="I113">
+        <v>9</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>75000</v>
+      </c>
+      <c r="L113" t="s">
+        <v>274</v>
+      </c>
+      <c r="M113" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Krel
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 9
+        flyingThreshold = 1
+        spaceThreshold = 75000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>267</v>
+      </c>
+      <c r="B114" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114">
+        <v>4.5</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="I114">
+        <v>9</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>150000</v>
+      </c>
+      <c r="L114" t="s">
+        <v>274</v>
+      </c>
+      <c r="M114" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Aden
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 9
+        flyingThreshold = 1
+        spaceThreshold = 150000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>275</v>
+      </c>
+      <c r="B115" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115">
+        <v>5.5</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="8"/>
+        <v>5.5</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="I115">
+        <v>9</v>
+      </c>
+      <c r="J115">
+        <v>75000</v>
+      </c>
+      <c r="K115">
+        <v>335000</v>
+      </c>
+      <c r="L115" t="s">
+        <v>274</v>
+      </c>
+      <c r="M115" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Huygen
+    adjustedParams
+    {
+        landedData = 5.5
+        splashedData = 5.5
+        flyingLowData = 4.5
+        flyingHighData = 4.5
+        spaceLowData = 4.5
+        spaceHighData = 4.5
+        recoveredData = 9
+        flyingThreshold = 75000
+        spaceThreshold = 335000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116">
+        <v>5.5</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="8"/>
+        <v>5.5</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="I116">
+        <v>9</v>
+      </c>
+      <c r="J116">
+        <v>10000</v>
+      </c>
+      <c r="K116">
+        <v>375000</v>
+      </c>
+      <c r="L116" t="s">
+        <v>274</v>
+      </c>
+      <c r="M116" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Riga
+    adjustedParams
+    {
+        landedData = 5.5
+        splashedData = 5.5
+        flyingLowData = 4.5
+        flyingHighData = 4.5
+        spaceLowData = 4.5
+        spaceHighData = 4.5
+        recoveredData = 9
+        flyingThreshold = 10000
+        spaceThreshold = 375000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" t="s">
+        <v>268</v>
+      </c>
+      <c r="C117">
+        <v>4.5</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="I117">
+        <v>9</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>250000</v>
+      </c>
+      <c r="L117" t="s">
+        <v>274</v>
+      </c>
+      <c r="M117" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Talos
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 9
+        flyingThreshold = 1
+        spaceThreshold = 250000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>278</v>
+      </c>
+      <c r="B118" t="s">
+        <v>268</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="I118">
+        <v>10</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>225000</v>
+      </c>
+      <c r="M118" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Hamek
+    adjustedParams
+    {
+        landedData = 5
+        splashedData = 5
+        flyingLowData = 4
+        flyingHighData = 4
+        spaceLowData = 4
+        spaceHighData = 4
+        recoveredData = 10
+        flyingThreshold = 1
+        spaceThreshold = 225000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>91</v>
+      </c>
+      <c r="B119" t="s">
+        <v>268</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="I119">
+        <v>10</v>
+      </c>
+      <c r="J119">
+        <v>10000</v>
+      </c>
+      <c r="K119">
+        <v>300000</v>
+      </c>
+      <c r="M119" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Eeloo
+    adjustedParams
+    {
+        landedData = 5
+        splashedData = 5
+        flyingLowData = 4
+        flyingHighData = 4
+        spaceLowData = 4
+        spaceHighData = 4
+        recoveredData = 10
+        flyingThreshold = 10000
+        spaceThreshold = 300000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>284</v>
+      </c>
+      <c r="B120" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120">
+        <v>4.5</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="I120">
+        <v>10</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>100000</v>
+      </c>
+      <c r="L120" t="s">
+        <v>285</v>
+      </c>
+      <c r="M120" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Celes
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 10
+        flyingThreshold = 1
+        spaceThreshold = 100000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>286</v>
+      </c>
+      <c r="B121" t="s">
+        <v>268</v>
+      </c>
+      <c r="C121">
+        <v>4.5</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="I121">
+        <v>10</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>10000</v>
+      </c>
+      <c r="L121" t="s">
+        <v>285</v>
+      </c>
+      <c r="M121" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Tam
+    adjustedParams
+    {
+        landedData = 4.5
+        splashedData = 4.5
+        flyingLowData = 3.5
+        flyingHighData = 3.5
+        spaceLowData = 3.5
+        spaceHighData = 3.5
+        recoveredData = 10
+        flyingThreshold = 1
+        spaceThreshold = 10000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>279</v>
+      </c>
+      <c r="B122" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="I122">
+        <v>12</v>
+      </c>
+      <c r="J122">
+        <v>85000</v>
+      </c>
+      <c r="K122">
+        <v>1800000</v>
+      </c>
+      <c r="M122" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Nara
+    adjustedParams
+    {
+        landedData = 6
+        splashedData = 6
+        flyingLowData = 5
+        flyingHighData = 5
+        spaceLowData = 5
+        spaceHighData = 5
+        recoveredData = 12
+        flyingThreshold = 85000
+        spaceThreshold = 1800000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>280</v>
+      </c>
+      <c r="B123" t="s">
+        <v>268</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <v>12</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>160000</v>
+      </c>
+      <c r="L123" t="s">
+        <v>281</v>
+      </c>
+      <c r="M123" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Amos
+    adjustedParams
+    {
+        landedData = 5
+        splashedData = 5
+        flyingLowData = 4
+        flyingHighData = 4
+        spaceLowData = 4
+        spaceHighData = 4
+        recoveredData = 12
+        flyingThreshold = 1
+        spaceThreshold = 160000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>282</v>
+      </c>
+      <c r="B124" t="s">
+        <v>268</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="I124">
+        <v>12</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>350000</v>
+      </c>
+      <c r="L124" t="s">
+        <v>281</v>
+      </c>
+      <c r="M124" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Enon
+    adjustedParams
+    {
+        landedData = 5
+        splashedData = 5
+        flyingLowData = 4
+        flyingHighData = 4
+        spaceLowData = 4
+        spaceHighData = 4
+        recoveredData = 12
+        flyingThreshold = 1
+        spaceThreshold = 350000
+    }
+}</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>283</v>
+      </c>
+      <c r="B125" t="s">
+        <v>268</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="I125">
+        <v>12</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>55000</v>
+      </c>
+      <c r="L125" t="s">
+        <v>281</v>
+      </c>
+      <c r="M125" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>Item:NEEDS[JNSQ]
+{
+    bodyName = Prax
+    adjustedParams
+    {
+        landedData = 5
+        splashedData = 5
+        flyingLowData = 4
+        flyingHighData = 4
+        spaceLowData = 4
+        spaceHighData = 4
+        recoveredData = 12
+        flyingThreshold = 1
+        spaceThreshold = 55000
     }
 }</v>
       </c>
